--- a/Diseño/ProyectoRedes.xlsx
+++ b/Diseño/ProyectoRedes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\PROYECTO REDES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\PROYECTO REDES\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A336CCE-0446-4852-9D1C-D846FD083CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949E7AE9-C325-4185-A5ED-4D9C2F2EBC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="PRINCIPAL" sheetId="1" r:id="rId1"/>
     <sheet name="CALCULO VLANS" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PRINCIPAL!$B$32:$G$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="468">
   <si>
     <t>192.168.0.0</t>
   </si>
@@ -498,183 +501,27 @@
     <t>TABLA DE VLANS</t>
   </si>
   <si>
-    <t>SI VES ESTO, MANDA UN STICKER AL CHAT PERSONAL DEL JEFE DE INGENIERIA PARA SABER QUIÉN ESTÁ REVISANDO EL DOCUMENTO</t>
-  </si>
-  <si>
-    <t>Host tentativos</t>
-  </si>
-  <si>
     <t>192.168.0.63</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.0.1 </t>
-  </si>
-  <si>
     <t>192.168.0.62</t>
   </si>
   <si>
-    <t>255.255.255.192/26</t>
-  </si>
-  <si>
     <t>192.168.0.64</t>
   </si>
   <si>
     <t>192.168.0.65</t>
   </si>
   <si>
-    <t xml:space="preserve"> 192.168.0.126</t>
-  </si>
-  <si>
     <t>192.168.0.127</t>
   </si>
   <si>
     <t>192.168.0.128</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.0.129 </t>
-  </si>
-  <si>
-    <t>192.168.0.190</t>
-  </si>
-  <si>
-    <t>192.168.0.191</t>
-  </si>
-  <si>
-    <t>192.168.0.192</t>
-  </si>
-  <si>
-    <t>192.168.0.193</t>
-  </si>
-  <si>
-    <t>192.168.0.254</t>
-  </si>
-  <si>
-    <t>192.168.0.255</t>
-  </si>
-  <si>
-    <t>192.168.1.0</t>
-  </si>
-  <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
-    <t>192.168.1.62</t>
-  </si>
-  <si>
-    <t>192.168.1.63</t>
-  </si>
-  <si>
-    <t>192.168.1.64</t>
-  </si>
-  <si>
-    <t>192.168.1.65</t>
-  </si>
-  <si>
-    <t>192.168.1.94</t>
-  </si>
-  <si>
-    <t>192.168.1.95</t>
-  </si>
-  <si>
     <t>255.255.255.224/27</t>
   </si>
   <si>
-    <t>192.168.1.96</t>
-  </si>
-  <si>
-    <t>192.168.1.97</t>
-  </si>
-  <si>
-    <t>192.168.1.103</t>
-  </si>
-  <si>
-    <t>192.168.1.104</t>
-  </si>
-  <si>
-    <t>192.168.1.107</t>
-  </si>
-  <si>
-    <t>192.168.1.108</t>
-  </si>
-  <si>
-    <t>192.168.1.111</t>
-  </si>
-  <si>
-    <t>192.168.1.112</t>
-  </si>
-  <si>
-    <t>192.168.1.115</t>
-  </si>
-  <si>
-    <t>192.168.1.116</t>
-  </si>
-  <si>
-    <t>192.168.1.119</t>
-  </si>
-  <si>
-    <t>192.168.1.120</t>
-  </si>
-  <si>
-    <t>192.168.1.123</t>
-  </si>
-  <si>
-    <t>192.168.1.124</t>
-  </si>
-  <si>
-    <t>192.168.1.127</t>
-  </si>
-  <si>
-    <t>192.168.1.128</t>
-  </si>
-  <si>
-    <t>192.168.1.131</t>
-  </si>
-  <si>
-    <t>192.168.1.102</t>
-  </si>
-  <si>
-    <t>192.168.1.105</t>
-  </si>
-  <si>
-    <t>192.168.1.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.109 </t>
-  </si>
-  <si>
-    <t>192.168.1.110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.113 </t>
-  </si>
-  <si>
-    <t>192.168.1.114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.117 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 192.168.1.118</t>
-  </si>
-  <si>
-    <t>192.168.1.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 192.168.1.122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.125 </t>
-  </si>
-  <si>
-    <t>192.168.1.126</t>
-  </si>
-  <si>
-    <t>192.168.1.129</t>
-  </si>
-  <si>
-    <t>192.168.1.130</t>
-  </si>
-  <si>
     <t>255.255.255.248/29</t>
   </si>
   <si>
@@ -705,169 +552,898 @@
     <t>192.168.2.128</t>
   </si>
   <si>
-    <t>192.168.2.192</t>
-  </si>
-  <si>
-    <t>192.168.3.0</t>
-  </si>
-  <si>
-    <t>192.168.3.64</t>
-  </si>
-  <si>
-    <t>192.168.3.96</t>
-  </si>
-  <si>
-    <t>192.168.3.104</t>
-  </si>
-  <si>
-    <t>192.168.3.108</t>
-  </si>
-  <si>
-    <t>192.168.3.112</t>
-  </si>
-  <si>
-    <t>192.168.3.116</t>
-  </si>
-  <si>
-    <t>192.168.3.120</t>
-  </si>
-  <si>
-    <t>192.168.3.124</t>
-  </si>
-  <si>
-    <t>192.168.3.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.1 </t>
-  </si>
-  <si>
     <t>192.168.2.65</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.2.129 </t>
-  </si>
-  <si>
-    <t>192.168.2.193</t>
-  </si>
-  <si>
-    <t>192.168.3.1</t>
-  </si>
-  <si>
-    <t>192.168.3.62</t>
-  </si>
-  <si>
-    <t>192.168.3.63</t>
-  </si>
-  <si>
-    <t>192.168.3.65</t>
-  </si>
-  <si>
-    <t>192.168.3.94</t>
-  </si>
-  <si>
-    <t>192.168.3.95</t>
-  </si>
-  <si>
-    <t>192.168.3.97</t>
-  </si>
-  <si>
-    <t>192.168.3.102</t>
-  </si>
-  <si>
-    <t>192.168.3.103</t>
-  </si>
-  <si>
-    <t>192.168.3.105</t>
-  </si>
-  <si>
-    <t>192.168.3.106</t>
-  </si>
-  <si>
-    <t>192.168.3.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.3.109 </t>
-  </si>
-  <si>
-    <t>192.168.3.110</t>
-  </si>
-  <si>
-    <t>192.168.3.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.3.113 </t>
-  </si>
-  <si>
-    <t>192.168.3.114</t>
-  </si>
-  <si>
-    <t>192.168.3.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.3.117 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 192.168.3.118</t>
-  </si>
-  <si>
-    <t>192.168.3.119</t>
-  </si>
-  <si>
-    <t>192.168.3.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 192.168.3.122</t>
-  </si>
-  <si>
-    <t>192.168.3.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.3.125 </t>
-  </si>
-  <si>
-    <t>192.168.3.126</t>
-  </si>
-  <si>
-    <t>192.168.3.127</t>
-  </si>
-  <si>
-    <t>192.168.3.129</t>
-  </si>
-  <si>
-    <t>192.168.3.130</t>
-  </si>
-  <si>
-    <t>192.168.3.131</t>
-  </si>
-  <si>
     <t>192.168.2.62</t>
   </si>
   <si>
     <t>192.168.2.63</t>
   </si>
   <si>
-    <t xml:space="preserve"> 192.168.2.126</t>
-  </si>
-  <si>
     <t>192.168.2.127</t>
   </si>
   <si>
-    <t>192.168.2.190</t>
-  </si>
-  <si>
-    <t>192.168.2.191</t>
-  </si>
-  <si>
-    <t>192.168.2.254</t>
-  </si>
-  <si>
-    <t>192.168.2.255</t>
-  </si>
-  <si>
     <t>Tabla VLAN Ciudad de México</t>
   </si>
   <si>
     <t>Tabla VLAN Monterrey</t>
+  </si>
+  <si>
+    <t>VLAN 140</t>
+  </si>
+  <si>
+    <t>vlAdmin</t>
+  </si>
+  <si>
+    <t>Administracion (TI)</t>
+  </si>
+  <si>
+    <t>192.168.0.30</t>
+  </si>
+  <si>
+    <t>192.168.0.31</t>
+  </si>
+  <si>
+    <t>192.168.0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.33 </t>
+  </si>
+  <si>
+    <t>192.168.0.78</t>
+  </si>
+  <si>
+    <t>192.168.0.79</t>
+  </si>
+  <si>
+    <t>255.255.255.240/28</t>
+  </si>
+  <si>
+    <t>192.168.0.80</t>
+  </si>
+  <si>
+    <t>192.168.0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.0.81 </t>
+  </si>
+  <si>
+    <t>192.168.0.94</t>
+  </si>
+  <si>
+    <t>192.168.0.95</t>
+  </si>
+  <si>
+    <t>192.168.0.97</t>
+  </si>
+  <si>
+    <t>192.168.0.110</t>
+  </si>
+  <si>
+    <t>192.168.0.111</t>
+  </si>
+  <si>
+    <t>192.168.0.104</t>
+  </si>
+  <si>
+    <t>192.168.0.105</t>
+  </si>
+  <si>
+    <t>192.168.0.112</t>
+  </si>
+  <si>
+    <t>192.168.0.113</t>
+  </si>
+  <si>
+    <t>192.168.0.114</t>
+  </si>
+  <si>
+    <t>192.168.0.115</t>
+  </si>
+  <si>
+    <t>192.168.0.116</t>
+  </si>
+  <si>
+    <t>192.168.0.117 </t>
+  </si>
+  <si>
+    <t> 192.168.0.118</t>
+  </si>
+  <si>
+    <t>192.168.0.119</t>
+  </si>
+  <si>
+    <t>192.168.0.120</t>
+  </si>
+  <si>
+    <t>192.168.0.124</t>
+  </si>
+  <si>
+    <t>192.168.0.132</t>
+  </si>
+  <si>
+    <t>192.168.0.136</t>
+  </si>
+  <si>
+    <t>192.168.0.140</t>
+  </si>
+  <si>
+    <t>192.168.0.144</t>
+  </si>
+  <si>
+    <t>192.168.0.121</t>
+  </si>
+  <si>
+    <t>192.168.0.122</t>
+  </si>
+  <si>
+    <t>192.168.0.123</t>
+  </si>
+  <si>
+    <t>192.168.0.125</t>
+  </si>
+  <si>
+    <t>192.168.0.126</t>
+  </si>
+  <si>
+    <t>192.168.0.129</t>
+  </si>
+  <si>
+    <t>192.168.0.133</t>
+  </si>
+  <si>
+    <t>192.168.0.137</t>
+  </si>
+  <si>
+    <t>192.168.0.141</t>
+  </si>
+  <si>
+    <t>192.168.0.145</t>
+  </si>
+  <si>
+    <t> 192.168.0.130</t>
+  </si>
+  <si>
+    <t>192.168.0.134</t>
+  </si>
+  <si>
+    <t>192.168.0.138</t>
+  </si>
+  <si>
+    <t> 192.168.0.142</t>
+  </si>
+  <si>
+    <t>192.168.0.146</t>
+  </si>
+  <si>
+    <t>192.168.0.131</t>
+  </si>
+  <si>
+    <t>192.168.0.135</t>
+  </si>
+  <si>
+    <t>192.168.0.139</t>
+  </si>
+  <si>
+    <t>192.168.0.143</t>
+  </si>
+  <si>
+    <t>192.168.0.147</t>
+  </si>
+  <si>
+    <t>192.168.2.30</t>
+  </si>
+  <si>
+    <t>192.168.2.31</t>
+  </si>
+  <si>
+    <t>192.168.2.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.33 </t>
+  </si>
+  <si>
+    <t>192.168.2.78</t>
+  </si>
+  <si>
+    <t>192.168.2.79</t>
+  </si>
+  <si>
+    <t>192.168.2.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.81 </t>
+  </si>
+  <si>
+    <t>192.168.2.94</t>
+  </si>
+  <si>
+    <t>192.168.2.95</t>
+  </si>
+  <si>
+    <t>192.168.2.96</t>
+  </si>
+  <si>
+    <t>192.168.2.97</t>
+  </si>
+  <si>
+    <t>192.168.2.110</t>
+  </si>
+  <si>
+    <t>192.168.2.111</t>
+  </si>
+  <si>
+    <t>192.168.2.104</t>
+  </si>
+  <si>
+    <t>192.168.2.105</t>
+  </si>
+  <si>
+    <t>192.168.2.112</t>
+  </si>
+  <si>
+    <t>192.168.2.113</t>
+  </si>
+  <si>
+    <t>192.168.2.114</t>
+  </si>
+  <si>
+    <t>192.168.2.115</t>
+  </si>
+  <si>
+    <t>192.168.2.116</t>
+  </si>
+  <si>
+    <t>192.168.2.117 </t>
+  </si>
+  <si>
+    <t> 192.168.2.118</t>
+  </si>
+  <si>
+    <t>192.168.2.119</t>
+  </si>
+  <si>
+    <t>192.168.2.120</t>
+  </si>
+  <si>
+    <t>192.168.2.121</t>
+  </si>
+  <si>
+    <t>192.168.2.122</t>
+  </si>
+  <si>
+    <t>192.168.2.123</t>
+  </si>
+  <si>
+    <t>192.168.2.124</t>
+  </si>
+  <si>
+    <t>192.168.2.125</t>
+  </si>
+  <si>
+    <t>192.168.2.126</t>
+  </si>
+  <si>
+    <t>192.168.2.129</t>
+  </si>
+  <si>
+    <t> 192.168.2.130</t>
+  </si>
+  <si>
+    <t>192.168.2.131</t>
+  </si>
+  <si>
+    <t>192.168.2.132</t>
+  </si>
+  <si>
+    <t>192.168.2.133</t>
+  </si>
+  <si>
+    <t>192.168.2.134</t>
+  </si>
+  <si>
+    <t>192.168.2.135</t>
+  </si>
+  <si>
+    <t>192.168.2.136</t>
+  </si>
+  <si>
+    <t>192.168.2.137</t>
+  </si>
+  <si>
+    <t>192.168.2.138</t>
+  </si>
+  <si>
+    <t>192.168.2.139</t>
+  </si>
+  <si>
+    <t>192.168.2.140</t>
+  </si>
+  <si>
+    <t>192.168.2.141</t>
+  </si>
+  <si>
+    <t> 192.168.2.142</t>
+  </si>
+  <si>
+    <t>192.168.2.143</t>
+  </si>
+  <si>
+    <t>192.168.2.144</t>
+  </si>
+  <si>
+    <t>192.168.2.145</t>
+  </si>
+  <si>
+    <t>192.168.2.146</t>
+  </si>
+  <si>
+    <t>192.168.2.147</t>
+  </si>
+  <si>
+    <t>Tabla VLAN Queretaro</t>
+  </si>
+  <si>
+    <t>192.168.4.1</t>
+  </si>
+  <si>
+    <t>192.168.4.30</t>
+  </si>
+  <si>
+    <t>192.168.4.31</t>
+  </si>
+  <si>
+    <t>192.168.4.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.4.33 </t>
+  </si>
+  <si>
+    <t>192.168.4.62</t>
+  </si>
+  <si>
+    <t>192.168.4.63</t>
+  </si>
+  <si>
+    <t>192.168.4.64</t>
+  </si>
+  <si>
+    <t>192.168.4.65</t>
+  </si>
+  <si>
+    <t>192.168.4.78</t>
+  </si>
+  <si>
+    <t>192.168.4.79</t>
+  </si>
+  <si>
+    <t>192.168.4.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.4.81 </t>
+  </si>
+  <si>
+    <t>192.168.4.94</t>
+  </si>
+  <si>
+    <t>192.168.4.95</t>
+  </si>
+  <si>
+    <t>192.168.4.96</t>
+  </si>
+  <si>
+    <t>192.168.4.97</t>
+  </si>
+  <si>
+    <t>192.168.4.110</t>
+  </si>
+  <si>
+    <t>192.168.4.111</t>
+  </si>
+  <si>
+    <t>192.168.4.104</t>
+  </si>
+  <si>
+    <t>192.168.4.105</t>
+  </si>
+  <si>
+    <t>192.168.4.112</t>
+  </si>
+  <si>
+    <t>192.168.4.113</t>
+  </si>
+  <si>
+    <t>192.168.4.114</t>
+  </si>
+  <si>
+    <t>192.168.4.115</t>
+  </si>
+  <si>
+    <t>192.168.4.116</t>
+  </si>
+  <si>
+    <t>192.168.4.117 </t>
+  </si>
+  <si>
+    <t> 192.168.4.118</t>
+  </si>
+  <si>
+    <t>192.168.4.119</t>
+  </si>
+  <si>
+    <t>192.168.4.120</t>
+  </si>
+  <si>
+    <t>192.168.4.121</t>
+  </si>
+  <si>
+    <t>192.168.4.122</t>
+  </si>
+  <si>
+    <t>192.168.4.123</t>
+  </si>
+  <si>
+    <t>192.168.4.124</t>
+  </si>
+  <si>
+    <t>192.168.4.125</t>
+  </si>
+  <si>
+    <t>192.168.4.126</t>
+  </si>
+  <si>
+    <t>192.168.4.127</t>
+  </si>
+  <si>
+    <t>192.168.4.128</t>
+  </si>
+  <si>
+    <t>192.168.4.129</t>
+  </si>
+  <si>
+    <t> 192.168.4.130</t>
+  </si>
+  <si>
+    <t>192.168.4.131</t>
+  </si>
+  <si>
+    <t>192.168.4.132</t>
+  </si>
+  <si>
+    <t>192.168.4.133</t>
+  </si>
+  <si>
+    <t>192.168.4.134</t>
+  </si>
+  <si>
+    <t>192.168.4.135</t>
+  </si>
+  <si>
+    <t>192.168.4.136</t>
+  </si>
+  <si>
+    <t>192.168.4.137</t>
+  </si>
+  <si>
+    <t>192.168.4.138</t>
+  </si>
+  <si>
+    <t>192.168.4.139</t>
+  </si>
+  <si>
+    <t>192.168.4.140</t>
+  </si>
+  <si>
+    <t>192.168.4.141</t>
+  </si>
+  <si>
+    <t> 192.168.4.142</t>
+  </si>
+  <si>
+    <t>192.168.4.143</t>
+  </si>
+  <si>
+    <t>192.168.4.144</t>
+  </si>
+  <si>
+    <t>192.168.4.145</t>
+  </si>
+  <si>
+    <t>192.168.4.146</t>
+  </si>
+  <si>
+    <t>192.168.4.147</t>
+  </si>
+  <si>
+    <t>Tabla VLAN Veracruz</t>
+  </si>
+  <si>
+    <t>192.168.6.30</t>
+  </si>
+  <si>
+    <t>192.168.6.31</t>
+  </si>
+  <si>
+    <t>192.168.6.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.6.33 </t>
+  </si>
+  <si>
+    <t>192.168.6.62</t>
+  </si>
+  <si>
+    <t>192.168.6.63</t>
+  </si>
+  <si>
+    <t>192.168.6.64</t>
+  </si>
+  <si>
+    <t>192.168.6.65</t>
+  </si>
+  <si>
+    <t>192.168.6.78</t>
+  </si>
+  <si>
+    <t>192.168.6.79</t>
+  </si>
+  <si>
+    <t>192.168.6.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.6.81 </t>
+  </si>
+  <si>
+    <t>192.168.6.94</t>
+  </si>
+  <si>
+    <t>192.168.6.95</t>
+  </si>
+  <si>
+    <t>192.168.6.96</t>
+  </si>
+  <si>
+    <t>192.168.6.97</t>
+  </si>
+  <si>
+    <t>192.168.6.110</t>
+  </si>
+  <si>
+    <t>192.168.6.111</t>
+  </si>
+  <si>
+    <t>192.168.6.104</t>
+  </si>
+  <si>
+    <t>192.168.6.105</t>
+  </si>
+  <si>
+    <t>192.168.6.112</t>
+  </si>
+  <si>
+    <t>192.168.6.113</t>
+  </si>
+  <si>
+    <t>192.168.6.114</t>
+  </si>
+  <si>
+    <t>192.168.6.115</t>
+  </si>
+  <si>
+    <t>192.168.6.116</t>
+  </si>
+  <si>
+    <t>192.168.6.117 </t>
+  </si>
+  <si>
+    <t> 192.168.6.118</t>
+  </si>
+  <si>
+    <t>192.168.6.119</t>
+  </si>
+  <si>
+    <t>192.168.6.120</t>
+  </si>
+  <si>
+    <t>192.168.6.121</t>
+  </si>
+  <si>
+    <t>192.168.6.122</t>
+  </si>
+  <si>
+    <t>192.168.6.123</t>
+  </si>
+  <si>
+    <t>192.168.6.124</t>
+  </si>
+  <si>
+    <t>192.168.6.125</t>
+  </si>
+  <si>
+    <t>192.168.6.126</t>
+  </si>
+  <si>
+    <t>192.168.6.127</t>
+  </si>
+  <si>
+    <t>192.168.6.128</t>
+  </si>
+  <si>
+    <t>192.168.6.129</t>
+  </si>
+  <si>
+    <t> 192.168.6.130</t>
+  </si>
+  <si>
+    <t>192.168.6.131</t>
+  </si>
+  <si>
+    <t>192.168.6.132</t>
+  </si>
+  <si>
+    <t>192.168.6.133</t>
+  </si>
+  <si>
+    <t>192.168.6.134</t>
+  </si>
+  <si>
+    <t>192.168.6.135</t>
+  </si>
+  <si>
+    <t>192.168.6.136</t>
+  </si>
+  <si>
+    <t>192.168.6.137</t>
+  </si>
+  <si>
+    <t>192.168.6.138</t>
+  </si>
+  <si>
+    <t>192.168.6.139</t>
+  </si>
+  <si>
+    <t>192.168.6.140</t>
+  </si>
+  <si>
+    <t>192.168.6.141</t>
+  </si>
+  <si>
+    <t> 192.168.6.142</t>
+  </si>
+  <si>
+    <t>192.168.6.143</t>
+  </si>
+  <si>
+    <t>192.168.6.144</t>
+  </si>
+  <si>
+    <t>192.168.6.145</t>
+  </si>
+  <si>
+    <t>192.168.6.146</t>
+  </si>
+  <si>
+    <t>192.168.6.147</t>
+  </si>
+  <si>
+    <t>Tabla VLAN Jalisco</t>
+  </si>
+  <si>
+    <t>192.168.8.30</t>
+  </si>
+  <si>
+    <t>192.168.8.31</t>
+  </si>
+  <si>
+    <t>192.168.8.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.8.33 </t>
+  </si>
+  <si>
+    <t>192.168.8.62</t>
+  </si>
+  <si>
+    <t>192.168.8.63</t>
+  </si>
+  <si>
+    <t>192.168.8.64</t>
+  </si>
+  <si>
+    <t>192.168.8.65</t>
+  </si>
+  <si>
+    <t>192.168.8.78</t>
+  </si>
+  <si>
+    <t>192.168.8.79</t>
+  </si>
+  <si>
+    <t>192.168.8.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.8.81 </t>
+  </si>
+  <si>
+    <t>192.168.8.94</t>
+  </si>
+  <si>
+    <t>192.168.8.95</t>
+  </si>
+  <si>
+    <t>192.168.8.96</t>
+  </si>
+  <si>
+    <t>192.168.8.97</t>
+  </si>
+  <si>
+    <t>192.168.8.110</t>
+  </si>
+  <si>
+    <t>192.168.8.111</t>
+  </si>
+  <si>
+    <t>192.168.8.104</t>
+  </si>
+  <si>
+    <t>192.168.8.105</t>
+  </si>
+  <si>
+    <t>192.168.8.112</t>
+  </si>
+  <si>
+    <t>192.168.8.113</t>
+  </si>
+  <si>
+    <t>192.168.8.114</t>
+  </si>
+  <si>
+    <t>192.168.8.115</t>
+  </si>
+  <si>
+    <t>192.168.8.116</t>
+  </si>
+  <si>
+    <t>192.168.8.117 </t>
+  </si>
+  <si>
+    <t> 192.168.8.118</t>
+  </si>
+  <si>
+    <t>192.168.8.119</t>
+  </si>
+  <si>
+    <t>192.168.8.120</t>
+  </si>
+  <si>
+    <t>192.168.8.121</t>
+  </si>
+  <si>
+    <t>192.168.8.122</t>
+  </si>
+  <si>
+    <t>192.168.8.123</t>
+  </si>
+  <si>
+    <t>192.168.8.124</t>
+  </si>
+  <si>
+    <t>192.168.8.125</t>
+  </si>
+  <si>
+    <t>192.168.8.126</t>
+  </si>
+  <si>
+    <t>192.168.8.127</t>
+  </si>
+  <si>
+    <t>192.168.8.128</t>
+  </si>
+  <si>
+    <t>192.168.8.129</t>
+  </si>
+  <si>
+    <t> 192.168.8.130</t>
+  </si>
+  <si>
+    <t>192.168.8.131</t>
+  </si>
+  <si>
+    <t>192.168.8.132</t>
+  </si>
+  <si>
+    <t>192.168.8.133</t>
+  </si>
+  <si>
+    <t>192.168.8.134</t>
+  </si>
+  <si>
+    <t>192.168.8.135</t>
+  </si>
+  <si>
+    <t>192.168.8.136</t>
+  </si>
+  <si>
+    <t>192.168.8.137</t>
+  </si>
+  <si>
+    <t>192.168.8.138</t>
+  </si>
+  <si>
+    <t>192.168.8.139</t>
+  </si>
+  <si>
+    <t>192.168.8.140</t>
+  </si>
+  <si>
+    <t>192.168.8.141</t>
+  </si>
+  <si>
+    <t> 192.168.8.142</t>
+  </si>
+  <si>
+    <t>192.168.8.143</t>
+  </si>
+  <si>
+    <t>192.168.8.144</t>
+  </si>
+  <si>
+    <t>192.168.8.145</t>
+  </si>
+  <si>
+    <t>192.168.8.146</t>
+  </si>
+  <si>
+    <t>192.168.8.147</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>#0000FF</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>#800080</t>
+  </si>
+  <si>
+    <t>#FFA500</t>
+  </si>
+  <si>
+    <t>#FFC0CB</t>
+  </si>
+  <si>
+    <t>#808080</t>
+  </si>
+  <si>
+    <t>#8B4513</t>
+  </si>
+  <si>
+    <t>#C0C0C0</t>
+  </si>
+  <si>
+    <t>#FFD700</t>
+  </si>
+  <si>
+    <t>#F5F5DC</t>
+  </si>
+  <si>
+    <t>#EE82EE</t>
+  </si>
+  <si>
+    <t>#00FFFF</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>Color de VLAN</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1576,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1212,7 +1789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1404,11 +1981,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1588,9 +2176,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,20 +2201,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1640,27 +2276,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1673,67 +2291,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2117,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
-  <dimension ref="B2:X91"/>
+  <dimension ref="B2:Y152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,29 +2758,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2186,10 +2795,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="2">
         <f>80+82+80</f>
         <v>242</v>
@@ -2390,7 +2999,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>49</v>
       </c>
@@ -2398,8 +3007,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
@@ -2418,9 +3027,9 @@
       <c r="G19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="76"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="I19" s="75"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>43</v>
       </c>
@@ -2440,7 +3049,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>44</v>
       </c>
@@ -2460,7 +3069,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>45</v>
       </c>
@@ -2480,7 +3089,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>46</v>
       </c>
@@ -2500,7 +3109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
@@ -2520,99 +3129,97 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-    </row>
-    <row r="26" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="76"/>
-      <c r="C26" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-    </row>
-    <row r="27" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-    </row>
-    <row r="28" spans="2:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+    </row>
+    <row r="26" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="75"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+    </row>
+    <row r="27" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+    </row>
+    <row r="28" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="17"/>
-      <c r="J28" s="87" t="s">
+      <c r="J28" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="88" t="s">
+      <c r="S28" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="T28" s="89"/>
-    </row>
-    <row r="29" spans="2:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="87" t="s">
+      <c r="T28" s="94"/>
+    </row>
+    <row r="29" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="19"/>
-      <c r="S29" s="90" t="s">
+      <c r="S29" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="91"/>
+      <c r="T29" s="96"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
     </row>
-    <row r="30" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
+    <row r="30" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="90" t="s">
+      <c r="S30" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="T30" s="91"/>
+      <c r="T30" s="96"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
     </row>
-    <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="108" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="63" t="s">
@@ -2625,21 +3232,21 @@
         <v>91</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="J32" s="69" t="s">
+        <v>467</v>
+      </c>
+      <c r="J32" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="69" t="s">
+      <c r="K32" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="69" t="s">
+      <c r="L32" s="68" t="s">
         <v>72</v>
       </c>
       <c r="M32" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="N32" s="69" t="s">
+      <c r="N32" s="68" t="s">
         <v>73</v>
       </c>
       <c r="O32" s="66" t="s">
@@ -2648,49 +3255,53 @@
       <c r="P32" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="Q32" s="69" t="s">
+      <c r="Q32" s="68" t="s">
         <v>74</v>
       </c>
       <c r="R32" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="S32" s="68" t="s">
+      <c r="S32" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="T32" s="69" t="s">
+      <c r="T32" s="68" t="s">
         <v>75</v>
       </c>
       <c r="U32" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="V32" s="72" t="s">
+      <c r="V32" s="71" t="s">
         <v>148</v>
       </c>
       <c r="W32" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="X32" s="66" t="s">
+      <c r="X32" s="120" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y32" s="66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="70" t="s">
-        <v>94</v>
+        <v>105</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>106</v>
       </c>
       <c r="E33" s="62"/>
       <c r="F33" s="62">
-        <v>1</v>
-      </c>
-      <c r="G33" s="23">
-        <v>1</v>
-      </c>
-      <c r="I33" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="68" t="s">
         <v>145</v>
       </c>
       <c r="J33" s="21"/>
@@ -2707,26 +3318,28 @@
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-    </row>
-    <row r="34" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="121"/>
+      <c r="Y33" s="18"/>
+    </row>
+    <row r="34" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="70" t="s">
-        <v>96</v>
+        <v>108</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>109</v>
       </c>
       <c r="E34" s="62"/>
       <c r="F34" s="62">
-        <v>1</v>
-      </c>
-      <c r="G34" s="23">
-        <v>1</v>
-      </c>
-      <c r="I34" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="68" t="s">
         <v>71</v>
       </c>
       <c r="J34" s="18"/>
@@ -2743,26 +3356,28 @@
       <c r="U34" s="20"/>
       <c r="V34" s="18"/>
       <c r="W34" s="20"/>
-      <c r="X34" s="18"/>
-    </row>
-    <row r="35" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="121"/>
+      <c r="Y34" s="18"/>
+    </row>
+    <row r="35" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>98</v>
+        <v>119</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>120</v>
       </c>
       <c r="E35" s="62"/>
       <c r="F35" s="62">
-        <v>1</v>
-      </c>
-      <c r="G35" s="23">
-        <v>1</v>
-      </c>
-      <c r="I35" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="68" t="s">
         <v>72</v>
       </c>
       <c r="J35" s="18"/>
@@ -2779,9 +3394,10 @@
       <c r="U35" s="20"/>
       <c r="V35" s="18"/>
       <c r="W35" s="20"/>
-      <c r="X35" s="18"/>
-    </row>
-    <row r="36" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="121"/>
+      <c r="Y35" s="18"/>
+    </row>
+    <row r="36" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="64" t="s">
         <v>99</v>
       </c>
@@ -2795,10 +3411,10 @@
       <c r="F36" s="62">
         <v>8</v>
       </c>
-      <c r="G36" s="23">
-        <v>34</v>
-      </c>
-      <c r="H36" s="116"/>
+      <c r="G36" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="H36" s="15"/>
       <c r="I36" s="66" t="s">
         <v>76</v>
       </c>
@@ -2816,27 +3432,28 @@
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
-      <c r="X36" s="18"/>
-    </row>
-    <row r="37" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="121"/>
+      <c r="Y36" s="18"/>
+    </row>
+    <row r="37" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>103</v>
+        <v>113</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>114</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="62">
-        <v>1</v>
-      </c>
-      <c r="G37" s="23">
-        <v>1</v>
-      </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="68" t="s">
         <v>73</v>
       </c>
       <c r="J37" s="18"/>
@@ -2853,26 +3470,27 @@
       <c r="U37" s="20"/>
       <c r="V37" s="18"/>
       <c r="W37" s="20"/>
-      <c r="X37" s="18"/>
-    </row>
-    <row r="38" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X37" s="121"/>
+      <c r="Y37" s="18"/>
+    </row>
+    <row r="38" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>77</v>
+        <v>140</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>86</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="E38" s="62"/>
       <c r="F38" s="62">
-        <v>3</v>
-      </c>
-      <c r="G38" s="23">
-        <v>53</v>
-      </c>
-      <c r="H38" s="116"/>
+        <v>4</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="H38" s="15"/>
       <c r="I38" s="59" t="s">
         <v>77</v>
       </c>
@@ -2890,26 +3508,27 @@
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
-      <c r="X38" s="18"/>
-    </row>
-    <row r="39" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="121"/>
+      <c r="Y38" s="18"/>
+    </row>
+    <row r="39" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="64" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E39" s="62"/>
       <c r="F39" s="62">
-        <v>14</v>
-      </c>
-      <c r="G39" s="23">
-        <v>47</v>
-      </c>
-      <c r="H39" s="116"/>
+        <v>2</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="H39" s="15"/>
       <c r="I39" s="66" t="s">
         <v>78</v>
       </c>
@@ -2922,32 +3541,33 @@
       <c r="P39" s="21"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
-      <c r="S39" s="73"/>
+      <c r="S39" s="72"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
-      <c r="X39" s="18"/>
-    </row>
-    <row r="40" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X39" s="121"/>
+      <c r="Y39" s="18"/>
+    </row>
+    <row r="40" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>146</v>
+        <v>93</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>94</v>
       </c>
       <c r="E40" s="62"/>
       <c r="F40" s="62">
         <v>1</v>
       </c>
-      <c r="G40" s="23">
-        <v>1</v>
-      </c>
-      <c r="H40" s="116"/>
-      <c r="I40" s="71" t="s">
+      <c r="G40" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="70" t="s">
         <v>74</v>
       </c>
       <c r="J40" s="18"/>
@@ -2964,26 +3584,27 @@
       <c r="U40" s="20"/>
       <c r="V40" s="18"/>
       <c r="W40" s="20"/>
-      <c r="X40" s="18"/>
-    </row>
-    <row r="41" spans="2:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X40" s="121"/>
+      <c r="Y40" s="18"/>
+    </row>
+    <row r="41" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="62" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="69" t="s">
+        <v>147</v>
       </c>
       <c r="E41" s="62"/>
       <c r="F41" s="62">
-        <v>8</v>
-      </c>
-      <c r="G41" s="23">
-        <v>34</v>
-      </c>
-      <c r="H41" s="116"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H41" s="15"/>
       <c r="I41" s="66" t="s">
         <v>79</v>
       </c>
@@ -3001,28 +3622,28 @@
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
-      <c r="X41" s="18"/>
-    </row>
-    <row r="42" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65">
-        <f>H9-F49</f>
-        <v>457</v>
-      </c>
-      <c r="G42" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="H42" s="116"/>
-      <c r="I42" s="68" t="s">
+      <c r="X41" s="121"/>
+      <c r="Y41" s="18"/>
+    </row>
+    <row r="42" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62">
+        <v>1</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="67" t="s">
         <v>87</v>
       </c>
       <c r="J42" s="20"/>
@@ -3031,7 +3652,7 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
-      <c r="P42" s="73"/>
+      <c r="P42" s="72"/>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="21"/>
@@ -3039,27 +3660,26 @@
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
       <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-    </row>
-    <row r="43" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X42" s="122"/>
+      <c r="Y42" s="18"/>
+    </row>
+    <row r="43" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62">
-        <v>1</v>
-      </c>
-      <c r="G43" s="23">
-        <v>1</v>
-      </c>
-      <c r="H43" s="116"/>
-      <c r="I43" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="109"/>
+      <c r="F43" s="23">
+        <v>1</v>
+      </c>
+      <c r="G43" s="119"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="70" t="s">
         <v>75</v>
       </c>
       <c r="J43" s="18"/>
@@ -3076,26 +3696,27 @@
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
       <c r="W43" s="20"/>
-      <c r="X43" s="18"/>
-    </row>
-    <row r="44" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X43" s="121"/>
+      <c r="Y43" s="18"/>
+    </row>
+    <row r="44" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>120</v>
+        <v>95</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>96</v>
       </c>
       <c r="E44" s="62"/>
       <c r="F44" s="62">
-        <v>9</v>
-      </c>
-      <c r="G44" s="23">
-        <v>35</v>
-      </c>
-      <c r="H44" s="116"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="H44" s="15"/>
       <c r="I44" s="66" t="s">
         <v>80</v>
       </c>
@@ -3113,27 +3734,28 @@
       <c r="U44" s="21"/>
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
-      <c r="X44" s="18"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X44" s="121"/>
+      <c r="Y44" s="18"/>
+    </row>
+    <row r="45" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="70" t="s">
-        <v>149</v>
+        <v>97</v>
+      </c>
+      <c r="C45" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="69" t="s">
+        <v>98</v>
       </c>
       <c r="E45" s="62"/>
       <c r="F45" s="62">
         <v>1</v>
       </c>
-      <c r="G45" s="23">
-        <v>1</v>
-      </c>
-      <c r="H45" s="116"/>
-      <c r="I45" s="72" t="s">
+      <c r="G45" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="71" t="s">
         <v>148</v>
       </c>
       <c r="J45" s="18"/>
@@ -3150,26 +3772,27 @@
       <c r="U45" s="20"/>
       <c r="V45" s="21"/>
       <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-    </row>
-    <row r="46" spans="2:24" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="X45" s="121"/>
+      <c r="Y45" s="18"/>
+    </row>
+    <row r="46" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="62" t="s">
-        <v>125</v>
+        <v>102</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="69" t="s">
+        <v>103</v>
       </c>
       <c r="E46" s="62"/>
       <c r="F46" s="62">
-        <v>2</v>
-      </c>
-      <c r="G46" s="23">
-        <v>28</v>
-      </c>
-      <c r="H46" s="116"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="H46" s="15"/>
       <c r="I46" s="66" t="s">
         <v>81</v>
       </c>
@@ -3187,25 +3810,27 @@
       <c r="U46" s="20"/>
       <c r="V46" s="18"/>
       <c r="W46" s="21"/>
-      <c r="X46" s="18"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>142</v>
+      <c r="X46" s="121"/>
+      <c r="Y46" s="18"/>
+    </row>
+    <row r="47" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="107" t="s">
+        <v>146</v>
       </c>
       <c r="E47" s="62"/>
       <c r="F47" s="62">
-        <v>4</v>
-      </c>
-      <c r="G47" s="23">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="H47" s="15"/>
       <c r="I47" s="66" t="s">
         <v>86</v>
       </c>
@@ -3223,23 +3848,53 @@
       <c r="U47" s="18"/>
       <c r="V47" s="18"/>
       <c r="W47" s="18"/>
-      <c r="X47" s="21"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E49" s="62" t="s">
+      <c r="X47" s="123"/>
+      <c r="Y47" s="18"/>
+    </row>
+    <row r="48" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="I48" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="124"/>
+      <c r="P48" s="124"/>
+      <c r="Q48" s="124"/>
+      <c r="R48" s="124"/>
+      <c r="S48" s="124"/>
+      <c r="T48" s="124"/>
+      <c r="U48" s="124"/>
+      <c r="V48" s="124"/>
+      <c r="W48" s="124"/>
+      <c r="X48" s="124"/>
+      <c r="Y48" s="21"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E50" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="62">
-        <f>SUM(F33:F41,F43:F47)</f>
-        <v>55</v>
-      </c>
-      <c r="G49" s="2">
-        <f>SUM(G33:G47)</f>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G50" s="15"/>
+      <c r="F50" s="62">
+        <f>SUM(F34:F42,F43:F48)</f>
+        <v>60</v>
+      </c>
+      <c r="G50" s="125"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F51" s="15"/>
@@ -3249,60 +3904,60 @@
       <c r="B52" s="61"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E54" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="F54" s="85"/>
+      <c r="E54" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="91"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="C56" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="78" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="F56" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="G56" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="H56" s="78" t="s">
-        <v>219</v>
+      <c r="B56" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="H56" s="76" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="96" t="s">
+      <c r="B57" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="110" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="111" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="E57" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="F57" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="G57" s="77">
-        <v>53</v>
-      </c>
-      <c r="H57" s="58" t="s">
-        <v>158</v>
+        <v>179</v>
+      </c>
+      <c r="F57" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="G57" s="66">
+        <v>24</v>
+      </c>
+      <c r="H57" s="59" t="s">
+        <v>159</v>
       </c>
       <c r="I57" s="24"/>
       <c r="J57" s="25"/>
@@ -3310,181 +3965,181 @@
       <c r="L57" s="24"/>
     </row>
     <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="97" t="s">
+      <c r="B58" s="78" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="111" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="112" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="66">
+        <v>21</v>
+      </c>
+      <c r="H58" s="59" t="s">
         <v>159</v>
-      </c>
-      <c r="D58" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="E58" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="F58" s="113" t="s">
-        <v>162</v>
-      </c>
-      <c r="G58" s="77">
-        <v>47</v>
-      </c>
-      <c r="H58" s="58" t="s">
-        <v>158</v>
       </c>
       <c r="I58" s="25"/>
       <c r="K58" s="24"/>
       <c r="L58" s="25"/>
     </row>
     <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="111" t="s">
-        <v>163</v>
+      <c r="C59" s="110" t="s">
+        <v>155</v>
       </c>
       <c r="D59" s="111" t="s">
-        <v>164</v>
-      </c>
-      <c r="E59" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="F59" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="G59" s="58">
-        <v>35</v>
-      </c>
-      <c r="H59" s="58" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+      <c r="E59" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" s="59">
+        <v>9</v>
+      </c>
+      <c r="H59" s="59" t="s">
+        <v>185</v>
       </c>
       <c r="I59" s="25"/>
       <c r="K59" s="24"/>
       <c r="L59" s="25"/>
     </row>
     <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="99" t="s">
+      <c r="B60" s="80" t="s">
         <v>99</v>
       </c>
       <c r="C60" s="111" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D60" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="F60" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="G60" s="58">
-        <v>34</v>
-      </c>
-      <c r="H60" s="58" t="s">
-        <v>158</v>
+        <v>188</v>
+      </c>
+      <c r="E60" s="117" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="G60" s="59">
+        <v>8</v>
+      </c>
+      <c r="H60" s="59" t="s">
+        <v>185</v>
       </c>
       <c r="I60" s="24"/>
       <c r="K60" s="24"/>
       <c r="L60" s="25"/>
     </row>
     <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="81" t="s">
         <v>113</v>
       </c>
       <c r="C61" s="111" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="E61" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="F61" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G61" s="58">
-        <v>34</v>
-      </c>
-      <c r="H61" s="58" t="s">
-        <v>158</v>
+        <v>187</v>
+      </c>
+      <c r="D61" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="117" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="G61" s="59">
+        <v>8</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>185</v>
       </c>
       <c r="I61" s="25"/>
       <c r="K61" s="24"/>
       <c r="L61" s="25"/>
     </row>
     <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="114" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" s="114" t="s">
-        <v>176</v>
-      </c>
-      <c r="E62" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="F62" s="114" t="s">
-        <v>178</v>
-      </c>
-      <c r="G62" s="77">
-        <v>28</v>
-      </c>
-      <c r="H62" s="58" t="s">
-        <v>179</v>
+      <c r="B62" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="111" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="111" t="s">
+        <v>193</v>
+      </c>
+      <c r="G62" s="66">
+        <v>4</v>
+      </c>
+      <c r="H62" s="59" t="s">
+        <v>160</v>
       </c>
       <c r="I62" s="25"/>
       <c r="K62" s="24"/>
       <c r="L62" s="25"/>
     </row>
     <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="D63" s="114" t="s">
-        <v>181</v>
-      </c>
-      <c r="E63" s="80" t="s">
+      <c r="B63" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="F63" s="114" t="s">
-        <v>182</v>
-      </c>
-      <c r="G63" s="77">
-        <v>4</v>
-      </c>
-      <c r="H63" s="77" t="s">
-        <v>212</v>
+      <c r="E63" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="66">
+        <v>2</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="I63" s="25"/>
       <c r="K63" s="24"/>
       <c r="L63" s="25"/>
     </row>
     <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="115" t="s">
-        <v>183</v>
-      </c>
-      <c r="D64" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="E64" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="F64" s="115" t="s">
-        <v>184</v>
-      </c>
-      <c r="G64" s="77">
-        <v>1</v>
-      </c>
-      <c r="H64" s="77" t="s">
+      <c r="B64" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="G64" s="66">
+        <v>1</v>
+      </c>
+      <c r="H64" s="59" t="s">
         <v>69</v>
       </c>
       <c r="I64" s="24"/>
@@ -3492,25 +4147,25 @@
       <c r="L64" s="25"/>
     </row>
     <row r="65" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="104" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="115" t="s">
-        <v>185</v>
-      </c>
-      <c r="D65" s="115" t="s">
-        <v>200</v>
-      </c>
-      <c r="E65" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="F65" s="115" t="s">
-        <v>186</v>
-      </c>
-      <c r="G65" s="77">
-        <v>1</v>
-      </c>
-      <c r="H65" s="77" t="s">
+      <c r="B65" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="114" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="111" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="115" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="G65" s="66">
+        <v>1</v>
+      </c>
+      <c r="H65" s="59" t="s">
         <v>69</v>
       </c>
       <c r="I65" s="25"/>
@@ -3518,25 +4173,25 @@
       <c r="L65" s="25"/>
     </row>
     <row r="66" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="115" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="E66" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="F66" s="115" t="s">
-        <v>188</v>
-      </c>
-      <c r="G66" s="77">
-        <v>1</v>
-      </c>
-      <c r="H66" s="77" t="s">
+      <c r="B66" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="66">
+        <v>1</v>
+      </c>
+      <c r="H66" s="59" t="s">
         <v>69</v>
       </c>
       <c r="I66" s="24"/>
@@ -3544,25 +4199,25 @@
       <c r="L66" s="25"/>
     </row>
     <row r="67" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="106" t="s">
+      <c r="B67" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="115" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="F67" s="115" t="s">
-        <v>190</v>
-      </c>
-      <c r="G67" s="77">
-        <v>1</v>
-      </c>
-      <c r="H67" s="77" t="s">
+      <c r="C67" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F67" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="G67" s="66">
+        <v>1</v>
+      </c>
+      <c r="H67" s="59" t="s">
         <v>69</v>
       </c>
       <c r="I67" s="25"/>
@@ -3570,25 +4225,25 @@
       <c r="L67" s="25"/>
     </row>
     <row r="68" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="107" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" s="115" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="115" t="s">
+      <c r="B68" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="E68" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="F68" s="115" t="s">
-        <v>192</v>
-      </c>
-      <c r="G68" s="77">
-        <v>1</v>
-      </c>
-      <c r="H68" s="77" t="s">
+      <c r="D68" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="F68" s="111" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" s="66">
+        <v>1</v>
+      </c>
+      <c r="H68" s="59" t="s">
         <v>69</v>
       </c>
       <c r="I68" s="25"/>
@@ -3596,25 +4251,25 @@
       <c r="L68" s="24"/>
     </row>
     <row r="69" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="115" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="E69" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="F69" s="115" t="s">
-        <v>194</v>
-      </c>
-      <c r="G69" s="77">
-        <v>1</v>
-      </c>
-      <c r="H69" s="77" t="s">
+      <c r="B69" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="111" t="s">
+        <v>217</v>
+      </c>
+      <c r="E69" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F69" s="110" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" s="66">
+        <v>1</v>
+      </c>
+      <c r="H69" s="59" t="s">
         <v>69</v>
       </c>
       <c r="I69" s="24"/>
@@ -3622,25 +4277,25 @@
       <c r="L69" s="25"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="115" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="115" t="s">
-        <v>210</v>
-      </c>
-      <c r="E70" s="80" t="s">
-        <v>211</v>
-      </c>
-      <c r="F70" s="115" t="s">
-        <v>196</v>
-      </c>
-      <c r="G70" s="77">
-        <v>1</v>
-      </c>
-      <c r="H70" s="77" t="s">
+      <c r="B70" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="E70" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70" s="111" t="s">
+        <v>228</v>
+      </c>
+      <c r="G70" s="66">
+        <v>1</v>
+      </c>
+      <c r="H70" s="59" t="s">
         <v>69</v>
       </c>
       <c r="I70" s="24"/>
@@ -3648,7 +4303,27 @@
       <c r="L70" s="25"/>
     </row>
     <row r="71" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H71" s="26"/>
+      <c r="B71" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="116" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="111" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="F71" s="111" t="s">
+        <v>229</v>
+      </c>
+      <c r="G71" s="59">
+        <v>1</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>69</v>
+      </c>
       <c r="I71" s="24"/>
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
@@ -3672,387 +4347,1554 @@
       <c r="L74" s="25"/>
     </row>
     <row r="75" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="85" t="s">
-        <v>276</v>
-      </c>
-      <c r="F75" s="85"/>
+      <c r="E75" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="F75" s="91"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
     </row>
     <row r="76" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="110"/>
-      <c r="F76" s="110"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
       <c r="H76" s="15"/>
       <c r="I76" s="25"/>
       <c r="K76" s="24"/>
       <c r="L76" s="25"/>
     </row>
     <row r="77" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="C77" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="78" t="s">
-        <v>215</v>
-      </c>
-      <c r="E77" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="F77" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="G77" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="H77" s="78" t="s">
-        <v>219</v>
+      <c r="B77" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="G77" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="H77" s="76" t="s">
+        <v>167</v>
       </c>
       <c r="K77" s="24"/>
       <c r="L77" s="25"/>
     </row>
     <row r="78" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="96" t="s">
+      <c r="B78" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="110" t="s">
         <v>2</v>
       </c>
       <c r="D78" s="111" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="E78" s="112" t="s">
-        <v>267</v>
-      </c>
-      <c r="F78" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="G78" s="77">
-        <v>53</v>
-      </c>
-      <c r="H78" s="58" t="s">
-        <v>158</v>
+        <v>230</v>
+      </c>
+      <c r="F78" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="G78" s="66">
+        <v>24</v>
+      </c>
+      <c r="H78" s="59" t="s">
+        <v>159</v>
       </c>
       <c r="K78" s="24"/>
       <c r="L78" s="25"/>
     </row>
     <row r="79" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="97" t="s">
+      <c r="B79" s="78" t="s">
         <v>108</v>
       </c>
       <c r="C79" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="D79" s="113" t="s">
-        <v>234</v>
-      </c>
-      <c r="E79" s="79" t="s">
-        <v>269</v>
-      </c>
-      <c r="F79" s="113" t="s">
-        <v>270</v>
-      </c>
-      <c r="G79" s="77">
-        <v>47</v>
-      </c>
-      <c r="H79" s="58" t="s">
-        <v>158</v>
+        <v>232</v>
+      </c>
+      <c r="D79" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79" s="112" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="110" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79" s="66">
+        <v>21</v>
+      </c>
+      <c r="H79" s="59" t="s">
+        <v>159</v>
       </c>
       <c r="K79" s="24"/>
       <c r="L79" s="25"/>
     </row>
-    <row r="80" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="98" t="s">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="111" t="s">
-        <v>221</v>
+      <c r="C80" s="110" t="s">
+        <v>168</v>
       </c>
       <c r="D80" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="F80" s="111" t="s">
         <v>235</v>
       </c>
-      <c r="E80" s="79" t="s">
-        <v>271</v>
-      </c>
-      <c r="F80" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="G80" s="58">
-        <v>35</v>
-      </c>
-      <c r="H80" s="58" t="s">
-        <v>158</v>
+      <c r="G80" s="59">
+        <v>9</v>
+      </c>
+      <c r="H80" s="59" t="s">
+        <v>185</v>
       </c>
       <c r="K80" s="25"/>
       <c r="L80" s="25"/>
     </row>
-    <row r="81" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="99" t="s">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="58" t="s">
-        <v>222</v>
+      <c r="C81" s="111" t="s">
+        <v>236</v>
       </c>
       <c r="D81" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="E81" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81" s="117" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" s="110" t="s">
+        <v>239</v>
+      </c>
+      <c r="G81" s="59">
+        <v>8</v>
+      </c>
+      <c r="H81" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="111" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="110" t="s">
+        <v>241</v>
+      </c>
+      <c r="E82" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="F82" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="G82" s="59">
+        <v>8</v>
+      </c>
+      <c r="H82" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="D83" s="111" t="s">
+        <v>245</v>
+      </c>
+      <c r="E83" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="F83" s="111" t="s">
+        <v>243</v>
+      </c>
+      <c r="G83" s="66">
+        <v>4</v>
+      </c>
+      <c r="H83" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="114" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="F84" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="G84" s="66">
+        <v>2</v>
+      </c>
+      <c r="H84" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="111" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" s="111" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="F85" s="111" t="s">
+        <v>253</v>
+      </c>
+      <c r="G85" s="66">
+        <v>1</v>
+      </c>
+      <c r="H85" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="E86" s="115" t="s">
+        <v>256</v>
+      </c>
+      <c r="F86" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="G86" s="66">
+        <v>1</v>
+      </c>
+      <c r="H86" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="111" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="111" t="s">
+        <v>259</v>
+      </c>
+      <c r="E87" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="F87" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="G87" s="66">
+        <v>1</v>
+      </c>
+      <c r="H87" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88" s="112" t="s">
+        <v>262</v>
+      </c>
+      <c r="F88" s="110" t="s">
+        <v>263</v>
+      </c>
+      <c r="G88" s="66">
+        <v>1</v>
+      </c>
+      <c r="H88" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="111" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" s="111" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="F89" s="111" t="s">
+        <v>267</v>
+      </c>
+      <c r="G89" s="66">
+        <v>1</v>
+      </c>
+      <c r="H89" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="114" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="111" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90" s="115" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" s="110" t="s">
+        <v>271</v>
+      </c>
+      <c r="G90" s="66">
+        <v>1</v>
+      </c>
+      <c r="H90" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="111" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="111" t="s">
         <v>273</v>
       </c>
-      <c r="F81" s="58" t="s">
+      <c r="E91" s="112" t="s">
         <v>274</v>
       </c>
-      <c r="G81" s="58">
-        <v>34</v>
-      </c>
-      <c r="H81" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="100" t="s">
+      <c r="F91" s="111" t="s">
+        <v>275</v>
+      </c>
+      <c r="G91" s="66">
+        <v>1</v>
+      </c>
+      <c r="H91" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="116" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="111" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92" s="112" t="s">
+        <v>278</v>
+      </c>
+      <c r="F92" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="G92" s="59">
+        <v>1</v>
+      </c>
+      <c r="H92" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E95" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="F95" s="91"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E96" s="92"/>
+      <c r="F96" s="92"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="G97" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="H97" s="76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="E98" s="112" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="G98" s="66">
+        <v>24</v>
+      </c>
+      <c r="H98" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="111" t="s">
+        <v>284</v>
+      </c>
+      <c r="D99" s="110" t="s">
+        <v>285</v>
+      </c>
+      <c r="E99" s="112" t="s">
+        <v>286</v>
+      </c>
+      <c r="F99" s="110" t="s">
+        <v>287</v>
+      </c>
+      <c r="G99" s="66">
+        <v>21</v>
+      </c>
+      <c r="H99" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100" s="111" t="s">
+        <v>289</v>
+      </c>
+      <c r="E100" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="F100" s="111" t="s">
+        <v>291</v>
+      </c>
+      <c r="G100" s="59">
+        <v>9</v>
+      </c>
+      <c r="H100" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="111" t="s">
+        <v>292</v>
+      </c>
+      <c r="D101" s="111" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101" s="117" t="s">
+        <v>294</v>
+      </c>
+      <c r="F101" s="110" t="s">
+        <v>295</v>
+      </c>
+      <c r="G101" s="59">
+        <v>8</v>
+      </c>
+      <c r="H101" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="111" t="s">
-        <v>223</v>
-      </c>
-      <c r="D82" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="E82" s="79" t="s">
-        <v>238</v>
-      </c>
-      <c r="F82" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="G82" s="58">
-        <v>34</v>
-      </c>
-      <c r="H82" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="101" t="s">
+      <c r="C102" s="111" t="s">
+        <v>296</v>
+      </c>
+      <c r="D102" s="110" t="s">
+        <v>297</v>
+      </c>
+      <c r="E102" s="117" t="s">
+        <v>298</v>
+      </c>
+      <c r="F102" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="G102" s="59">
+        <v>8</v>
+      </c>
+      <c r="H102" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="111" t="s">
+        <v>300</v>
+      </c>
+      <c r="D103" s="111" t="s">
+        <v>301</v>
+      </c>
+      <c r="E103" s="112" t="s">
+        <v>298</v>
+      </c>
+      <c r="F103" s="111" t="s">
+        <v>299</v>
+      </c>
+      <c r="G103" s="66">
+        <v>4</v>
+      </c>
+      <c r="H103" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C83" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="D83" s="114" t="s">
-        <v>240</v>
-      </c>
-      <c r="E83" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="F83" s="114" t="s">
-        <v>242</v>
-      </c>
-      <c r="G83" s="77">
-        <v>28</v>
-      </c>
-      <c r="H83" s="58" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="102" t="s">
+      <c r="C104" s="114" t="s">
+        <v>302</v>
+      </c>
+      <c r="D104" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="E104" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="F104" s="110" t="s">
+        <v>305</v>
+      </c>
+      <c r="G104" s="66">
+        <v>2</v>
+      </c>
+      <c r="H104" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="111" t="s">
+        <v>306</v>
+      </c>
+      <c r="D105" s="111" t="s">
+        <v>307</v>
+      </c>
+      <c r="E105" s="112" t="s">
+        <v>308</v>
+      </c>
+      <c r="F105" s="111" t="s">
+        <v>309</v>
+      </c>
+      <c r="G105" s="66">
+        <v>1</v>
+      </c>
+      <c r="H105" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="114" t="s">
+        <v>310</v>
+      </c>
+      <c r="D106" s="111" t="s">
+        <v>311</v>
+      </c>
+      <c r="E106" s="115" t="s">
+        <v>312</v>
+      </c>
+      <c r="F106" s="110" t="s">
+        <v>313</v>
+      </c>
+      <c r="G106" s="66">
+        <v>1</v>
+      </c>
+      <c r="H106" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="111" t="s">
+        <v>314</v>
+      </c>
+      <c r="D107" s="111" t="s">
+        <v>315</v>
+      </c>
+      <c r="E107" s="115" t="s">
+        <v>316</v>
+      </c>
+      <c r="F107" s="111" t="s">
+        <v>317</v>
+      </c>
+      <c r="G107" s="66">
+        <v>1</v>
+      </c>
+      <c r="H107" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C108" s="114" t="s">
+        <v>318</v>
+      </c>
+      <c r="D108" s="111" t="s">
+        <v>319</v>
+      </c>
+      <c r="E108" s="112" t="s">
+        <v>320</v>
+      </c>
+      <c r="F108" s="110" t="s">
+        <v>321</v>
+      </c>
+      <c r="G108" s="66">
+        <v>1</v>
+      </c>
+      <c r="H108" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="111" t="s">
+        <v>322</v>
+      </c>
+      <c r="D109" s="111" t="s">
+        <v>323</v>
+      </c>
+      <c r="E109" s="115" t="s">
+        <v>324</v>
+      </c>
+      <c r="F109" s="111" t="s">
+        <v>325</v>
+      </c>
+      <c r="G109" s="66">
+        <v>1</v>
+      </c>
+      <c r="H109" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="114" t="s">
+        <v>326</v>
+      </c>
+      <c r="D110" s="111" t="s">
+        <v>327</v>
+      </c>
+      <c r="E110" s="115" t="s">
+        <v>328</v>
+      </c>
+      <c r="F110" s="110" t="s">
+        <v>329</v>
+      </c>
+      <c r="G110" s="66">
+        <v>1</v>
+      </c>
+      <c r="H110" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="111" t="s">
+        <v>330</v>
+      </c>
+      <c r="D111" s="111" t="s">
+        <v>331</v>
+      </c>
+      <c r="E111" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="F111" s="111" t="s">
+        <v>333</v>
+      </c>
+      <c r="G111" s="66">
+        <v>1</v>
+      </c>
+      <c r="H111" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C112" s="116" t="s">
+        <v>334</v>
+      </c>
+      <c r="D112" s="111" t="s">
+        <v>335</v>
+      </c>
+      <c r="E112" s="112" t="s">
+        <v>336</v>
+      </c>
+      <c r="F112" s="111" t="s">
+        <v>337</v>
+      </c>
+      <c r="G112" s="59">
+        <v>1</v>
+      </c>
+      <c r="H112" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E115" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="F115" s="91"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E116" s="92"/>
+      <c r="F116" s="92"/>
+      <c r="H116" s="15"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E117" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="F117" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="G117" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="H117" s="76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="112" t="s">
+        <v>339</v>
+      </c>
+      <c r="F118" s="111" t="s">
+        <v>340</v>
+      </c>
+      <c r="G118" s="66">
+        <v>24</v>
+      </c>
+      <c r="H118" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="111" t="s">
+        <v>341</v>
+      </c>
+      <c r="D119" s="110" t="s">
+        <v>342</v>
+      </c>
+      <c r="E119" s="112" t="s">
+        <v>343</v>
+      </c>
+      <c r="F119" s="110" t="s">
+        <v>344</v>
+      </c>
+      <c r="G119" s="66">
+        <v>21</v>
+      </c>
+      <c r="H119" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="110" t="s">
+        <v>345</v>
+      </c>
+      <c r="D120" s="111" t="s">
+        <v>346</v>
+      </c>
+      <c r="E120" s="113" t="s">
+        <v>347</v>
+      </c>
+      <c r="F120" s="111" t="s">
+        <v>348</v>
+      </c>
+      <c r="G120" s="59">
+        <v>9</v>
+      </c>
+      <c r="H120" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" s="111" t="s">
+        <v>349</v>
+      </c>
+      <c r="D121" s="111" t="s">
+        <v>350</v>
+      </c>
+      <c r="E121" s="117" t="s">
+        <v>351</v>
+      </c>
+      <c r="F121" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="G121" s="59">
+        <v>8</v>
+      </c>
+      <c r="H121" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122" s="111" t="s">
+        <v>353</v>
+      </c>
+      <c r="D122" s="110" t="s">
+        <v>354</v>
+      </c>
+      <c r="E122" s="117" t="s">
+        <v>355</v>
+      </c>
+      <c r="F122" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G122" s="59">
+        <v>8</v>
+      </c>
+      <c r="H122" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" s="114" t="s">
-        <v>243</v>
-      </c>
-      <c r="E84" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="F84" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="G84" s="77">
+      <c r="C123" s="111" t="s">
+        <v>357</v>
+      </c>
+      <c r="D123" s="111" t="s">
+        <v>358</v>
+      </c>
+      <c r="E123" s="112" t="s">
+        <v>355</v>
+      </c>
+      <c r="F123" s="111" t="s">
+        <v>356</v>
+      </c>
+      <c r="G123" s="66">
         <v>4</v>
       </c>
-      <c r="H84" s="77" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="103" t="s">
+      <c r="H123" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" s="114" t="s">
+        <v>359</v>
+      </c>
+      <c r="D124" s="110" t="s">
+        <v>360</v>
+      </c>
+      <c r="E124" s="115" t="s">
+        <v>361</v>
+      </c>
+      <c r="F124" s="110" t="s">
+        <v>362</v>
+      </c>
+      <c r="G124" s="66">
+        <v>2</v>
+      </c>
+      <c r="H124" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" s="111" t="s">
+        <v>363</v>
+      </c>
+      <c r="D125" s="111" t="s">
+        <v>364</v>
+      </c>
+      <c r="E125" s="112" t="s">
+        <v>365</v>
+      </c>
+      <c r="F125" s="111" t="s">
+        <v>366</v>
+      </c>
+      <c r="G125" s="66">
+        <v>1</v>
+      </c>
+      <c r="H125" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" s="114" t="s">
+        <v>367</v>
+      </c>
+      <c r="D126" s="111" t="s">
+        <v>368</v>
+      </c>
+      <c r="E126" s="115" t="s">
+        <v>369</v>
+      </c>
+      <c r="F126" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="G126" s="66">
+        <v>1</v>
+      </c>
+      <c r="H126" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127" s="111" t="s">
+        <v>371</v>
+      </c>
+      <c r="D127" s="111" t="s">
+        <v>372</v>
+      </c>
+      <c r="E127" s="115" t="s">
+        <v>373</v>
+      </c>
+      <c r="F127" s="111" t="s">
+        <v>374</v>
+      </c>
+      <c r="G127" s="66">
+        <v>1</v>
+      </c>
+      <c r="H127" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C128" s="114" t="s">
+        <v>375</v>
+      </c>
+      <c r="D128" s="111" t="s">
+        <v>376</v>
+      </c>
+      <c r="E128" s="112" t="s">
+        <v>377</v>
+      </c>
+      <c r="F128" s="110" t="s">
+        <v>378</v>
+      </c>
+      <c r="G128" s="66">
+        <v>1</v>
+      </c>
+      <c r="H128" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" s="111" t="s">
+        <v>379</v>
+      </c>
+      <c r="D129" s="111" t="s">
+        <v>380</v>
+      </c>
+      <c r="E129" s="115" t="s">
+        <v>381</v>
+      </c>
+      <c r="F129" s="111" t="s">
+        <v>382</v>
+      </c>
+      <c r="G129" s="66">
+        <v>1</v>
+      </c>
+      <c r="H129" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C130" s="114" t="s">
+        <v>383</v>
+      </c>
+      <c r="D130" s="111" t="s">
+        <v>384</v>
+      </c>
+      <c r="E130" s="115" t="s">
+        <v>385</v>
+      </c>
+      <c r="F130" s="110" t="s">
+        <v>386</v>
+      </c>
+      <c r="G130" s="66">
+        <v>1</v>
+      </c>
+      <c r="H130" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C85" s="115" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" s="115" t="s">
-        <v>246</v>
-      </c>
-      <c r="E85" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="F85" s="115" t="s">
-        <v>248</v>
-      </c>
-      <c r="G85" s="77">
-        <v>1</v>
-      </c>
-      <c r="H85" s="77" t="s">
+      <c r="C131" s="111" t="s">
+        <v>387</v>
+      </c>
+      <c r="D131" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="E131" s="112" t="s">
+        <v>389</v>
+      </c>
+      <c r="F131" s="111" t="s">
+        <v>390</v>
+      </c>
+      <c r="G131" s="66">
+        <v>1</v>
+      </c>
+      <c r="H131" s="59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="104" t="s">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C132" s="116" t="s">
+        <v>391</v>
+      </c>
+      <c r="D132" s="111" t="s">
+        <v>392</v>
+      </c>
+      <c r="E132" s="112" t="s">
+        <v>393</v>
+      </c>
+      <c r="F132" s="111" t="s">
+        <v>394</v>
+      </c>
+      <c r="G132" s="59">
+        <v>1</v>
+      </c>
+      <c r="H132" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E135" s="91" t="s">
+        <v>395</v>
+      </c>
+      <c r="F135" s="91"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E136" s="92"/>
+      <c r="F136" s="92"/>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D137" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E137" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="F137" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="G137" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="H137" s="76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C138" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="112" t="s">
+        <v>396</v>
+      </c>
+      <c r="F138" s="111" t="s">
+        <v>397</v>
+      </c>
+      <c r="G138" s="66">
+        <v>24</v>
+      </c>
+      <c r="H138" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C139" s="111" t="s">
+        <v>398</v>
+      </c>
+      <c r="D139" s="110" t="s">
+        <v>399</v>
+      </c>
+      <c r="E139" s="112" t="s">
+        <v>400</v>
+      </c>
+      <c r="F139" s="110" t="s">
+        <v>401</v>
+      </c>
+      <c r="G139" s="66">
+        <v>21</v>
+      </c>
+      <c r="H139" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" s="110" t="s">
+        <v>402</v>
+      </c>
+      <c r="D140" s="111" t="s">
+        <v>403</v>
+      </c>
+      <c r="E140" s="113" t="s">
+        <v>404</v>
+      </c>
+      <c r="F140" s="111" t="s">
+        <v>405</v>
+      </c>
+      <c r="G140" s="59">
+        <v>9</v>
+      </c>
+      <c r="H140" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" s="111" t="s">
+        <v>406</v>
+      </c>
+      <c r="D141" s="111" t="s">
+        <v>407</v>
+      </c>
+      <c r="E141" s="117" t="s">
+        <v>408</v>
+      </c>
+      <c r="F141" s="110" t="s">
+        <v>409</v>
+      </c>
+      <c r="G141" s="59">
+        <v>8</v>
+      </c>
+      <c r="H141" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" s="111" t="s">
+        <v>410</v>
+      </c>
+      <c r="D142" s="110" t="s">
+        <v>411</v>
+      </c>
+      <c r="E142" s="117" t="s">
+        <v>412</v>
+      </c>
+      <c r="F142" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="G142" s="59">
+        <v>8</v>
+      </c>
+      <c r="H142" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" s="111" t="s">
+        <v>414</v>
+      </c>
+      <c r="D143" s="111" t="s">
+        <v>415</v>
+      </c>
+      <c r="E143" s="112" t="s">
+        <v>412</v>
+      </c>
+      <c r="F143" s="111" t="s">
+        <v>413</v>
+      </c>
+      <c r="G143" s="66">
+        <v>4</v>
+      </c>
+      <c r="H143" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C144" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="D144" s="110" t="s">
+        <v>417</v>
+      </c>
+      <c r="E144" s="115" t="s">
+        <v>418</v>
+      </c>
+      <c r="F144" s="110" t="s">
+        <v>419</v>
+      </c>
+      <c r="G144" s="66">
+        <v>2</v>
+      </c>
+      <c r="H144" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C145" s="111" t="s">
+        <v>420</v>
+      </c>
+      <c r="D145" s="111" t="s">
+        <v>421</v>
+      </c>
+      <c r="E145" s="112" t="s">
+        <v>422</v>
+      </c>
+      <c r="F145" s="111" t="s">
+        <v>423</v>
+      </c>
+      <c r="G145" s="66">
+        <v>1</v>
+      </c>
+      <c r="H145" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" s="114" t="s">
+        <v>424</v>
+      </c>
+      <c r="D146" s="111" t="s">
+        <v>425</v>
+      </c>
+      <c r="E146" s="115" t="s">
+        <v>426</v>
+      </c>
+      <c r="F146" s="110" t="s">
+        <v>427</v>
+      </c>
+      <c r="G146" s="66">
+        <v>1</v>
+      </c>
+      <c r="H146" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="111" t="s">
+        <v>428</v>
+      </c>
+      <c r="D147" s="111" t="s">
+        <v>429</v>
+      </c>
+      <c r="E147" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="F147" s="111" t="s">
+        <v>431</v>
+      </c>
+      <c r="G147" s="66">
+        <v>1</v>
+      </c>
+      <c r="H147" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C148" s="114" t="s">
+        <v>432</v>
+      </c>
+      <c r="D148" s="111" t="s">
+        <v>433</v>
+      </c>
+      <c r="E148" s="112" t="s">
+        <v>434</v>
+      </c>
+      <c r="F148" s="110" t="s">
+        <v>435</v>
+      </c>
+      <c r="G148" s="66">
+        <v>1</v>
+      </c>
+      <c r="H148" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C149" s="111" t="s">
+        <v>436</v>
+      </c>
+      <c r="D149" s="111" t="s">
+        <v>437</v>
+      </c>
+      <c r="E149" s="115" t="s">
+        <v>438</v>
+      </c>
+      <c r="F149" s="111" t="s">
+        <v>439</v>
+      </c>
+      <c r="G149" s="66">
+        <v>1</v>
+      </c>
+      <c r="H149" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="115" t="s">
-        <v>227</v>
-      </c>
-      <c r="D86" s="115" t="s">
-        <v>249</v>
-      </c>
-      <c r="E86" s="80" t="s">
-        <v>250</v>
-      </c>
-      <c r="F86" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="G86" s="77">
-        <v>1</v>
-      </c>
-      <c r="H86" s="77" t="s">
+      <c r="C150" s="114" t="s">
+        <v>440</v>
+      </c>
+      <c r="D150" s="111" t="s">
+        <v>441</v>
+      </c>
+      <c r="E150" s="115" t="s">
+        <v>442</v>
+      </c>
+      <c r="F150" s="110" t="s">
+        <v>443</v>
+      </c>
+      <c r="G150" s="66">
+        <v>1</v>
+      </c>
+      <c r="H150" s="59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="C87" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="D87" s="115" t="s">
-        <v>252</v>
-      </c>
-      <c r="E87" s="80" t="s">
-        <v>253</v>
-      </c>
-      <c r="F87" s="115" t="s">
-        <v>254</v>
-      </c>
-      <c r="G87" s="77">
-        <v>1</v>
-      </c>
-      <c r="H87" s="77" t="s">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C151" s="111" t="s">
+        <v>444</v>
+      </c>
+      <c r="D151" s="111" t="s">
+        <v>445</v>
+      </c>
+      <c r="E151" s="112" t="s">
+        <v>446</v>
+      </c>
+      <c r="F151" s="111" t="s">
+        <v>447</v>
+      </c>
+      <c r="G151" s="66">
+        <v>1</v>
+      </c>
+      <c r="H151" s="59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="C88" s="115" t="s">
-        <v>229</v>
-      </c>
-      <c r="D88" s="115" t="s">
-        <v>255</v>
-      </c>
-      <c r="E88" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="F88" s="115" t="s">
-        <v>257</v>
-      </c>
-      <c r="G88" s="77">
-        <v>1</v>
-      </c>
-      <c r="H88" s="77" t="s">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C152" s="116" t="s">
+        <v>448</v>
+      </c>
+      <c r="D152" s="111" t="s">
+        <v>449</v>
+      </c>
+      <c r="E152" s="112" t="s">
+        <v>450</v>
+      </c>
+      <c r="F152" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="G152" s="59">
+        <v>1</v>
+      </c>
+      <c r="H152" s="59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="107" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="115" t="s">
-        <v>230</v>
-      </c>
-      <c r="D89" s="115" t="s">
-        <v>258</v>
-      </c>
-      <c r="E89" s="80" t="s">
-        <v>259</v>
-      </c>
-      <c r="F89" s="115" t="s">
-        <v>260</v>
-      </c>
-      <c r="G89" s="77">
-        <v>1</v>
-      </c>
-      <c r="H89" s="77" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="C90" s="115" t="s">
-        <v>231</v>
-      </c>
-      <c r="D90" s="115" t="s">
-        <v>261</v>
-      </c>
-      <c r="E90" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="F90" s="115" t="s">
-        <v>263</v>
-      </c>
-      <c r="G90" s="77">
-        <v>1</v>
-      </c>
-      <c r="H90" s="77" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" s="115" t="s">
-        <v>232</v>
-      </c>
-      <c r="D91" s="115" t="s">
-        <v>264</v>
-      </c>
-      <c r="E91" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="F91" s="115" t="s">
-        <v>266</v>
-      </c>
-      <c r="G91" s="77">
-        <v>1</v>
-      </c>
-      <c r="H91" s="77" t="s">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <autoFilter ref="B32:G48" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B33:G48">
+      <sortCondition descending="1" ref="F32:F48"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="13">
+    <mergeCell ref="E95:F96"/>
+    <mergeCell ref="E115:F116"/>
+    <mergeCell ref="E135:F136"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="J28:P30"/>
     <mergeCell ref="E75:F76"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="S29:T29"/>
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="C29:E30"/>
     <mergeCell ref="E54:F55"/>
-    <mergeCell ref="C26:G27"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="J28:P30"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4064,8 +5906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227B2F4F-D173-4FFA-9A5E-3653AC075074}">
   <dimension ref="C4:AP63"/>
   <sheetViews>
-    <sheetView topLeftCell="B41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="B29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4099,82 +5941,82 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="88" t="s">
+      <c r="T4" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="89"/>
+      <c r="U4" s="94"/>
     </row>
     <row r="5" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
       <c r="S5" s="19"/>
-      <c r="T5" s="92" t="s">
+      <c r="T5" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="92"/>
+      <c r="U5" s="102"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="92" t="s">
+      <c r="T6" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="92"/>
+      <c r="U6" s="102"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
     <row r="7" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:42" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="95"/>
-      <c r="K8" s="69" t="s">
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="105"/>
+      <c r="K8" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="69" t="s">
+      <c r="M8" s="68" t="s">
         <v>72</v>
       </c>
       <c r="N8" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="69" t="s">
+      <c r="O8" s="68" t="s">
         <v>73</v>
       </c>
       <c r="P8" s="66" t="s">
@@ -4183,22 +6025,22 @@
       <c r="Q8" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="R8" s="69" t="s">
+      <c r="R8" s="68" t="s">
         <v>74</v>
       </c>
       <c r="S8" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="T8" s="68" t="s">
+      <c r="T8" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="U8" s="69" t="s">
+      <c r="U8" s="68" t="s">
         <v>75</v>
       </c>
       <c r="V8" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="W8" s="72" t="s">
+      <c r="W8" s="71" t="s">
         <v>148</v>
       </c>
       <c r="X8" s="66" t="s">
@@ -4207,26 +6049,26 @@
       <c r="Y8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="74"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
     </row>
     <row r="9" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="27"/>
       <c r="H9" s="28"/>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="68" t="s">
         <v>145</v>
       </c>
       <c r="K9" s="21"/>
@@ -4244,12 +6086,12 @@
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
-      <c r="AA9" s="74"/>
+      <c r="AA9" s="73"/>
     </row>
     <row r="10" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="27"/>
       <c r="H10" s="28"/>
-      <c r="J10" s="69" t="s">
+      <c r="J10" s="68" t="s">
         <v>71</v>
       </c>
       <c r="K10" s="18"/>
@@ -4267,12 +6109,12 @@
       <c r="W10" s="18"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="18"/>
-      <c r="AA10" s="74"/>
+      <c r="AA10" s="73"/>
     </row>
     <row r="11" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="68" t="s">
         <v>72</v>
       </c>
       <c r="K11" s="18"/>
@@ -4290,7 +6132,7 @@
       <c r="W11" s="18"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="18"/>
-      <c r="AA11" s="74"/>
+      <c r="AA11" s="73"/>
     </row>
     <row r="12" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="27"/>
@@ -4313,12 +6155,12 @@
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="18"/>
-      <c r="AA12" s="74"/>
+      <c r="AA12" s="73"/>
     </row>
     <row r="13" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="27"/>
       <c r="H13" s="28"/>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="68" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="18"/>
@@ -4336,7 +6178,7 @@
       <c r="W13" s="18"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="18"/>
-      <c r="AA13" s="74"/>
+      <c r="AA13" s="73"/>
     </row>
     <row r="14" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="27"/>
@@ -4376,18 +6218,18 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="73"/>
+      <c r="T15" s="72"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="18"/>
-      <c r="AA15" s="74"/>
+      <c r="AA15" s="73"/>
     </row>
     <row r="16" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="J16" s="71" t="s">
+      <c r="J16" s="70" t="s">
         <v>74</v>
       </c>
       <c r="K16" s="18"/>
@@ -4428,12 +6270,12 @@
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="18"/>
-      <c r="AA17" s="74"/>
+      <c r="AA17" s="73"/>
     </row>
     <row r="18" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="J18" s="68" t="s">
+      <c r="J18" s="67" t="s">
         <v>87</v>
       </c>
       <c r="K18" s="20"/>
@@ -4442,7 +6284,7 @@
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="73"/>
+      <c r="Q18" s="72"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
       <c r="T18" s="21"/>
@@ -4451,12 +6293,12 @@
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
-      <c r="AA18" s="74"/>
+      <c r="AA18" s="73"/>
     </row>
     <row r="19" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="70" t="s">
         <v>75</v>
       </c>
       <c r="K19" s="18"/>
@@ -4497,12 +6339,12 @@
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="18"/>
-      <c r="AA20" s="74"/>
+      <c r="AA20" s="73"/>
     </row>
     <row r="21" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="71" t="s">
         <v>148</v>
       </c>
       <c r="K21" s="18"/>
@@ -4520,7 +6362,7 @@
       <c r="W21" s="21"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
-      <c r="AA21" s="75"/>
+      <c r="AA21" s="74"/>
     </row>
     <row r="22" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="27"/>
@@ -4543,7 +6385,7 @@
       <c r="W22" s="18"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="18"/>
-      <c r="AA22" s="74"/>
+      <c r="AA22" s="73"/>
     </row>
     <row r="23" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="27"/>
@@ -4566,7 +6408,7 @@
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="21"/>
-      <c r="AA23" s="74"/>
+      <c r="AA23" s="73"/>
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="27"/>
@@ -4638,9 +6480,7 @@
       <c r="F34" s="33">
         <v>1</v>
       </c>
-      <c r="G34" s="33">
-        <v>1</v>
-      </c>
+      <c r="G34" s="33"/>
       <c r="H34" s="43" t="s">
         <v>94</v>
       </c>
@@ -4665,9 +6505,7 @@
       <c r="F35" s="33">
         <v>1</v>
       </c>
-      <c r="G35" s="33">
-        <v>1</v>
-      </c>
+      <c r="G35" s="33"/>
       <c r="H35" s="44" t="s">
         <v>96</v>
       </c>
@@ -4692,9 +6530,7 @@
       <c r="F36" s="33">
         <v>1</v>
       </c>
-      <c r="G36" s="33">
-        <v>1</v>
-      </c>
+      <c r="G36" s="33"/>
       <c r="H36" s="44" t="s">
         <v>98</v>
       </c>
@@ -4719,10 +6555,7 @@
       <c r="F37" s="33">
         <v>8</v>
       </c>
-      <c r="G37" s="15">
-        <f>F56+F37</f>
-        <v>34</v>
-      </c>
+      <c r="G37" s="15"/>
       <c r="H37" s="45" t="s">
         <v>101</v>
       </c>
@@ -4747,9 +6580,7 @@
       <c r="F38" s="33">
         <v>1</v>
       </c>
-      <c r="G38" s="15">
-        <v>1</v>
-      </c>
+      <c r="G38" s="15"/>
       <c r="H38" s="45" t="s">
         <v>104</v>
       </c>
@@ -4775,10 +6606,7 @@
         <f>I40</f>
         <v>27</v>
       </c>
-      <c r="G39" s="15">
-        <f>F56+F39</f>
-        <v>53</v>
-      </c>
+      <c r="G39" s="15"/>
       <c r="H39" s="44" t="s">
         <v>107</v>
       </c>
@@ -4804,10 +6632,7 @@
         <f>SUM(I41:I43)+F47</f>
         <v>21</v>
       </c>
-      <c r="G40" s="15">
-        <f>F56+F40</f>
-        <v>47</v>
-      </c>
+      <c r="G40" s="15"/>
       <c r="H40" s="45" t="s">
         <v>106</v>
       </c>
@@ -4833,9 +6658,7 @@
       <c r="F41" s="33">
         <v>1</v>
       </c>
-      <c r="G41" s="15">
-        <v>1</v>
-      </c>
+      <c r="G41" s="15"/>
       <c r="H41" s="45" t="s">
         <v>112</v>
       </c>
@@ -4862,10 +6685,7 @@
         <f>SUM(I45:I46)+F48</f>
         <v>8</v>
       </c>
-      <c r="G42" s="15">
-        <f>F56+F42</f>
-        <v>34</v>
-      </c>
+      <c r="G42" s="15"/>
       <c r="H42" s="45" t="s">
         <v>115</v>
       </c>
@@ -4891,9 +6711,7 @@
       <c r="F43" s="33">
         <v>1</v>
       </c>
-      <c r="G43" s="15">
-        <v>1</v>
-      </c>
+      <c r="G43" s="15"/>
       <c r="H43" s="45" t="s">
         <v>118</v>
       </c>
@@ -4919,10 +6737,7 @@
         <f>SUM(I48:I50)</f>
         <v>9</v>
       </c>
-      <c r="G44" s="15">
-        <f>F56+F44</f>
-        <v>35</v>
-      </c>
+      <c r="G44" s="15"/>
       <c r="H44" s="44" t="s">
         <v>111</v>
       </c>
@@ -4947,9 +6762,7 @@
       <c r="F45" s="33">
         <v>1</v>
       </c>
-      <c r="G45" s="15">
-        <v>1</v>
-      </c>
+      <c r="G45" s="15"/>
       <c r="H45" s="45" t="s">
         <v>123</v>
       </c>
@@ -4975,10 +6788,7 @@
         <f>SUM(I52:I53)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="15">
-        <f>F56+F46</f>
-        <v>28</v>
-      </c>
+      <c r="G46" s="15"/>
       <c r="H46" s="45" t="s">
         <v>126</v>
       </c>
@@ -5053,9 +6863,7 @@
       <c r="F49" s="59">
         <v>4</v>
       </c>
-      <c r="G49" s="15">
-        <v>4</v>
-      </c>
+      <c r="G49" s="15"/>
       <c r="H49" s="45" t="s">
         <v>130</v>
       </c>
@@ -5103,10 +6911,7 @@
         <f>SUM(F34:F46)+F49</f>
         <v>86</v>
       </c>
-      <c r="G51" s="15">
-        <f>SUM(G34:G46)+G49</f>
-        <v>242</v>
-      </c>
+      <c r="G51" s="15"/>
       <c r="H51" s="44" t="s">
         <v>132</v>
       </c>

--- a/Diseño/ProyectoRedes.xlsx
+++ b/Diseño/ProyectoRedes.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\PROYECTO REDES\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949E7AE9-C325-4185-A5ED-4D9C2F2EBC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A323729-AA6A-4597-8243-997D8A001EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
   </bookViews>
   <sheets>
     <sheet name="PRINCIPAL" sheetId="1" r:id="rId1"/>
     <sheet name="CALCULO VLANS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PRINCIPAL!$B$32:$G$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PRINCIPAL!$J$56:$Q$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="479">
   <si>
     <t>192.168.0.0</t>
   </si>
@@ -624,33 +624,12 @@
     <t>192.168.0.111</t>
   </si>
   <si>
-    <t>192.168.0.104</t>
-  </si>
-  <si>
-    <t>192.168.0.105</t>
-  </si>
-  <si>
     <t>192.168.0.112</t>
   </si>
   <si>
     <t>192.168.0.113</t>
   </si>
   <si>
-    <t>192.168.0.114</t>
-  </si>
-  <si>
-    <t>192.168.0.115</t>
-  </si>
-  <si>
-    <t>192.168.0.116</t>
-  </si>
-  <si>
-    <t>192.168.0.117 </t>
-  </si>
-  <si>
-    <t> 192.168.0.118</t>
-  </si>
-  <si>
     <t>192.168.0.119</t>
   </si>
   <si>
@@ -672,12 +651,6 @@
     <t>192.168.0.144</t>
   </si>
   <si>
-    <t>192.168.0.121</t>
-  </si>
-  <si>
-    <t>192.168.0.122</t>
-  </si>
-  <si>
     <t>192.168.0.123</t>
   </si>
   <si>
@@ -696,15 +669,6 @@
     <t>192.168.0.137</t>
   </si>
   <si>
-    <t>192.168.0.141</t>
-  </si>
-  <si>
-    <t>192.168.0.145</t>
-  </si>
-  <si>
-    <t> 192.168.0.130</t>
-  </si>
-  <si>
     <t>192.168.0.134</t>
   </si>
   <si>
@@ -774,45 +738,18 @@
     <t>192.168.2.111</t>
   </si>
   <si>
-    <t>192.168.2.104</t>
-  </si>
-  <si>
-    <t>192.168.2.105</t>
-  </si>
-  <si>
     <t>192.168.2.112</t>
   </si>
   <si>
     <t>192.168.2.113</t>
   </si>
   <si>
-    <t>192.168.2.114</t>
-  </si>
-  <si>
-    <t>192.168.2.115</t>
-  </si>
-  <si>
-    <t>192.168.2.116</t>
-  </si>
-  <si>
-    <t>192.168.2.117 </t>
-  </si>
-  <si>
-    <t> 192.168.2.118</t>
-  </si>
-  <si>
     <t>192.168.2.119</t>
   </si>
   <si>
     <t>192.168.2.120</t>
   </si>
   <si>
-    <t>192.168.2.121</t>
-  </si>
-  <si>
-    <t>192.168.2.122</t>
-  </si>
-  <si>
     <t>192.168.2.123</t>
   </si>
   <si>
@@ -828,9 +765,6 @@
     <t>192.168.2.129</t>
   </si>
   <si>
-    <t> 192.168.2.130</t>
-  </si>
-  <si>
     <t>192.168.2.131</t>
   </si>
   <si>
@@ -861,9 +795,6 @@
     <t>192.168.2.140</t>
   </si>
   <si>
-    <t>192.168.2.141</t>
-  </si>
-  <si>
     <t> 192.168.2.142</t>
   </si>
   <si>
@@ -873,9 +804,6 @@
     <t>192.168.2.144</t>
   </si>
   <si>
-    <t>192.168.2.145</t>
-  </si>
-  <si>
     <t>192.168.2.146</t>
   </si>
   <si>
@@ -942,45 +870,18 @@
     <t>192.168.4.111</t>
   </si>
   <si>
-    <t>192.168.4.104</t>
-  </si>
-  <si>
-    <t>192.168.4.105</t>
-  </si>
-  <si>
     <t>192.168.4.112</t>
   </si>
   <si>
     <t>192.168.4.113</t>
   </si>
   <si>
-    <t>192.168.4.114</t>
-  </si>
-  <si>
-    <t>192.168.4.115</t>
-  </si>
-  <si>
-    <t>192.168.4.116</t>
-  </si>
-  <si>
-    <t>192.168.4.117 </t>
-  </si>
-  <si>
-    <t> 192.168.4.118</t>
-  </si>
-  <si>
     <t>192.168.4.119</t>
   </si>
   <si>
     <t>192.168.4.120</t>
   </si>
   <si>
-    <t>192.168.4.121</t>
-  </si>
-  <si>
-    <t>192.168.4.122</t>
-  </si>
-  <si>
     <t>192.168.4.123</t>
   </si>
   <si>
@@ -1002,9 +903,6 @@
     <t>192.168.4.129</t>
   </si>
   <si>
-    <t> 192.168.4.130</t>
-  </si>
-  <si>
     <t>192.168.4.131</t>
   </si>
   <si>
@@ -1035,9 +933,6 @@
     <t>192.168.4.140</t>
   </si>
   <si>
-    <t>192.168.4.141</t>
-  </si>
-  <si>
     <t> 192.168.4.142</t>
   </si>
   <si>
@@ -1047,9 +942,6 @@
     <t>192.168.4.144</t>
   </si>
   <si>
-    <t>192.168.4.145</t>
-  </si>
-  <si>
     <t>192.168.4.146</t>
   </si>
   <si>
@@ -1113,45 +1005,18 @@
     <t>192.168.6.111</t>
   </si>
   <si>
-    <t>192.168.6.104</t>
-  </si>
-  <si>
-    <t>192.168.6.105</t>
-  </si>
-  <si>
     <t>192.168.6.112</t>
   </si>
   <si>
     <t>192.168.6.113</t>
   </si>
   <si>
-    <t>192.168.6.114</t>
-  </si>
-  <si>
-    <t>192.168.6.115</t>
-  </si>
-  <si>
-    <t>192.168.6.116</t>
-  </si>
-  <si>
-    <t>192.168.6.117 </t>
-  </si>
-  <si>
-    <t> 192.168.6.118</t>
-  </si>
-  <si>
     <t>192.168.6.119</t>
   </si>
   <si>
     <t>192.168.6.120</t>
   </si>
   <si>
-    <t>192.168.6.121</t>
-  </si>
-  <si>
-    <t>192.168.6.122</t>
-  </si>
-  <si>
     <t>192.168.6.123</t>
   </si>
   <si>
@@ -1173,9 +1038,6 @@
     <t>192.168.6.129</t>
   </si>
   <si>
-    <t> 192.168.6.130</t>
-  </si>
-  <si>
     <t>192.168.6.131</t>
   </si>
   <si>
@@ -1206,9 +1068,6 @@
     <t>192.168.6.140</t>
   </si>
   <si>
-    <t>192.168.6.141</t>
-  </si>
-  <si>
     <t> 192.168.6.142</t>
   </si>
   <si>
@@ -1218,9 +1077,6 @@
     <t>192.168.6.144</t>
   </si>
   <si>
-    <t>192.168.6.145</t>
-  </si>
-  <si>
     <t>192.168.6.146</t>
   </si>
   <si>
@@ -1284,45 +1140,18 @@
     <t>192.168.8.111</t>
   </si>
   <si>
-    <t>192.168.8.104</t>
-  </si>
-  <si>
-    <t>192.168.8.105</t>
-  </si>
-  <si>
     <t>192.168.8.112</t>
   </si>
   <si>
     <t>192.168.8.113</t>
   </si>
   <si>
-    <t>192.168.8.114</t>
-  </si>
-  <si>
-    <t>192.168.8.115</t>
-  </si>
-  <si>
-    <t>192.168.8.116</t>
-  </si>
-  <si>
-    <t>192.168.8.117 </t>
-  </si>
-  <si>
-    <t> 192.168.8.118</t>
-  </si>
-  <si>
     <t>192.168.8.119</t>
   </si>
   <si>
     <t>192.168.8.120</t>
   </si>
   <si>
-    <t>192.168.8.121</t>
-  </si>
-  <si>
-    <t>192.168.8.122</t>
-  </si>
-  <si>
     <t>192.168.8.123</t>
   </si>
   <si>
@@ -1344,9 +1173,6 @@
     <t>192.168.8.129</t>
   </si>
   <si>
-    <t> 192.168.8.130</t>
-  </si>
-  <si>
     <t>192.168.8.131</t>
   </si>
   <si>
@@ -1377,9 +1203,6 @@
     <t>192.168.8.140</t>
   </si>
   <si>
-    <t>192.168.8.141</t>
-  </si>
-  <si>
     <t> 192.168.8.142</t>
   </si>
   <si>
@@ -1389,9 +1212,6 @@
     <t>192.168.8.144</t>
   </si>
   <si>
-    <t>192.168.8.145</t>
-  </si>
-  <si>
     <t>192.168.8.146</t>
   </si>
   <si>
@@ -1444,6 +1264,219 @@
   </si>
   <si>
     <t>Color de VLAN</t>
+  </si>
+  <si>
+    <t>192.168.0.118</t>
+  </si>
+  <si>
+    <t>192.168.0.148</t>
+  </si>
+  <si>
+    <t>192.168.0.152</t>
+  </si>
+  <si>
+    <t>192.168.0.121 </t>
+  </si>
+  <si>
+    <t>192.168.0.141 </t>
+  </si>
+  <si>
+    <t>192.168.0.145 </t>
+  </si>
+  <si>
+    <t>192.168.0.149</t>
+  </si>
+  <si>
+    <t>192.168.0.153 </t>
+  </si>
+  <si>
+    <t> 192.168.0.122</t>
+  </si>
+  <si>
+    <t>192.168.0.130</t>
+  </si>
+  <si>
+    <t>192.168.0.150</t>
+  </si>
+  <si>
+    <t>192.168.0.154</t>
+  </si>
+  <si>
+    <t>192.168.0.155</t>
+  </si>
+  <si>
+    <t>192.168.0.151</t>
+  </si>
+  <si>
+    <t>192.168.2.118</t>
+  </si>
+  <si>
+    <t>192.168.2.121 </t>
+  </si>
+  <si>
+    <t> 192.168.2.122</t>
+  </si>
+  <si>
+    <t>192.168.2.130</t>
+  </si>
+  <si>
+    <t>192.168.2.141 </t>
+  </si>
+  <si>
+    <t>192.168.2.145 </t>
+  </si>
+  <si>
+    <t>192.168.2.148</t>
+  </si>
+  <si>
+    <t>192.168.2.149</t>
+  </si>
+  <si>
+    <t>192.168.2.150</t>
+  </si>
+  <si>
+    <t>192.168.2.151</t>
+  </si>
+  <si>
+    <t>192.168.2.152</t>
+  </si>
+  <si>
+    <t>192.168.2.153 </t>
+  </si>
+  <si>
+    <t>192.168.2.154</t>
+  </si>
+  <si>
+    <t>192.168.2.155</t>
+  </si>
+  <si>
+    <t>192.168.4.118</t>
+  </si>
+  <si>
+    <t>192.168.4.121 </t>
+  </si>
+  <si>
+    <t> 192.168.4.122</t>
+  </si>
+  <si>
+    <t>192.168.4.130</t>
+  </si>
+  <si>
+    <t>192.168.4.141 </t>
+  </si>
+  <si>
+    <t>192.168.4.145 </t>
+  </si>
+  <si>
+    <t>192.168.4.148</t>
+  </si>
+  <si>
+    <t>192.168.4.149</t>
+  </si>
+  <si>
+    <t>192.168.4.150</t>
+  </si>
+  <si>
+    <t>192.168.4.151</t>
+  </si>
+  <si>
+    <t>192.168.4.152</t>
+  </si>
+  <si>
+    <t>192.168.4.153 </t>
+  </si>
+  <si>
+    <t>192.168.4.154</t>
+  </si>
+  <si>
+    <t>192.168.4.155</t>
+  </si>
+  <si>
+    <t>192.168.6.118</t>
+  </si>
+  <si>
+    <t>192.168.6.121 </t>
+  </si>
+  <si>
+    <t> 192.168.6.122</t>
+  </si>
+  <si>
+    <t>192.168.6.130</t>
+  </si>
+  <si>
+    <t>192.168.6.141 </t>
+  </si>
+  <si>
+    <t>192.168.6.145 </t>
+  </si>
+  <si>
+    <t>192.168.6.148</t>
+  </si>
+  <si>
+    <t>192.168.6.149</t>
+  </si>
+  <si>
+    <t>192.168.6.150</t>
+  </si>
+  <si>
+    <t>192.168.6.151</t>
+  </si>
+  <si>
+    <t>192.168.6.152</t>
+  </si>
+  <si>
+    <t>192.168.6.153 </t>
+  </si>
+  <si>
+    <t>192.168.6.154</t>
+  </si>
+  <si>
+    <t>192.168.6.155</t>
+  </si>
+  <si>
+    <t>192.168.8.118</t>
+  </si>
+  <si>
+    <t>192.168.8.121 </t>
+  </si>
+  <si>
+    <t> 192.168.8.122</t>
+  </si>
+  <si>
+    <t>192.168.8.130</t>
+  </si>
+  <si>
+    <t>192.168.8.141 </t>
+  </si>
+  <si>
+    <t>192.168.8.145 </t>
+  </si>
+  <si>
+    <t>192.168.8.148</t>
+  </si>
+  <si>
+    <t>192.168.8.149</t>
+  </si>
+  <si>
+    <t>192.168.8.150</t>
+  </si>
+  <si>
+    <t>192.168.8.151</t>
+  </si>
+  <si>
+    <t>192.168.8.152</t>
+  </si>
+  <si>
+    <t>192.168.8.153 </t>
+  </si>
+  <si>
+    <t>192.168.8.154</t>
+  </si>
+  <si>
+    <t>192.168.8.155</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1822,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1992,11 +2025,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2246,55 +2288,10 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2315,23 +2312,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2340,7 +2325,67 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2728,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
   <dimension ref="B2:Y152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2744,10 +2789,10 @@
     <col min="9" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1"/>
     <col min="18" max="18" width="14.140625" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" customWidth="1"/>
@@ -2758,29 +2803,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
     </row>
     <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2795,10 +2840,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="2">
         <f>80+82+80</f>
         <v>242</v>
@@ -3139,78 +3184,78 @@
     </row>
     <row r="26" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="75"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
     </row>
     <row r="27" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
     </row>
     <row r="28" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="17"/>
-      <c r="J28" s="97" t="s">
+      <c r="J28" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="93" t="s">
+      <c r="S28" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="T28" s="94"/>
+      <c r="T28" s="114"/>
     </row>
     <row r="29" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="19"/>
-      <c r="S29" s="95" t="s">
+      <c r="S29" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="96"/>
+      <c r="T29" s="116"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="95" t="s">
+      <c r="S30" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="T30" s="96"/>
+      <c r="T30" s="116"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
     </row>
@@ -3219,7 +3264,7 @@
       <c r="B32" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="108" t="s">
+      <c r="C32" s="93" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="63" t="s">
@@ -3232,7 +3277,7 @@
         <v>91</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="J32" s="68" t="s">
         <v>145</v>
@@ -3276,7 +3321,7 @@
       <c r="W32" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="X32" s="120" t="s">
+      <c r="X32" s="101" t="s">
         <v>86</v>
       </c>
       <c r="Y32" s="66" t="s">
@@ -3298,7 +3343,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="68" t="s">
@@ -3318,7 +3363,7 @@
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
-      <c r="X33" s="121"/>
+      <c r="X33" s="102"/>
       <c r="Y33" s="18"/>
     </row>
     <row r="34" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3336,7 +3381,7 @@
         <v>21</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="68" t="s">
@@ -3356,7 +3401,7 @@
       <c r="U34" s="20"/>
       <c r="V34" s="18"/>
       <c r="W34" s="20"/>
-      <c r="X34" s="121"/>
+      <c r="X34" s="102"/>
       <c r="Y34" s="18"/>
     </row>
     <row r="35" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,7 +3419,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="68" t="s">
@@ -3394,7 +3439,7 @@
       <c r="U35" s="20"/>
       <c r="V35" s="18"/>
       <c r="W35" s="20"/>
-      <c r="X35" s="121"/>
+      <c r="X35" s="102"/>
       <c r="Y35" s="18"/>
     </row>
     <row r="36" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3412,7 +3457,7 @@
         <v>8</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="66" t="s">
@@ -3432,7 +3477,7 @@
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
-      <c r="X36" s="121"/>
+      <c r="X36" s="102"/>
       <c r="Y36" s="18"/>
     </row>
     <row r="37" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3450,7 +3495,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="68" t="s">
@@ -3470,7 +3515,7 @@
       <c r="U37" s="20"/>
       <c r="V37" s="18"/>
       <c r="W37" s="20"/>
-      <c r="X37" s="121"/>
+      <c r="X37" s="102"/>
       <c r="Y37" s="18"/>
     </row>
     <row r="38" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3488,7 +3533,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="59" t="s">
@@ -3508,7 +3553,7 @@
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
-      <c r="X38" s="121"/>
+      <c r="X38" s="102"/>
       <c r="Y38" s="18"/>
     </row>
     <row r="39" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3526,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="66" t="s">
@@ -3546,7 +3591,7 @@
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
-      <c r="X39" s="121"/>
+      <c r="X39" s="102"/>
       <c r="Y39" s="18"/>
     </row>
     <row r="40" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3564,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="70" t="s">
@@ -3584,7 +3629,7 @@
       <c r="U40" s="20"/>
       <c r="V40" s="18"/>
       <c r="W40" s="20"/>
-      <c r="X40" s="121"/>
+      <c r="X40" s="102"/>
       <c r="Y40" s="18"/>
     </row>
     <row r="41" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3602,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="66" t="s">
@@ -3622,7 +3667,7 @@
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
-      <c r="X41" s="121"/>
+      <c r="X41" s="102"/>
       <c r="Y41" s="18"/>
     </row>
     <row r="42" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3640,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>464</v>
+        <v>404</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="67" t="s">
@@ -3660,7 +3705,7 @@
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
       <c r="W42" s="20"/>
-      <c r="X42" s="122"/>
+      <c r="X42" s="103"/>
       <c r="Y42" s="18"/>
     </row>
     <row r="43" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3673,11 +3718,11 @@
       <c r="D43" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="109"/>
+      <c r="E43" s="94"/>
       <c r="F43" s="23">
         <v>1</v>
       </c>
-      <c r="G43" s="119"/>
+      <c r="G43" s="94"/>
       <c r="H43" s="15"/>
       <c r="I43" s="70" t="s">
         <v>75</v>
@@ -3696,7 +3741,7 @@
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
       <c r="W43" s="20"/>
-      <c r="X43" s="121"/>
+      <c r="X43" s="102"/>
       <c r="Y43" s="18"/>
     </row>
     <row r="44" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3714,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>453</v>
+        <v>393</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="66" t="s">
@@ -3734,7 +3779,7 @@
       <c r="U44" s="21"/>
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
-      <c r="X44" s="121"/>
+      <c r="X44" s="102"/>
       <c r="Y44" s="18"/>
     </row>
     <row r="45" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="71" t="s">
@@ -3772,7 +3817,7 @@
       <c r="U45" s="20"/>
       <c r="V45" s="21"/>
       <c r="W45" s="18"/>
-      <c r="X45" s="121"/>
+      <c r="X45" s="102"/>
       <c r="Y45" s="18"/>
     </row>
     <row r="46" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3790,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="66" t="s">
@@ -3810,17 +3855,17 @@
       <c r="U46" s="20"/>
       <c r="V46" s="18"/>
       <c r="W46" s="21"/>
-      <c r="X46" s="121"/>
+      <c r="X46" s="102"/>
       <c r="Y46" s="18"/>
     </row>
     <row r="47" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="106" t="s">
+      <c r="B47" s="91" t="s">
         <v>110</v>
       </c>
       <c r="C47" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="107" t="s">
+      <c r="D47" s="92" t="s">
         <v>146</v>
       </c>
       <c r="E47" s="62"/>
@@ -3828,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="66" t="s">
@@ -3848,7 +3893,7 @@
       <c r="U47" s="18"/>
       <c r="V47" s="18"/>
       <c r="W47" s="18"/>
-      <c r="X47" s="123"/>
+      <c r="X47" s="104"/>
       <c r="Y47" s="18"/>
     </row>
     <row r="48" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3864,29 +3909,29 @@
       <c r="E48" s="65"/>
       <c r="F48" s="65"/>
       <c r="G48" s="23" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="I48" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="124"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="124"/>
-      <c r="S48" s="124"/>
-      <c r="T48" s="124"/>
-      <c r="U48" s="124"/>
-      <c r="V48" s="124"/>
-      <c r="W48" s="124"/>
-      <c r="X48" s="124"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="105"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="105"/>
+      <c r="R48" s="105"/>
+      <c r="S48" s="105"/>
+      <c r="T48" s="105"/>
+      <c r="U48" s="105"/>
+      <c r="V48" s="105"/>
+      <c r="W48" s="105"/>
+      <c r="X48" s="105"/>
       <c r="Y48" s="21"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E50" s="62" t="s">
         <v>14</v>
       </c>
@@ -3894,27 +3939,27 @@
         <f>SUM(F34:F42,F43:F48)</f>
         <v>60</v>
       </c>
-      <c r="G50" s="125"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="61"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E54" s="91" t="s">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E54" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="91"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
+      <c r="F54" s="106"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="76" t="s">
         <v>161</v>
       </c>
@@ -3936,21 +3981,45 @@
       <c r="H56" s="76" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J56" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="K56" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="L56" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="M56" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="N56" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="O56" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="P56" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q56" s="76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="110" t="s">
+      <c r="C57" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="111" t="s">
+      <c r="D57" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="112" t="s">
+      <c r="E57" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="F57" s="111" t="s">
+      <c r="F57" s="96" t="s">
         <v>180</v>
       </c>
       <c r="G57" s="66">
@@ -3960,24 +4029,45 @@
         <v>159</v>
       </c>
       <c r="I57" s="24"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-    </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J57" s="74">
+        <v>1</v>
+      </c>
+      <c r="K57" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="L57" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="M57" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="N57" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="O57" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="P57" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="111" t="s">
+      <c r="C58" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="110" t="s">
+      <c r="D58" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="E58" s="112" t="s">
+      <c r="E58" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="F58" s="110" t="s">
+      <c r="F58" s="95" t="s">
         <v>153</v>
       </c>
       <c r="G58" s="66">
@@ -3987,23 +4077,45 @@
         <v>159</v>
       </c>
       <c r="I58" s="25"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="25"/>
-    </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J58" s="74">
+        <v>2</v>
+      </c>
+      <c r="K58" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="L58" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="M58" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="N58" s="97" t="s">
+        <v>417</v>
+      </c>
+      <c r="O58" s="125" t="s">
+        <v>213</v>
+      </c>
+      <c r="P58" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="110" t="s">
+      <c r="C59" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="111" t="s">
+      <c r="D59" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="113" t="s">
+      <c r="E59" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="F59" s="111" t="s">
+      <c r="F59" s="96" t="s">
         <v>184</v>
       </c>
       <c r="G59" s="59">
@@ -4013,23 +4125,45 @@
         <v>185</v>
       </c>
       <c r="I59" s="25"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="25"/>
-    </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J59" s="74">
+        <v>3</v>
+      </c>
+      <c r="K59" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="L59" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="M59" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="N59" s="126" t="s">
+        <v>209</v>
+      </c>
+      <c r="O59" s="96" t="s">
+        <v>214</v>
+      </c>
+      <c r="P59" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="111" t="s">
+      <c r="C60" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="111" t="s">
+      <c r="D60" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E60" s="117" t="s">
+      <c r="E60" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="F60" s="110" t="s">
+      <c r="F60" s="95" t="s">
         <v>190</v>
       </c>
       <c r="G60" s="59">
@@ -4039,20 +4173,42 @@
         <v>185</v>
       </c>
       <c r="I60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="25"/>
-    </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J60" s="74">
+        <v>4</v>
+      </c>
+      <c r="K60" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="L60" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="M60" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="N60" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="O60" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="P60" s="59">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="111" t="s">
+      <c r="C61" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="110" t="s">
+      <c r="D61" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="117" t="s">
+      <c r="E61" s="99" t="s">
         <v>192</v>
       </c>
       <c r="F61" s="59" t="s">
@@ -4065,24 +4221,46 @@
         <v>185</v>
       </c>
       <c r="I61" s="25"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="25"/>
-    </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J61" s="74">
+        <v>5</v>
+      </c>
+      <c r="K61" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="L61" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="M61" s="125" t="s">
+        <v>208</v>
+      </c>
+      <c r="N61" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="O61" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="P61" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="111" t="s">
+      <c r="C62" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="111" t="s">
+      <c r="D62" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="F62" s="111" t="s">
-        <v>193</v>
+      <c r="E62" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="F62" s="96" t="s">
+        <v>196</v>
       </c>
       <c r="G62" s="66">
         <v>4</v>
@@ -4091,24 +4269,46 @@
         <v>160</v>
       </c>
       <c r="I62" s="25"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="25"/>
-    </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J62" s="122">
+        <v>6</v>
+      </c>
+      <c r="K62" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="L62" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="N62" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="O62" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="P62" s="66">
+        <v>24</v>
+      </c>
+      <c r="Q62" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="114" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" s="110" t="s">
+      <c r="C63" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="E63" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="F63" s="110" t="s">
-        <v>199</v>
+      <c r="D63" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="E63" s="97" t="s">
+        <v>416</v>
+      </c>
+      <c r="F63" s="96" t="s">
+        <v>203</v>
       </c>
       <c r="G63" s="66">
         <v>2</v>
@@ -4117,24 +4317,46 @@
         <v>69</v>
       </c>
       <c r="I63" s="25"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="25"/>
-    </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J63" s="74">
+        <v>7</v>
+      </c>
+      <c r="K63" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="L63" s="96" t="s">
+        <v>181</v>
+      </c>
+      <c r="M63" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="N63" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="O63" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="P63" s="66">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="111" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="E64" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="F64" s="111" t="s">
-        <v>203</v>
+      <c r="C64" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="96" t="s">
+        <v>157</v>
       </c>
       <c r="G64" s="66">
         <v>1</v>
@@ -4143,24 +4365,46 @@
         <v>69</v>
       </c>
       <c r="I64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="25"/>
-    </row>
-    <row r="65" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J64" s="74">
+        <v>8</v>
+      </c>
+      <c r="K64" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="L64" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="M64" s="96" t="s">
+        <v>412</v>
+      </c>
+      <c r="N64" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="O64" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="P64" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="114" t="s">
-        <v>204</v>
-      </c>
-      <c r="D65" s="111" t="s">
-        <v>210</v>
-      </c>
-      <c r="E65" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="F65" s="110" t="s">
-        <v>212</v>
+      <c r="C65" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="97" t="s">
+        <v>417</v>
+      </c>
+      <c r="F65" s="96" t="s">
+        <v>213</v>
       </c>
       <c r="G65" s="66">
         <v>1</v>
@@ -4169,24 +4413,46 @@
         <v>69</v>
       </c>
       <c r="I65" s="25"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="25"/>
-    </row>
-    <row r="66" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J65" s="74">
+        <v>9</v>
+      </c>
+      <c r="K65" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="L65" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="M65" s="96" t="s">
+        <v>191</v>
+      </c>
+      <c r="N65" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="O65" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="P65" s="59">
+        <v>8</v>
+      </c>
+      <c r="Q65" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="D66" s="111" t="s">
-        <v>213</v>
-      </c>
-      <c r="E66" s="115" t="s">
+      <c r="C66" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" s="96" t="s">
         <v>214</v>
-      </c>
-      <c r="F66" s="111" t="s">
-        <v>157</v>
       </c>
       <c r="G66" s="66">
         <v>1</v>
@@ -4195,24 +4461,46 @@
         <v>69</v>
       </c>
       <c r="I66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="25"/>
-    </row>
-    <row r="67" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J66" s="74">
+        <v>10</v>
+      </c>
+      <c r="K66" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="L66" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="M66" s="96" t="s">
+        <v>413</v>
+      </c>
+      <c r="N66" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="O66" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="P66" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="114" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="111" t="s">
+      <c r="C67" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" s="96" t="s">
         <v>215</v>
-      </c>
-      <c r="E67" s="112" t="s">
-        <v>220</v>
-      </c>
-      <c r="F67" s="110" t="s">
-        <v>225</v>
       </c>
       <c r="G67" s="66">
         <v>1</v>
@@ -4221,24 +4509,46 @@
         <v>69</v>
       </c>
       <c r="I67" s="25"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="25"/>
-    </row>
-    <row r="68" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="74">
+        <v>11</v>
+      </c>
+      <c r="K67" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="L67" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="M67" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="N67" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="O67" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="P67" s="59">
+        <v>9</v>
+      </c>
+      <c r="Q67" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="111" t="s">
-        <v>206</v>
-      </c>
-      <c r="D68" s="111" t="s">
+      <c r="C68" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="96" t="s">
+        <v>412</v>
+      </c>
+      <c r="E68" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="F68" s="96" t="s">
         <v>216</v>
-      </c>
-      <c r="E68" s="115" t="s">
-        <v>221</v>
-      </c>
-      <c r="F68" s="111" t="s">
-        <v>226</v>
       </c>
       <c r="G68" s="66">
         <v>1</v>
@@ -4247,24 +4557,46 @@
         <v>69</v>
       </c>
       <c r="I68" s="25"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-    </row>
-    <row r="69" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J68" s="74">
+        <v>12</v>
+      </c>
+      <c r="K68" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="L68" s="96" t="s">
+        <v>409</v>
+      </c>
+      <c r="M68" s="96" t="s">
+        <v>414</v>
+      </c>
+      <c r="N68" s="97" t="s">
+        <v>418</v>
+      </c>
+      <c r="O68" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="P68" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="111" t="s">
+      <c r="C69" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="96" t="s">
+        <v>413</v>
+      </c>
+      <c r="E69" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69" s="96" t="s">
         <v>217</v>
-      </c>
-      <c r="E69" s="115" t="s">
-        <v>222</v>
-      </c>
-      <c r="F69" s="110" t="s">
-        <v>227</v>
       </c>
       <c r="G69" s="66">
         <v>1</v>
@@ -4273,24 +4605,46 @@
         <v>69</v>
       </c>
       <c r="I69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="25"/>
-    </row>
-    <row r="70" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J69" s="74">
+        <v>13</v>
+      </c>
+      <c r="K69" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="L69" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="M69" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="N69" s="97" t="s">
+        <v>416</v>
+      </c>
+      <c r="O69" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="P69" s="66">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="111" t="s">
-        <v>208</v>
-      </c>
-      <c r="D70" s="111" t="s">
-        <v>218</v>
-      </c>
-      <c r="E70" s="112" t="s">
-        <v>223</v>
-      </c>
-      <c r="F70" s="111" t="s">
-        <v>228</v>
+      <c r="C70" s="96" t="s">
+        <v>409</v>
+      </c>
+      <c r="D70" s="96" t="s">
+        <v>414</v>
+      </c>
+      <c r="E70" s="97" t="s">
+        <v>418</v>
+      </c>
+      <c r="F70" s="96" t="s">
+        <v>421</v>
       </c>
       <c r="G70" s="66">
         <v>1</v>
@@ -4299,24 +4653,46 @@
         <v>69</v>
       </c>
       <c r="I70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="25"/>
-    </row>
-    <row r="71" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J70" s="74">
+        <v>14</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L70" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="M70" s="96" t="s">
+        <v>415</v>
+      </c>
+      <c r="N70" s="97" t="s">
+        <v>419</v>
+      </c>
+      <c r="O70" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="P70" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="116" t="s">
-        <v>209</v>
-      </c>
-      <c r="D71" s="111" t="s">
-        <v>219</v>
-      </c>
-      <c r="E71" s="112" t="s">
-        <v>224</v>
-      </c>
-      <c r="F71" s="111" t="s">
-        <v>229</v>
+      <c r="C71" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="D71" s="96" t="s">
+        <v>415</v>
+      </c>
+      <c r="E71" s="97" t="s">
+        <v>419</v>
+      </c>
+      <c r="F71" s="96" t="s">
+        <v>420</v>
       </c>
       <c r="G71" s="59">
         <v>1</v>
@@ -4325,44 +4701,66 @@
         <v>69</v>
       </c>
       <c r="I71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-    </row>
-    <row r="72" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J71" s="74">
+        <v>20</v>
+      </c>
+      <c r="K71" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="L71" s="96" t="s">
+        <v>194</v>
+      </c>
+      <c r="M71" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="N71" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="O71" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="P71" s="66">
+        <v>4</v>
+      </c>
+      <c r="Q71" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H72" s="24"/>
       <c r="I72" s="25"/>
       <c r="K72" s="24"/>
       <c r="L72" s="25"/>
     </row>
-    <row r="73" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H73" s="24"/>
       <c r="I73" s="25"/>
       <c r="K73" s="24"/>
       <c r="L73" s="25"/>
     </row>
-    <row r="74" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H74" s="24"/>
       <c r="I74" s="25"/>
       <c r="K74" s="24"/>
       <c r="L74" s="25"/>
     </row>
-    <row r="75" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="91" t="s">
+    <row r="75" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E75" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="91"/>
+      <c r="F75" s="106"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
     </row>
-    <row r="76" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="92"/>
-      <c r="F76" s="92"/>
+    <row r="76" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E76" s="107"/>
+      <c r="F76" s="107"/>
       <c r="H76" s="15"/>
       <c r="I76" s="25"/>
       <c r="K76" s="24"/>
       <c r="L76" s="25"/>
     </row>
-    <row r="77" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="76" t="s">
         <v>161</v>
       </c>
@@ -4387,21 +4785,21 @@
       <c r="K77" s="24"/>
       <c r="L77" s="25"/>
     </row>
-    <row r="78" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="110" t="s">
+      <c r="C78" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="111" t="s">
+      <c r="D78" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="F78" s="111" t="s">
-        <v>231</v>
+      <c r="E78" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="F78" s="96" t="s">
+        <v>219</v>
       </c>
       <c r="G78" s="66">
         <v>24</v>
@@ -4412,20 +4810,20 @@
       <c r="K78" s="24"/>
       <c r="L78" s="25"/>
     </row>
-    <row r="79" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="D79" s="110" t="s">
-        <v>233</v>
-      </c>
-      <c r="E79" s="112" t="s">
+      <c r="C79" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="F79" s="110" t="s">
+      <c r="F79" s="95" t="s">
         <v>172</v>
       </c>
       <c r="G79" s="66">
@@ -4437,21 +4835,21 @@
       <c r="K79" s="24"/>
       <c r="L79" s="25"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="110" t="s">
+      <c r="C80" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="111" t="s">
+      <c r="D80" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="E80" s="113" t="s">
-        <v>234</v>
-      </c>
-      <c r="F80" s="111" t="s">
-        <v>235</v>
+      <c r="E80" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="F80" s="96" t="s">
+        <v>223</v>
       </c>
       <c r="G80" s="59">
         <v>9</v>
@@ -4466,17 +4864,17 @@
       <c r="B81" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="D81" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="E81" s="117" t="s">
-        <v>238</v>
-      </c>
-      <c r="F81" s="110" t="s">
-        <v>239</v>
+      <c r="C81" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="E81" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="F81" s="95" t="s">
+        <v>227</v>
       </c>
       <c r="G81" s="59">
         <v>8</v>
@@ -4489,17 +4887,17 @@
       <c r="B82" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="111" t="s">
-        <v>240</v>
-      </c>
-      <c r="D82" s="110" t="s">
-        <v>241</v>
-      </c>
-      <c r="E82" s="117" t="s">
-        <v>242</v>
+      <c r="C82" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" s="99" t="s">
+        <v>230</v>
       </c>
       <c r="F82" s="59" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G82" s="59">
         <v>8</v>
@@ -4512,17 +4910,17 @@
       <c r="B83" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="111" t="s">
-        <v>244</v>
-      </c>
-      <c r="D83" s="111" t="s">
-        <v>245</v>
-      </c>
-      <c r="E83" s="112" t="s">
-        <v>242</v>
-      </c>
-      <c r="F83" s="111" t="s">
-        <v>243</v>
+      <c r="C83" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="E83" s="97" t="s">
+        <v>422</v>
+      </c>
+      <c r="F83" s="96" t="s">
+        <v>234</v>
       </c>
       <c r="G83" s="66">
         <v>4</v>
@@ -4535,17 +4933,17 @@
       <c r="B84" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="114" t="s">
-        <v>246</v>
-      </c>
-      <c r="D84" s="110" t="s">
-        <v>247</v>
-      </c>
-      <c r="E84" s="115" t="s">
-        <v>248</v>
-      </c>
-      <c r="F84" s="110" t="s">
-        <v>249</v>
+      <c r="C84" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="E84" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="F84" s="96" t="s">
+        <v>236</v>
       </c>
       <c r="G84" s="66">
         <v>2</v>
@@ -4558,17 +4956,17 @@
       <c r="B85" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="111" t="s">
-        <v>250</v>
-      </c>
-      <c r="D85" s="111" t="s">
-        <v>251</v>
-      </c>
-      <c r="E85" s="112" t="s">
-        <v>252</v>
-      </c>
-      <c r="F85" s="111" t="s">
-        <v>253</v>
+      <c r="C85" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="F85" s="96" t="s">
+        <v>173</v>
       </c>
       <c r="G85" s="66">
         <v>1</v>
@@ -4581,17 +4979,17 @@
       <c r="B86" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="114" t="s">
-        <v>254</v>
-      </c>
-      <c r="D86" s="111" t="s">
-        <v>255</v>
-      </c>
-      <c r="E86" s="115" t="s">
-        <v>256</v>
-      </c>
-      <c r="F86" s="110" t="s">
-        <v>257</v>
+      <c r="C86" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="96" t="s">
+        <v>240</v>
+      </c>
+      <c r="E86" s="97" t="s">
+        <v>425</v>
+      </c>
+      <c r="F86" s="96" t="s">
+        <v>241</v>
       </c>
       <c r="G86" s="66">
         <v>1</v>
@@ -4604,17 +5002,17 @@
       <c r="B87" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C87" s="111" t="s">
-        <v>258</v>
-      </c>
-      <c r="D87" s="111" t="s">
-        <v>259</v>
-      </c>
-      <c r="E87" s="115" t="s">
-        <v>260</v>
-      </c>
-      <c r="F87" s="111" t="s">
-        <v>173</v>
+      <c r="C87" s="96" t="s">
+        <v>242</v>
+      </c>
+      <c r="D87" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="E87" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="F87" s="96" t="s">
+        <v>245</v>
       </c>
       <c r="G87" s="66">
         <v>1</v>
@@ -4627,17 +5025,17 @@
       <c r="B88" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="114" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" s="111" t="s">
-        <v>261</v>
-      </c>
-      <c r="E88" s="112" t="s">
-        <v>262</v>
-      </c>
-      <c r="F88" s="110" t="s">
-        <v>263</v>
+      <c r="C88" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="F88" s="96" t="s">
+        <v>249</v>
       </c>
       <c r="G88" s="66">
         <v>1</v>
@@ -4650,17 +5048,17 @@
       <c r="B89" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="D89" s="111" t="s">
-        <v>265</v>
-      </c>
-      <c r="E89" s="115" t="s">
-        <v>266</v>
-      </c>
-      <c r="F89" s="111" t="s">
-        <v>267</v>
+      <c r="C89" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="D89" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="E89" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="F89" s="96" t="s">
+        <v>252</v>
       </c>
       <c r="G89" s="66">
         <v>1</v>
@@ -4673,17 +5071,17 @@
       <c r="B90" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="114" t="s">
-        <v>268</v>
-      </c>
-      <c r="D90" s="111" t="s">
-        <v>269</v>
-      </c>
-      <c r="E90" s="115" t="s">
-        <v>270</v>
-      </c>
-      <c r="F90" s="110" t="s">
-        <v>271</v>
+      <c r="C90" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" s="96" t="s">
+        <v>427</v>
+      </c>
+      <c r="E90" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="F90" s="96" t="s">
+        <v>255</v>
       </c>
       <c r="G90" s="66">
         <v>1</v>
@@ -4696,17 +5094,17 @@
       <c r="B91" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="111" t="s">
-        <v>272</v>
-      </c>
-      <c r="D91" s="111" t="s">
-        <v>273</v>
-      </c>
-      <c r="E91" s="112" t="s">
-        <v>274</v>
-      </c>
-      <c r="F91" s="111" t="s">
-        <v>275</v>
+      <c r="C91" s="96" t="s">
+        <v>428</v>
+      </c>
+      <c r="D91" s="96" t="s">
+        <v>429</v>
+      </c>
+      <c r="E91" s="97" t="s">
+        <v>430</v>
+      </c>
+      <c r="F91" s="96" t="s">
+        <v>431</v>
       </c>
       <c r="G91" s="66">
         <v>1</v>
@@ -4719,17 +5117,17 @@
       <c r="B92" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="116" t="s">
-        <v>276</v>
-      </c>
-      <c r="D92" s="111" t="s">
-        <v>277</v>
-      </c>
-      <c r="E92" s="112" t="s">
-        <v>278</v>
-      </c>
-      <c r="F92" s="111" t="s">
-        <v>279</v>
+      <c r="C92" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="D92" s="96" t="s">
+        <v>433</v>
+      </c>
+      <c r="E92" s="97" t="s">
+        <v>434</v>
+      </c>
+      <c r="F92" s="96" t="s">
+        <v>435</v>
       </c>
       <c r="G92" s="59">
         <v>1</v>
@@ -4739,14 +5137,14 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E95" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="F95" s="91"/>
+      <c r="E95" s="106" t="s">
+        <v>256</v>
+      </c>
+      <c r="F95" s="106"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
+      <c r="E96" s="107"/>
+      <c r="F96" s="107"/>
       <c r="H96" s="15"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -4776,17 +5174,17 @@
       <c r="B98" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="110" t="s">
+      <c r="C98" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="111" t="s">
-        <v>281</v>
-      </c>
-      <c r="E98" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="F98" s="111" t="s">
-        <v>283</v>
+      <c r="D98" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="E98" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="F98" s="96" t="s">
+        <v>259</v>
       </c>
       <c r="G98" s="66">
         <v>24</v>
@@ -4799,17 +5197,17 @@
       <c r="B99" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="111" t="s">
-        <v>284</v>
-      </c>
-      <c r="D99" s="110" t="s">
-        <v>285</v>
-      </c>
-      <c r="E99" s="112" t="s">
-        <v>286</v>
-      </c>
-      <c r="F99" s="110" t="s">
-        <v>287</v>
+      <c r="C99" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="D99" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="E99" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="F99" s="95" t="s">
+        <v>263</v>
       </c>
       <c r="G99" s="66">
         <v>21</v>
@@ -4822,17 +5220,17 @@
       <c r="B100" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="110" t="s">
-        <v>288</v>
-      </c>
-      <c r="D100" s="111" t="s">
-        <v>289</v>
-      </c>
-      <c r="E100" s="113" t="s">
-        <v>290</v>
-      </c>
-      <c r="F100" s="111" t="s">
-        <v>291</v>
+      <c r="C100" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="D100" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="E100" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="F100" s="96" t="s">
+        <v>267</v>
       </c>
       <c r="G100" s="59">
         <v>9</v>
@@ -4845,17 +5243,17 @@
       <c r="B101" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="111" t="s">
-        <v>292</v>
-      </c>
-      <c r="D101" s="111" t="s">
-        <v>293</v>
-      </c>
-      <c r="E101" s="117" t="s">
-        <v>294</v>
-      </c>
-      <c r="F101" s="110" t="s">
-        <v>295</v>
+      <c r="C101" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="D101" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="E101" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="F101" s="95" t="s">
+        <v>271</v>
       </c>
       <c r="G101" s="59">
         <v>8</v>
@@ -4868,17 +5266,17 @@
       <c r="B102" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C102" s="111" t="s">
-        <v>296</v>
-      </c>
-      <c r="D102" s="110" t="s">
-        <v>297</v>
-      </c>
-      <c r="E102" s="117" t="s">
-        <v>298</v>
+      <c r="C102" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="D102" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="E102" s="99" t="s">
+        <v>274</v>
       </c>
       <c r="F102" s="59" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="G102" s="59">
         <v>8</v>
@@ -4891,17 +5289,17 @@
       <c r="B103" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="111" t="s">
-        <v>300</v>
-      </c>
-      <c r="D103" s="111" t="s">
-        <v>301</v>
-      </c>
-      <c r="E103" s="112" t="s">
-        <v>298</v>
-      </c>
-      <c r="F103" s="111" t="s">
-        <v>299</v>
+      <c r="C103" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="D103" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="E103" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="F103" s="96" t="s">
+        <v>278</v>
       </c>
       <c r="G103" s="66">
         <v>4</v>
@@ -4914,17 +5312,17 @@
       <c r="B104" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C104" s="114" t="s">
-        <v>302</v>
-      </c>
-      <c r="D104" s="110" t="s">
-        <v>303</v>
-      </c>
-      <c r="E104" s="115" t="s">
-        <v>304</v>
-      </c>
-      <c r="F104" s="110" t="s">
-        <v>305</v>
+      <c r="C104" s="96" t="s">
+        <v>279</v>
+      </c>
+      <c r="D104" s="96" t="s">
+        <v>437</v>
+      </c>
+      <c r="E104" s="97" t="s">
+        <v>438</v>
+      </c>
+      <c r="F104" s="96" t="s">
+        <v>280</v>
       </c>
       <c r="G104" s="66">
         <v>2</v>
@@ -4937,17 +5335,17 @@
       <c r="B105" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C105" s="111" t="s">
-        <v>306</v>
-      </c>
-      <c r="D105" s="111" t="s">
-        <v>307</v>
-      </c>
-      <c r="E105" s="112" t="s">
-        <v>308</v>
-      </c>
-      <c r="F105" s="111" t="s">
-        <v>309</v>
+      <c r="C105" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="D105" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E105" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="F105" s="96" t="s">
+        <v>284</v>
       </c>
       <c r="G105" s="66">
         <v>1</v>
@@ -4960,17 +5358,17 @@
       <c r="B106" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="114" t="s">
-        <v>310</v>
-      </c>
-      <c r="D106" s="111" t="s">
-        <v>311</v>
-      </c>
-      <c r="E106" s="115" t="s">
-        <v>312</v>
-      </c>
-      <c r="F106" s="110" t="s">
-        <v>313</v>
+      <c r="C106" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="D106" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="E106" s="97" t="s">
+        <v>439</v>
+      </c>
+      <c r="F106" s="96" t="s">
+        <v>287</v>
       </c>
       <c r="G106" s="66">
         <v>1</v>
@@ -4983,17 +5381,17 @@
       <c r="B107" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C107" s="111" t="s">
-        <v>314</v>
-      </c>
-      <c r="D107" s="111" t="s">
-        <v>315</v>
-      </c>
-      <c r="E107" s="115" t="s">
-        <v>316</v>
-      </c>
-      <c r="F107" s="111" t="s">
-        <v>317</v>
+      <c r="C107" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="D107" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="E107" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="F107" s="96" t="s">
+        <v>291</v>
       </c>
       <c r="G107" s="66">
         <v>1</v>
@@ -5006,17 +5404,17 @@
       <c r="B108" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C108" s="114" t="s">
-        <v>318</v>
-      </c>
-      <c r="D108" s="111" t="s">
-        <v>319</v>
-      </c>
-      <c r="E108" s="112" t="s">
-        <v>320</v>
-      </c>
-      <c r="F108" s="110" t="s">
-        <v>321</v>
+      <c r="C108" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="D108" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="E108" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="F108" s="96" t="s">
+        <v>295</v>
       </c>
       <c r="G108" s="66">
         <v>1</v>
@@ -5029,17 +5427,17 @@
       <c r="B109" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="111" t="s">
-        <v>322</v>
-      </c>
-      <c r="D109" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="E109" s="115" t="s">
-        <v>324</v>
-      </c>
-      <c r="F109" s="111" t="s">
-        <v>325</v>
+      <c r="C109" s="96" t="s">
+        <v>296</v>
+      </c>
+      <c r="D109" s="96" t="s">
+        <v>440</v>
+      </c>
+      <c r="E109" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="F109" s="96" t="s">
+        <v>298</v>
       </c>
       <c r="G109" s="66">
         <v>1</v>
@@ -5052,17 +5450,17 @@
       <c r="B110" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="114" t="s">
-        <v>326</v>
-      </c>
-      <c r="D110" s="111" t="s">
-        <v>327</v>
-      </c>
-      <c r="E110" s="115" t="s">
-        <v>328</v>
-      </c>
-      <c r="F110" s="110" t="s">
-        <v>329</v>
+      <c r="C110" s="96" t="s">
+        <v>299</v>
+      </c>
+      <c r="D110" s="96" t="s">
+        <v>441</v>
+      </c>
+      <c r="E110" s="97" t="s">
+        <v>300</v>
+      </c>
+      <c r="F110" s="96" t="s">
+        <v>301</v>
       </c>
       <c r="G110" s="66">
         <v>1</v>
@@ -5075,17 +5473,17 @@
       <c r="B111" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C111" s="111" t="s">
-        <v>330</v>
-      </c>
-      <c r="D111" s="111" t="s">
-        <v>331</v>
-      </c>
-      <c r="E111" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="F111" s="111" t="s">
-        <v>333</v>
+      <c r="C111" s="96" t="s">
+        <v>442</v>
+      </c>
+      <c r="D111" s="96" t="s">
+        <v>443</v>
+      </c>
+      <c r="E111" s="97" t="s">
+        <v>444</v>
+      </c>
+      <c r="F111" s="96" t="s">
+        <v>445</v>
       </c>
       <c r="G111" s="66">
         <v>1</v>
@@ -5098,17 +5496,17 @@
       <c r="B112" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C112" s="116" t="s">
-        <v>334</v>
-      </c>
-      <c r="D112" s="111" t="s">
-        <v>335</v>
-      </c>
-      <c r="E112" s="112" t="s">
-        <v>336</v>
-      </c>
-      <c r="F112" s="111" t="s">
-        <v>337</v>
+      <c r="C112" s="96" t="s">
+        <v>446</v>
+      </c>
+      <c r="D112" s="96" t="s">
+        <v>447</v>
+      </c>
+      <c r="E112" s="97" t="s">
+        <v>448</v>
+      </c>
+      <c r="F112" s="96" t="s">
+        <v>449</v>
       </c>
       <c r="G112" s="59">
         <v>1</v>
@@ -5118,14 +5516,14 @@
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E115" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="F115" s="91"/>
+      <c r="E115" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="F115" s="106"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E116" s="92"/>
-      <c r="F116" s="92"/>
+      <c r="E116" s="107"/>
+      <c r="F116" s="107"/>
       <c r="H116" s="15"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
@@ -5155,17 +5553,17 @@
       <c r="B118" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C118" s="110" t="s">
+      <c r="C118" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="111" t="s">
+      <c r="D118" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E118" s="112" t="s">
-        <v>339</v>
-      </c>
-      <c r="F118" s="111" t="s">
-        <v>340</v>
+      <c r="E118" s="97" t="s">
+        <v>303</v>
+      </c>
+      <c r="F118" s="96" t="s">
+        <v>304</v>
       </c>
       <c r="G118" s="66">
         <v>24</v>
@@ -5178,17 +5576,17 @@
       <c r="B119" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C119" s="111" t="s">
-        <v>341</v>
-      </c>
-      <c r="D119" s="110" t="s">
-        <v>342</v>
-      </c>
-      <c r="E119" s="112" t="s">
-        <v>343</v>
-      </c>
-      <c r="F119" s="110" t="s">
-        <v>344</v>
+      <c r="C119" s="96" t="s">
+        <v>305</v>
+      </c>
+      <c r="D119" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="E119" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="F119" s="95" t="s">
+        <v>308</v>
       </c>
       <c r="G119" s="66">
         <v>21</v>
@@ -5201,17 +5599,17 @@
       <c r="B120" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="110" t="s">
-        <v>345</v>
-      </c>
-      <c r="D120" s="111" t="s">
-        <v>346</v>
-      </c>
-      <c r="E120" s="113" t="s">
-        <v>347</v>
-      </c>
-      <c r="F120" s="111" t="s">
-        <v>348</v>
+      <c r="C120" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="D120" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="E120" s="98" t="s">
+        <v>311</v>
+      </c>
+      <c r="F120" s="96" t="s">
+        <v>312</v>
       </c>
       <c r="G120" s="59">
         <v>9</v>
@@ -5224,17 +5622,17 @@
       <c r="B121" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C121" s="111" t="s">
-        <v>349</v>
-      </c>
-      <c r="D121" s="111" t="s">
-        <v>350</v>
-      </c>
-      <c r="E121" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="F121" s="110" t="s">
-        <v>352</v>
+      <c r="C121" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="D121" s="96" t="s">
+        <v>314</v>
+      </c>
+      <c r="E121" s="99" t="s">
+        <v>315</v>
+      </c>
+      <c r="F121" s="95" t="s">
+        <v>316</v>
       </c>
       <c r="G121" s="59">
         <v>8</v>
@@ -5247,17 +5645,17 @@
       <c r="B122" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C122" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="D122" s="110" t="s">
-        <v>354</v>
-      </c>
-      <c r="E122" s="117" t="s">
-        <v>355</v>
+      <c r="C122" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="D122" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="E122" s="99" t="s">
+        <v>319</v>
       </c>
       <c r="F122" s="59" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="G122" s="59">
         <v>8</v>
@@ -5270,17 +5668,17 @@
       <c r="B123" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C123" s="111" t="s">
-        <v>357</v>
-      </c>
-      <c r="D123" s="111" t="s">
-        <v>358</v>
-      </c>
-      <c r="E123" s="112" t="s">
-        <v>355</v>
-      </c>
-      <c r="F123" s="111" t="s">
-        <v>356</v>
+      <c r="C123" s="96" t="s">
+        <v>321</v>
+      </c>
+      <c r="D123" s="96" t="s">
+        <v>322</v>
+      </c>
+      <c r="E123" s="97" t="s">
+        <v>450</v>
+      </c>
+      <c r="F123" s="96" t="s">
+        <v>323</v>
       </c>
       <c r="G123" s="66">
         <v>4</v>
@@ -5293,17 +5691,17 @@
       <c r="B124" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="114" t="s">
-        <v>359</v>
-      </c>
-      <c r="D124" s="110" t="s">
-        <v>360</v>
-      </c>
-      <c r="E124" s="115" t="s">
-        <v>361</v>
-      </c>
-      <c r="F124" s="110" t="s">
-        <v>362</v>
+      <c r="C124" s="96" t="s">
+        <v>324</v>
+      </c>
+      <c r="D124" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="E124" s="97" t="s">
+        <v>452</v>
+      </c>
+      <c r="F124" s="96" t="s">
+        <v>325</v>
       </c>
       <c r="G124" s="66">
         <v>2</v>
@@ -5316,17 +5714,17 @@
       <c r="B125" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C125" s="111" t="s">
-        <v>363</v>
-      </c>
-      <c r="D125" s="111" t="s">
-        <v>364</v>
-      </c>
-      <c r="E125" s="112" t="s">
-        <v>365</v>
-      </c>
-      <c r="F125" s="111" t="s">
-        <v>366</v>
+      <c r="C125" s="96" t="s">
+        <v>326</v>
+      </c>
+      <c r="D125" s="96" t="s">
+        <v>327</v>
+      </c>
+      <c r="E125" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="F125" s="96" t="s">
+        <v>329</v>
       </c>
       <c r="G125" s="66">
         <v>1</v>
@@ -5339,17 +5737,17 @@
       <c r="B126" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C126" s="114" t="s">
-        <v>367</v>
-      </c>
-      <c r="D126" s="111" t="s">
-        <v>368</v>
-      </c>
-      <c r="E126" s="115" t="s">
-        <v>369</v>
-      </c>
-      <c r="F126" s="110" t="s">
-        <v>370</v>
+      <c r="C126" s="96" t="s">
+        <v>330</v>
+      </c>
+      <c r="D126" s="96" t="s">
+        <v>331</v>
+      </c>
+      <c r="E126" s="97" t="s">
+        <v>453</v>
+      </c>
+      <c r="F126" s="96" t="s">
+        <v>332</v>
       </c>
       <c r="G126" s="66">
         <v>1</v>
@@ -5362,17 +5760,17 @@
       <c r="B127" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C127" s="111" t="s">
-        <v>371</v>
-      </c>
-      <c r="D127" s="111" t="s">
-        <v>372</v>
-      </c>
-      <c r="E127" s="115" t="s">
-        <v>373</v>
-      </c>
-      <c r="F127" s="111" t="s">
-        <v>374</v>
+      <c r="C127" s="96" t="s">
+        <v>333</v>
+      </c>
+      <c r="D127" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="E127" s="97" t="s">
+        <v>335</v>
+      </c>
+      <c r="F127" s="96" t="s">
+        <v>336</v>
       </c>
       <c r="G127" s="66">
         <v>1</v>
@@ -5385,17 +5783,17 @@
       <c r="B128" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C128" s="114" t="s">
-        <v>375</v>
-      </c>
-      <c r="D128" s="111" t="s">
-        <v>376</v>
-      </c>
-      <c r="E128" s="112" t="s">
-        <v>377</v>
-      </c>
-      <c r="F128" s="110" t="s">
-        <v>378</v>
+      <c r="C128" s="96" t="s">
+        <v>337</v>
+      </c>
+      <c r="D128" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128" s="97" t="s">
+        <v>339</v>
+      </c>
+      <c r="F128" s="96" t="s">
+        <v>340</v>
       </c>
       <c r="G128" s="66">
         <v>1</v>
@@ -5408,17 +5806,17 @@
       <c r="B129" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C129" s="111" t="s">
-        <v>379</v>
-      </c>
-      <c r="D129" s="111" t="s">
-        <v>380</v>
-      </c>
-      <c r="E129" s="115" t="s">
-        <v>381</v>
-      </c>
-      <c r="F129" s="111" t="s">
-        <v>382</v>
+      <c r="C129" s="96" t="s">
+        <v>341</v>
+      </c>
+      <c r="D129" s="96" t="s">
+        <v>454</v>
+      </c>
+      <c r="E129" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="F129" s="96" t="s">
+        <v>343</v>
       </c>
       <c r="G129" s="66">
         <v>1</v>
@@ -5431,17 +5829,17 @@
       <c r="B130" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C130" s="114" t="s">
-        <v>383</v>
-      </c>
-      <c r="D130" s="111" t="s">
-        <v>384</v>
-      </c>
-      <c r="E130" s="115" t="s">
-        <v>385</v>
-      </c>
-      <c r="F130" s="110" t="s">
-        <v>386</v>
+      <c r="C130" s="96" t="s">
+        <v>344</v>
+      </c>
+      <c r="D130" s="96" t="s">
+        <v>455</v>
+      </c>
+      <c r="E130" s="97" t="s">
+        <v>345</v>
+      </c>
+      <c r="F130" s="96" t="s">
+        <v>346</v>
       </c>
       <c r="G130" s="66">
         <v>1</v>
@@ -5454,17 +5852,17 @@
       <c r="B131" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C131" s="111" t="s">
-        <v>387</v>
-      </c>
-      <c r="D131" s="111" t="s">
-        <v>388</v>
-      </c>
-      <c r="E131" s="112" t="s">
-        <v>389</v>
-      </c>
-      <c r="F131" s="111" t="s">
-        <v>390</v>
+      <c r="C131" s="96" t="s">
+        <v>456</v>
+      </c>
+      <c r="D131" s="96" t="s">
+        <v>457</v>
+      </c>
+      <c r="E131" s="97" t="s">
+        <v>458</v>
+      </c>
+      <c r="F131" s="96" t="s">
+        <v>459</v>
       </c>
       <c r="G131" s="66">
         <v>1</v>
@@ -5477,17 +5875,17 @@
       <c r="B132" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C132" s="116" t="s">
-        <v>391</v>
-      </c>
-      <c r="D132" s="111" t="s">
-        <v>392</v>
-      </c>
-      <c r="E132" s="112" t="s">
-        <v>393</v>
-      </c>
-      <c r="F132" s="111" t="s">
-        <v>394</v>
+      <c r="C132" s="96" t="s">
+        <v>460</v>
+      </c>
+      <c r="D132" s="96" t="s">
+        <v>461</v>
+      </c>
+      <c r="E132" s="97" t="s">
+        <v>462</v>
+      </c>
+      <c r="F132" s="96" t="s">
+        <v>463</v>
       </c>
       <c r="G132" s="59">
         <v>1</v>
@@ -5497,14 +5895,14 @@
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E135" s="91" t="s">
-        <v>395</v>
-      </c>
-      <c r="F135" s="91"/>
+      <c r="E135" s="106" t="s">
+        <v>347</v>
+      </c>
+      <c r="F135" s="106"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E136" s="92"/>
-      <c r="F136" s="92"/>
+      <c r="E136" s="107"/>
+      <c r="F136" s="107"/>
       <c r="H136" s="15"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
@@ -5534,17 +5932,17 @@
       <c r="B138" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C138" s="110" t="s">
+      <c r="C138" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D138" s="111" t="s">
+      <c r="D138" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E138" s="112" t="s">
-        <v>396</v>
-      </c>
-      <c r="F138" s="111" t="s">
-        <v>397</v>
+      <c r="E138" s="97" t="s">
+        <v>348</v>
+      </c>
+      <c r="F138" s="96" t="s">
+        <v>349</v>
       </c>
       <c r="G138" s="66">
         <v>24</v>
@@ -5557,17 +5955,17 @@
       <c r="B139" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C139" s="111" t="s">
-        <v>398</v>
-      </c>
-      <c r="D139" s="110" t="s">
-        <v>399</v>
-      </c>
-      <c r="E139" s="112" t="s">
-        <v>400</v>
-      </c>
-      <c r="F139" s="110" t="s">
-        <v>401</v>
+      <c r="C139" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="D139" s="95" t="s">
+        <v>351</v>
+      </c>
+      <c r="E139" s="97" t="s">
+        <v>352</v>
+      </c>
+      <c r="F139" s="95" t="s">
+        <v>353</v>
       </c>
       <c r="G139" s="66">
         <v>21</v>
@@ -5580,17 +5978,17 @@
       <c r="B140" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="C140" s="110" t="s">
-        <v>402</v>
-      </c>
-      <c r="D140" s="111" t="s">
-        <v>403</v>
-      </c>
-      <c r="E140" s="113" t="s">
-        <v>404</v>
-      </c>
-      <c r="F140" s="111" t="s">
-        <v>405</v>
+      <c r="C140" s="95" t="s">
+        <v>354</v>
+      </c>
+      <c r="D140" s="96" t="s">
+        <v>355</v>
+      </c>
+      <c r="E140" s="98" t="s">
+        <v>356</v>
+      </c>
+      <c r="F140" s="96" t="s">
+        <v>357</v>
       </c>
       <c r="G140" s="59">
         <v>9</v>
@@ -5603,17 +6001,17 @@
       <c r="B141" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C141" s="111" t="s">
-        <v>406</v>
-      </c>
-      <c r="D141" s="111" t="s">
-        <v>407</v>
-      </c>
-      <c r="E141" s="117" t="s">
-        <v>408</v>
-      </c>
-      <c r="F141" s="110" t="s">
-        <v>409</v>
+      <c r="C141" s="96" t="s">
+        <v>358</v>
+      </c>
+      <c r="D141" s="96" t="s">
+        <v>359</v>
+      </c>
+      <c r="E141" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="F141" s="95" t="s">
+        <v>361</v>
       </c>
       <c r="G141" s="59">
         <v>8</v>
@@ -5626,17 +6024,17 @@
       <c r="B142" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C142" s="111" t="s">
-        <v>410</v>
-      </c>
-      <c r="D142" s="110" t="s">
-        <v>411</v>
-      </c>
-      <c r="E142" s="117" t="s">
-        <v>412</v>
+      <c r="C142" s="96" t="s">
+        <v>362</v>
+      </c>
+      <c r="D142" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="E142" s="99" t="s">
+        <v>364</v>
       </c>
       <c r="F142" s="59" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="G142" s="59">
         <v>8</v>
@@ -5649,17 +6047,17 @@
       <c r="B143" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="111" t="s">
-        <v>414</v>
-      </c>
-      <c r="D143" s="111" t="s">
-        <v>415</v>
-      </c>
-      <c r="E143" s="112" t="s">
-        <v>412</v>
-      </c>
-      <c r="F143" s="111" t="s">
-        <v>413</v>
+      <c r="C143" s="96" t="s">
+        <v>366</v>
+      </c>
+      <c r="D143" s="96" t="s">
+        <v>367</v>
+      </c>
+      <c r="E143" s="97" t="s">
+        <v>464</v>
+      </c>
+      <c r="F143" s="96" t="s">
+        <v>368</v>
       </c>
       <c r="G143" s="66">
         <v>4</v>
@@ -5672,17 +6070,17 @@
       <c r="B144" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C144" s="114" t="s">
-        <v>416</v>
-      </c>
-      <c r="D144" s="110" t="s">
-        <v>417</v>
-      </c>
-      <c r="E144" s="115" t="s">
-        <v>418</v>
-      </c>
-      <c r="F144" s="110" t="s">
-        <v>419</v>
+      <c r="C144" s="96" t="s">
+        <v>369</v>
+      </c>
+      <c r="D144" s="96" t="s">
+        <v>465</v>
+      </c>
+      <c r="E144" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="F144" s="96" t="s">
+        <v>370</v>
       </c>
       <c r="G144" s="66">
         <v>2</v>
@@ -5695,17 +6093,17 @@
       <c r="B145" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C145" s="111" t="s">
-        <v>420</v>
-      </c>
-      <c r="D145" s="111" t="s">
-        <v>421</v>
-      </c>
-      <c r="E145" s="112" t="s">
-        <v>422</v>
-      </c>
-      <c r="F145" s="111" t="s">
-        <v>423</v>
+      <c r="C145" s="96" t="s">
+        <v>371</v>
+      </c>
+      <c r="D145" s="96" t="s">
+        <v>372</v>
+      </c>
+      <c r="E145" s="97" t="s">
+        <v>373</v>
+      </c>
+      <c r="F145" s="96" t="s">
+        <v>374</v>
       </c>
       <c r="G145" s="66">
         <v>1</v>
@@ -5718,17 +6116,17 @@
       <c r="B146" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C146" s="114" t="s">
-        <v>424</v>
-      </c>
-      <c r="D146" s="111" t="s">
-        <v>425</v>
-      </c>
-      <c r="E146" s="115" t="s">
-        <v>426</v>
-      </c>
-      <c r="F146" s="110" t="s">
-        <v>427</v>
+      <c r="C146" s="96" t="s">
+        <v>375</v>
+      </c>
+      <c r="D146" s="96" t="s">
+        <v>376</v>
+      </c>
+      <c r="E146" s="97" t="s">
+        <v>467</v>
+      </c>
+      <c r="F146" s="96" t="s">
+        <v>377</v>
       </c>
       <c r="G146" s="66">
         <v>1</v>
@@ -5741,17 +6139,17 @@
       <c r="B147" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C147" s="111" t="s">
-        <v>428</v>
-      </c>
-      <c r="D147" s="111" t="s">
-        <v>429</v>
-      </c>
-      <c r="E147" s="115" t="s">
-        <v>430</v>
-      </c>
-      <c r="F147" s="111" t="s">
-        <v>431</v>
+      <c r="C147" s="96" t="s">
+        <v>378</v>
+      </c>
+      <c r="D147" s="96" t="s">
+        <v>379</v>
+      </c>
+      <c r="E147" s="97" t="s">
+        <v>380</v>
+      </c>
+      <c r="F147" s="96" t="s">
+        <v>381</v>
       </c>
       <c r="G147" s="66">
         <v>1</v>
@@ -5764,17 +6162,17 @@
       <c r="B148" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C148" s="114" t="s">
-        <v>432</v>
-      </c>
-      <c r="D148" s="111" t="s">
-        <v>433</v>
-      </c>
-      <c r="E148" s="112" t="s">
-        <v>434</v>
-      </c>
-      <c r="F148" s="110" t="s">
-        <v>435</v>
+      <c r="C148" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="D148" s="96" t="s">
+        <v>383</v>
+      </c>
+      <c r="E148" s="97" t="s">
+        <v>384</v>
+      </c>
+      <c r="F148" s="96" t="s">
+        <v>385</v>
       </c>
       <c r="G148" s="66">
         <v>1</v>
@@ -5787,17 +6185,17 @@
       <c r="B149" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C149" s="111" t="s">
-        <v>436</v>
-      </c>
-      <c r="D149" s="111" t="s">
-        <v>437</v>
-      </c>
-      <c r="E149" s="115" t="s">
-        <v>438</v>
-      </c>
-      <c r="F149" s="111" t="s">
-        <v>439</v>
+      <c r="C149" s="96" t="s">
+        <v>386</v>
+      </c>
+      <c r="D149" s="96" t="s">
+        <v>468</v>
+      </c>
+      <c r="E149" s="97" t="s">
+        <v>387</v>
+      </c>
+      <c r="F149" s="96" t="s">
+        <v>388</v>
       </c>
       <c r="G149" s="66">
         <v>1</v>
@@ -5810,17 +6208,17 @@
       <c r="B150" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C150" s="114" t="s">
-        <v>440</v>
-      </c>
-      <c r="D150" s="111" t="s">
-        <v>441</v>
-      </c>
-      <c r="E150" s="115" t="s">
-        <v>442</v>
-      </c>
-      <c r="F150" s="110" t="s">
-        <v>443</v>
+      <c r="C150" s="96" t="s">
+        <v>389</v>
+      </c>
+      <c r="D150" s="96" t="s">
+        <v>469</v>
+      </c>
+      <c r="E150" s="97" t="s">
+        <v>390</v>
+      </c>
+      <c r="F150" s="96" t="s">
+        <v>391</v>
       </c>
       <c r="G150" s="66">
         <v>1</v>
@@ -5833,17 +6231,17 @@
       <c r="B151" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C151" s="111" t="s">
-        <v>444</v>
-      </c>
-      <c r="D151" s="111" t="s">
-        <v>445</v>
-      </c>
-      <c r="E151" s="112" t="s">
-        <v>446</v>
-      </c>
-      <c r="F151" s="111" t="s">
-        <v>447</v>
+      <c r="C151" s="96" t="s">
+        <v>470</v>
+      </c>
+      <c r="D151" s="96" t="s">
+        <v>471</v>
+      </c>
+      <c r="E151" s="97" t="s">
+        <v>472</v>
+      </c>
+      <c r="F151" s="96" t="s">
+        <v>473</v>
       </c>
       <c r="G151" s="66">
         <v>1</v>
@@ -5856,17 +6254,17 @@
       <c r="B152" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C152" s="116" t="s">
-        <v>448</v>
-      </c>
-      <c r="D152" s="111" t="s">
-        <v>449</v>
-      </c>
-      <c r="E152" s="112" t="s">
-        <v>450</v>
-      </c>
-      <c r="F152" s="111" t="s">
-        <v>451</v>
+      <c r="C152" s="96" t="s">
+        <v>474</v>
+      </c>
+      <c r="D152" s="96" t="s">
+        <v>475</v>
+      </c>
+      <c r="E152" s="97" t="s">
+        <v>476</v>
+      </c>
+      <c r="F152" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="G152" s="59">
         <v>1</v>
@@ -5876,17 +6274,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B32:G48" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B33:G48">
-      <sortCondition descending="1" ref="F32:F48"/>
+  <autoFilter ref="J56:Q71" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J57:Q71">
+      <sortCondition ref="J56:J71"/>
     </sortState>
   </autoFilter>
   <mergeCells count="13">
-    <mergeCell ref="E95:F96"/>
-    <mergeCell ref="E115:F116"/>
-    <mergeCell ref="E135:F136"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="J28:P30"/>
     <mergeCell ref="E75:F76"/>
@@ -5895,6 +6288,11 @@
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="C29:E30"/>
     <mergeCell ref="E54:F55"/>
+    <mergeCell ref="E95:F96"/>
+    <mergeCell ref="E115:F116"/>
+    <mergeCell ref="E135:F136"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5941,69 +6339,69 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="93" t="s">
+      <c r="T4" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="94"/>
+      <c r="U4" s="114"/>
     </row>
     <row r="5" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
       <c r="S5" s="19"/>
-      <c r="T5" s="102" t="s">
+      <c r="T5" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="102"/>
+      <c r="U5" s="117"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="102" t="s">
+      <c r="T6" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="102"/>
+      <c r="U6" s="117"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
     <row r="7" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:42" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="105"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
       <c r="K8" s="68" t="s">
         <v>145</v>
       </c>

--- a/Diseño/ProyectoRedes.xlsx
+++ b/Diseño/ProyectoRedes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\PROYECTO REDES\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A323729-AA6A-4597-8243-997D8A001EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1462EEEE-BC50-4CE1-9C50-B98649DAA94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="495">
   <si>
     <t>192.168.0.0</t>
   </si>
@@ -1477,13 +1477,61 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Queretaro</t>
+  </si>
+  <si>
+    <t>Veracruz</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>5 switches de 8</t>
+  </si>
+  <si>
+    <t>30 Switches 48</t>
+  </si>
+  <si>
+    <t>30 Patch P 48</t>
+  </si>
+  <si>
+    <t>20 switches de 24</t>
+  </si>
+  <si>
+    <t>20 patchpanel 24</t>
+  </si>
+  <si>
+    <t>84 Host por nodo</t>
+  </si>
+  <si>
+    <t>266 Host por nodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">665 rosetas de 2 </t>
+  </si>
+  <si>
+    <t>105 rosetas de 4</t>
+  </si>
+  <si>
+    <t>O 10 de 48</t>
+  </si>
+  <si>
+    <t>O 210 de 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1611,6 +1659,19 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2038,7 +2099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2325,12 +2386,48 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2340,24 +2437,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2370,23 +2449,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2771,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
-  <dimension ref="B2:Y152"/>
+  <dimension ref="A2:Y152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2787,8 +2851,9 @@
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="22.140625" customWidth="1"/>
     <col min="9" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
     <col min="14" max="14" width="18.140625" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
@@ -2803,29 +2868,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
     </row>
     <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
     </row>
     <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="108"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2840,10 +2905,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="110"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="2">
         <f>80+82+80</f>
         <v>242</v>
@@ -2860,7 +2925,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="M7" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
     <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>15</v>
@@ -2906,6 +2979,15 @@
       <c r="H9" s="2">
         <v>512</v>
       </c>
+      <c r="J9" s="110" t="s">
+        <v>487</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
@@ -2930,8 +3012,15 @@
         <v>512</v>
       </c>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J10" s="111" t="s">
+        <v>484</v>
+      </c>
+      <c r="K10" s="59"/>
+      <c r="M10" s="111" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
@@ -2953,9 +3042,16 @@
       <c r="H11" s="2">
         <v>512</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="J11" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>494</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="N11" s="75"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -2983,9 +3079,16 @@
       <c r="H12" s="2">
         <v>512</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="J12" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N12" s="75"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -3013,9 +3116,9 @@
       <c r="H13" s="2">
         <v>512</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -3093,6 +3196,9 @@
       <c r="G20" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H20" s="1" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
@@ -3113,6 +3219,9 @@
       <c r="G21" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
@@ -3133,6 +3242,9 @@
       <c r="G22" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H22" s="1" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="23" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
@@ -3153,6 +3265,9 @@
       <c r="G23" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="24" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
@@ -3172,6 +3287,9 @@
       </c>
       <c r="G24" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3199,63 +3317,63 @@
     </row>
     <row r="28" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="17"/>
-      <c r="J28" s="112" t="s">
+      <c r="J28" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="114"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="113" t="s">
+      <c r="S28" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="T28" s="114"/>
+      <c r="T28" s="117"/>
     </row>
     <row r="29" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="19"/>
-      <c r="S29" s="115" t="s">
+      <c r="S29" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="116"/>
+      <c r="T29" s="119"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="115" t="s">
+      <c r="S30" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="T30" s="116"/>
+      <c r="T30" s="119"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
     </row>
@@ -3328,7 +3446,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="64" t="s">
         <v>105</v>
       </c>
@@ -3366,7 +3484,7 @@
       <c r="X33" s="102"/>
       <c r="Y33" s="18"/>
     </row>
-    <row r="34" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="64" t="s">
         <v>108</v>
       </c>
@@ -3404,7 +3522,7 @@
       <c r="X34" s="102"/>
       <c r="Y34" s="18"/>
     </row>
-    <row r="35" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="64" t="s">
         <v>119</v>
       </c>
@@ -3442,7 +3560,7 @@
       <c r="X35" s="102"/>
       <c r="Y35" s="18"/>
     </row>
-    <row r="36" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="64" t="s">
         <v>99</v>
       </c>
@@ -3480,7 +3598,7 @@
       <c r="X36" s="102"/>
       <c r="Y36" s="18"/>
     </row>
-    <row r="37" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="64" t="s">
         <v>113</v>
       </c>
@@ -3518,7 +3636,7 @@
       <c r="X37" s="102"/>
       <c r="Y37" s="18"/>
     </row>
-    <row r="38" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="64" t="s">
         <v>140</v>
       </c>
@@ -3556,7 +3674,7 @@
       <c r="X38" s="102"/>
       <c r="Y38" s="18"/>
     </row>
-    <row r="39" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="64" t="s">
         <v>124</v>
       </c>
@@ -3594,7 +3712,7 @@
       <c r="X39" s="102"/>
       <c r="Y39" s="18"/>
     </row>
-    <row r="40" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="64" t="s">
         <v>93</v>
       </c>
@@ -3632,7 +3750,7 @@
       <c r="X40" s="102"/>
       <c r="Y40" s="18"/>
     </row>
-    <row r="41" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="64" t="s">
         <v>116</v>
       </c>
@@ -3670,7 +3788,10 @@
       <c r="X41" s="102"/>
       <c r="Y41" s="18"/>
     </row>
-    <row r="42" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="127" t="s">
+        <v>144</v>
+      </c>
       <c r="B42" s="64" t="s">
         <v>121</v>
       </c>
@@ -3708,7 +3829,7 @@
       <c r="X42" s="103"/>
       <c r="Y42" s="18"/>
     </row>
-    <row r="43" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="64" t="s">
         <v>176</v>
       </c>
@@ -3744,7 +3865,7 @@
       <c r="X43" s="102"/>
       <c r="Y43" s="18"/>
     </row>
-    <row r="44" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="64" t="s">
         <v>95</v>
       </c>
@@ -3782,7 +3903,7 @@
       <c r="X44" s="102"/>
       <c r="Y44" s="18"/>
     </row>
-    <row r="45" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="64" t="s">
         <v>97</v>
       </c>
@@ -3820,7 +3941,7 @@
       <c r="X45" s="102"/>
       <c r="Y45" s="18"/>
     </row>
-    <row r="46" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="64" t="s">
         <v>102</v>
       </c>
@@ -3858,7 +3979,7 @@
       <c r="X46" s="102"/>
       <c r="Y46" s="18"/>
     </row>
-    <row r="47" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="91" t="s">
         <v>110</v>
       </c>
@@ -3896,7 +4017,7 @@
       <c r="X47" s="104"/>
       <c r="Y47" s="18"/>
     </row>
-    <row r="48" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="65" t="s">
         <v>141</v>
       </c>
@@ -3936,8 +4057,8 @@
         <v>14</v>
       </c>
       <c r="F50" s="62">
-        <f>SUM(F34:F42,F43:F48)</f>
-        <v>60</v>
+        <f>SUM(F33:F42,F43:F48)</f>
+        <v>84</v>
       </c>
       <c r="G50" s="15"/>
     </row>
@@ -3949,14 +4070,14 @@
       <c r="B52" s="61"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E54" s="106" t="s">
+      <c r="E54" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="106"/>
+      <c r="F54" s="112"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
@@ -3981,7 +4102,7 @@
       <c r="H56" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="J56" s="121" t="s">
+      <c r="J56" s="106" t="s">
         <v>478</v>
       </c>
       <c r="K56" s="76" t="s">
@@ -4035,7 +4156,7 @@
       <c r="K57" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="L57" s="125" t="s">
+      <c r="L57" s="95" t="s">
         <v>198</v>
       </c>
       <c r="M57" s="96" t="s">
@@ -4086,13 +4207,13 @@
       <c r="L58" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="M58" s="125" t="s">
+      <c r="M58" s="95" t="s">
         <v>206</v>
       </c>
       <c r="N58" s="97" t="s">
         <v>417</v>
       </c>
-      <c r="O58" s="125" t="s">
+      <c r="O58" s="95" t="s">
         <v>213</v>
       </c>
       <c r="P58" s="66">
@@ -4131,13 +4252,13 @@
       <c r="K59" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="L59" s="125" t="s">
+      <c r="L59" s="95" t="s">
         <v>199</v>
       </c>
       <c r="M59" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="N59" s="126" t="s">
+      <c r="N59" s="98" t="s">
         <v>209</v>
       </c>
       <c r="O59" s="96" t="s">
@@ -4230,7 +4351,7 @@
       <c r="L61" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="M61" s="125" t="s">
+      <c r="M61" s="95" t="s">
         <v>208</v>
       </c>
       <c r="N61" s="97" t="s">
@@ -4269,10 +4390,10 @@
         <v>160</v>
       </c>
       <c r="I62" s="25"/>
-      <c r="J62" s="122">
+      <c r="J62" s="107">
         <v>6</v>
       </c>
-      <c r="K62" s="124" t="s">
+      <c r="K62" s="109" t="s">
         <v>105</v>
       </c>
       <c r="L62" s="96" t="s">
@@ -4704,7 +4825,7 @@
       <c r="J71" s="74">
         <v>20</v>
       </c>
-      <c r="K71" s="123" t="s">
+      <c r="K71" s="108" t="s">
         <v>140</v>
       </c>
       <c r="L71" s="96" t="s">
@@ -4745,16 +4866,16 @@
       <c r="L74" s="25"/>
     </row>
     <row r="75" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="106" t="s">
+      <c r="E75" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="106"/>
+      <c r="F75" s="112"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
     </row>
     <row r="76" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="107"/>
-      <c r="F76" s="107"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
       <c r="H76" s="15"/>
       <c r="I76" s="25"/>
       <c r="K76" s="24"/>
@@ -5137,14 +5258,14 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E95" s="106" t="s">
+      <c r="E95" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="F95" s="106"/>
+      <c r="F95" s="112"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E96" s="107"/>
-      <c r="F96" s="107"/>
+      <c r="E96" s="115"/>
+      <c r="F96" s="115"/>
       <c r="H96" s="15"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -5516,14 +5637,14 @@
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E115" s="106" t="s">
+      <c r="E115" s="112" t="s">
         <v>302</v>
       </c>
-      <c r="F115" s="106"/>
+      <c r="F115" s="112"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E116" s="107"/>
-      <c r="F116" s="107"/>
+      <c r="E116" s="115"/>
+      <c r="F116" s="115"/>
       <c r="H116" s="15"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
@@ -5895,14 +6016,14 @@
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E135" s="106" t="s">
+      <c r="E135" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="F135" s="106"/>
+      <c r="F135" s="112"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E136" s="107"/>
-      <c r="F136" s="107"/>
+      <c r="E136" s="115"/>
+      <c r="F136" s="115"/>
       <c r="H136" s="15"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
@@ -6280,6 +6401,11 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="E95:F96"/>
+    <mergeCell ref="E115:F116"/>
+    <mergeCell ref="E135:F136"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="J28:P30"/>
     <mergeCell ref="E75:F76"/>
@@ -6288,11 +6414,6 @@
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="C29:E30"/>
     <mergeCell ref="E54:F55"/>
-    <mergeCell ref="E95:F96"/>
-    <mergeCell ref="E115:F116"/>
-    <mergeCell ref="E135:F136"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6339,69 +6460,69 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="J4" s="112" t="s">
+      <c r="J4" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="113" t="s">
+      <c r="T4" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="114"/>
+      <c r="U4" s="117"/>
     </row>
     <row r="5" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
       <c r="S5" s="19"/>
-      <c r="T5" s="117" t="s">
+      <c r="T5" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="117"/>
+      <c r="U5" s="123"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="117" t="s">
+      <c r="T6" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="117"/>
+      <c r="U6" s="123"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
     <row r="7" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:42" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="120"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="126"/>
       <c r="K8" s="68" t="s">
         <v>145</v>
       </c>

--- a/Diseño/ProyectoRedes.xlsx
+++ b/Diseño/ProyectoRedes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\PROYECTO REDES\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1462EEEE-BC50-4CE1-9C50-B98649DAA94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E53472-BA7F-45A3-8B24-AF48FA3EA756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
   </bookViews>
   <sheets>
     <sheet name="PRINCIPAL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="495">
   <si>
     <t>192.168.0.0</t>
   </si>
@@ -2099,7 +2099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2286,9 +2286,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2350,9 +2347,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2404,18 +2398,30 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2428,15 +2434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2449,7 +2446,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2837,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
   <dimension ref="A2:Y152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,29 +2883,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
     </row>
     <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="120"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2905,10 +2920,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="2">
         <f>80+82+80</f>
         <v>242</v>
@@ -2979,7 +2994,7 @@
       <c r="H9" s="2">
         <v>512</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="108" t="s">
         <v>487</v>
       </c>
       <c r="K9" s="66" t="s">
@@ -3012,11 +3027,11 @@
         <v>512</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="111" t="s">
+      <c r="J10" s="109" t="s">
         <v>484</v>
       </c>
       <c r="K10" s="59"/>
-      <c r="M10" s="111" t="s">
+      <c r="M10" s="109" t="s">
         <v>484</v>
       </c>
     </row>
@@ -3051,7 +3066,7 @@
       <c r="M11" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="N11" s="75"/>
+      <c r="N11" s="74"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -3088,7 +3103,7 @@
       <c r="M12" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N12" s="75"/>
+      <c r="N12" s="74"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -3116,9 +3131,9 @@
       <c r="H13" s="2">
         <v>512</v>
       </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -3148,12 +3163,8 @@
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
     </row>
     <row r="18" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
@@ -3175,7 +3186,7 @@
       <c r="G19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="75"/>
+      <c r="I19" s="74"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
@@ -3293,87 +3304,89 @@
       </c>
     </row>
     <row r="25" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
     </row>
     <row r="26" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="75"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
     </row>
     <row r="27" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
     </row>
     <row r="28" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="17"/>
-      <c r="J28" s="114" t="s">
+      <c r="J28" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="117"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="116" t="s">
+      <c r="S28" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="T28" s="117"/>
+      <c r="T28" s="119"/>
     </row>
     <row r="29" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="114" t="s">
+      <c r="B29" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="117"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="19"/>
-      <c r="S29" s="118" t="s">
+      <c r="S29" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="119"/>
+      <c r="T29" s="121"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="118" t="s">
+      <c r="S30" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="T30" s="119"/>
+      <c r="T30" s="121"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
     </row>
@@ -3382,43 +3395,40 @@
       <c r="B32" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="91" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="63" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="63" t="s">
         <v>91</v>
       </c>
       <c r="G32" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="J32" s="68" t="s">
+      <c r="J32" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="68" t="s">
+      <c r="K32" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="68" t="s">
+      <c r="L32" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="M32" s="66" t="s">
+      <c r="M32" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="N32" s="68" t="s">
+      <c r="N32" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="O32" s="66" t="s">
+      <c r="O32" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="P32" s="66" t="s">
+      <c r="P32" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="Q32" s="68" t="s">
+      <c r="Q32" s="127" t="s">
         <v>74</v>
       </c>
       <c r="R32" s="66" t="s">
@@ -3427,19 +3437,19 @@
       <c r="S32" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="T32" s="68" t="s">
+      <c r="T32" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="U32" s="66" t="s">
+      <c r="U32" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="V32" s="71" t="s">
+      <c r="V32" s="132" t="s">
         <v>148</v>
       </c>
       <c r="W32" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="X32" s="101" t="s">
+      <c r="X32" s="99" t="s">
         <v>86</v>
       </c>
       <c r="Y32" s="66" t="s">
@@ -3456,15 +3466,14 @@
       <c r="D33" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62">
+      <c r="E33" s="62">
         <v>24</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>397</v>
       </c>
       <c r="H33" s="15"/>
-      <c r="I33" s="68" t="s">
+      <c r="I33" s="127" t="s">
         <v>145</v>
       </c>
       <c r="J33" s="21"/>
@@ -3481,7 +3490,7 @@
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
-      <c r="X33" s="102"/>
+      <c r="X33" s="100"/>
       <c r="Y33" s="18"/>
     </row>
     <row r="34" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3494,15 +3503,14 @@
       <c r="D34" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62">
+      <c r="E34" s="62">
         <v>21</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>398</v>
       </c>
       <c r="H34" s="15"/>
-      <c r="I34" s="68" t="s">
+      <c r="I34" s="127" t="s">
         <v>71</v>
       </c>
       <c r="J34" s="18"/>
@@ -3519,7 +3527,7 @@
       <c r="U34" s="20"/>
       <c r="V34" s="18"/>
       <c r="W34" s="20"/>
-      <c r="X34" s="102"/>
+      <c r="X34" s="100"/>
       <c r="Y34" s="18"/>
     </row>
     <row r="35" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3532,15 +3540,14 @@
       <c r="D35" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62">
+      <c r="E35" s="62">
         <v>9</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>403</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="I35" s="68" t="s">
+      <c r="I35" s="127" t="s">
         <v>72</v>
       </c>
       <c r="J35" s="18"/>
@@ -3557,7 +3564,7 @@
       <c r="U35" s="20"/>
       <c r="V35" s="18"/>
       <c r="W35" s="20"/>
-      <c r="X35" s="102"/>
+      <c r="X35" s="100"/>
       <c r="Y35" s="18"/>
     </row>
     <row r="36" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3570,15 +3577,14 @@
       <c r="D36" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62">
+      <c r="E36" s="62">
         <v>8</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>395</v>
       </c>
       <c r="H36" s="15"/>
-      <c r="I36" s="66" t="s">
+      <c r="I36" s="127" t="s">
         <v>76</v>
       </c>
       <c r="J36" s="18"/>
@@ -3595,7 +3601,7 @@
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
-      <c r="X36" s="102"/>
+      <c r="X36" s="100"/>
       <c r="Y36" s="18"/>
     </row>
     <row r="37" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3608,15 +3614,14 @@
       <c r="D37" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62">
+      <c r="E37" s="62">
         <v>8</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>400</v>
       </c>
       <c r="H37" s="15"/>
-      <c r="I37" s="68" t="s">
+      <c r="I37" s="127" t="s">
         <v>73</v>
       </c>
       <c r="J37" s="18"/>
@@ -3633,7 +3638,7 @@
       <c r="U37" s="20"/>
       <c r="V37" s="18"/>
       <c r="W37" s="20"/>
-      <c r="X37" s="102"/>
+      <c r="X37" s="100"/>
       <c r="Y37" s="18"/>
     </row>
     <row r="38" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3646,15 +3651,14 @@
       <c r="D38" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62">
+      <c r="E38" s="62">
         <v>4</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>406</v>
       </c>
       <c r="H38" s="15"/>
-      <c r="I38" s="59" t="s">
+      <c r="I38" s="131" t="s">
         <v>77</v>
       </c>
       <c r="J38" s="18"/>
@@ -3671,7 +3675,7 @@
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
-      <c r="X38" s="102"/>
+      <c r="X38" s="100"/>
       <c r="Y38" s="18"/>
     </row>
     <row r="39" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3684,15 +3688,14 @@
       <c r="D39" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62">
+      <c r="E39" s="62">
         <v>2</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>405</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="66" t="s">
+      <c r="I39" s="127" t="s">
         <v>78</v>
       </c>
       <c r="J39" s="18"/>
@@ -3704,33 +3707,32 @@
       <c r="P39" s="21"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
-      <c r="S39" s="72"/>
+      <c r="S39" s="71"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
-      <c r="X39" s="102"/>
+      <c r="X39" s="100"/>
       <c r="Y39" s="18"/>
     </row>
     <row r="40" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62">
+      <c r="E40" s="62">
         <v>1</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>392</v>
       </c>
       <c r="H40" s="15"/>
-      <c r="I40" s="70" t="s">
+      <c r="I40" s="131" t="s">
         <v>74</v>
       </c>
       <c r="J40" s="18"/>
@@ -3747,28 +3749,27 @@
       <c r="U40" s="20"/>
       <c r="V40" s="18"/>
       <c r="W40" s="20"/>
-      <c r="X40" s="102"/>
+      <c r="X40" s="100"/>
       <c r="Y40" s="18"/>
     </row>
     <row r="41" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62">
+      <c r="E41" s="62">
         <v>1</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>402</v>
       </c>
       <c r="H41" s="15"/>
-      <c r="I41" s="66" t="s">
+      <c r="I41" s="127" t="s">
         <v>79</v>
       </c>
       <c r="J41" s="18"/>
@@ -3785,24 +3786,23 @@
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
-      <c r="X41" s="102"/>
+      <c r="X41" s="100"/>
       <c r="Y41" s="18"/>
     </row>
     <row r="42" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="127" t="s">
+      <c r="A42" s="110" t="s">
         <v>144</v>
       </c>
       <c r="B42" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62">
+      <c r="E42" s="62">
         <v>1</v>
       </c>
       <c r="G42" s="23" t="s">
@@ -3818,7 +3818,7 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
-      <c r="P42" s="72"/>
+      <c r="P42" s="71"/>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="21"/>
@@ -3826,26 +3826,25 @@
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
       <c r="W42" s="20"/>
-      <c r="X42" s="103"/>
+      <c r="X42" s="101"/>
       <c r="Y42" s="18"/>
     </row>
     <row r="43" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="94"/>
-      <c r="F43" s="23">
-        <v>1</v>
-      </c>
-      <c r="G43" s="94"/>
+      <c r="E43" s="23">
+        <v>1</v>
+      </c>
+      <c r="G43" s="92"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="70" t="s">
+      <c r="I43" s="131" t="s">
         <v>75</v>
       </c>
       <c r="J43" s="18"/>
@@ -3862,28 +3861,27 @@
       <c r="U43" s="18"/>
       <c r="V43" s="18"/>
       <c r="W43" s="20"/>
-      <c r="X43" s="102"/>
+      <c r="X43" s="100"/>
       <c r="Y43" s="18"/>
     </row>
     <row r="44" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62">
+      <c r="E44" s="62">
         <v>1</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>393</v>
       </c>
       <c r="H44" s="15"/>
-      <c r="I44" s="66" t="s">
+      <c r="I44" s="127" t="s">
         <v>80</v>
       </c>
       <c r="J44" s="18"/>
@@ -3900,28 +3898,27 @@
       <c r="U44" s="21"/>
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
-      <c r="X44" s="102"/>
+      <c r="X44" s="100"/>
       <c r="Y44" s="18"/>
     </row>
     <row r="45" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62">
+      <c r="E45" s="62">
         <v>1</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>394</v>
       </c>
       <c r="H45" s="15"/>
-      <c r="I45" s="71" t="s">
+      <c r="I45" s="132" t="s">
         <v>148</v>
       </c>
       <c r="J45" s="18"/>
@@ -3938,21 +3935,20 @@
       <c r="U45" s="20"/>
       <c r="V45" s="21"/>
       <c r="W45" s="18"/>
-      <c r="X45" s="102"/>
+      <c r="X45" s="100"/>
       <c r="Y45" s="18"/>
     </row>
     <row r="46" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62">
+      <c r="E46" s="62">
         <v>1</v>
       </c>
       <c r="G46" s="23" t="s">
@@ -3976,21 +3972,20 @@
       <c r="U46" s="20"/>
       <c r="V46" s="18"/>
       <c r="W46" s="21"/>
-      <c r="X46" s="102"/>
+      <c r="X46" s="100"/>
       <c r="Y46" s="18"/>
     </row>
     <row r="47" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="92" t="s">
+      <c r="D47" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62">
+      <c r="E47" s="62">
         <v>1</v>
       </c>
       <c r="G47" s="23" t="s">
@@ -4014,7 +4009,7 @@
       <c r="U47" s="18"/>
       <c r="V47" s="18"/>
       <c r="W47" s="18"/>
-      <c r="X47" s="104"/>
+      <c r="X47" s="102"/>
       <c r="Y47" s="18"/>
     </row>
     <row r="48" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4028,36 +4023,35 @@
         <v>143</v>
       </c>
       <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
       <c r="G48" s="23" t="s">
         <v>401</v>
       </c>
       <c r="I48" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="105"/>
-      <c r="V48" s="105"/>
-      <c r="W48" s="105"/>
-      <c r="X48" s="105"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="103"/>
+      <c r="N48" s="103"/>
+      <c r="O48" s="103"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="103"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="103"/>
+      <c r="T48" s="103"/>
+      <c r="U48" s="103"/>
+      <c r="V48" s="103"/>
+      <c r="W48" s="103"/>
+      <c r="X48" s="103"/>
       <c r="Y48" s="21"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E50" s="62" t="s">
+      <c r="D50" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="62">
-        <f>SUM(F33:F42,F43:F48)</f>
+      <c r="E50" s="62">
+        <f>SUM(E33:E42,E43:E48)</f>
         <v>84</v>
       </c>
       <c r="G50" s="15"/>
@@ -4070,77 +4064,77 @@
       <c r="B52" s="61"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E54" s="112" t="s">
+      <c r="E54" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="112"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="76" t="s">
+      <c r="C56" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="76" t="s">
+      <c r="D56" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E56" s="76" t="s">
+      <c r="E56" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="F56" s="76" t="s">
+      <c r="F56" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="G56" s="76" t="s">
+      <c r="G56" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="H56" s="76" t="s">
+      <c r="H56" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="J56" s="106" t="s">
+      <c r="J56" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="K56" s="76" t="s">
+      <c r="K56" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="L56" s="76" t="s">
+      <c r="L56" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="M56" s="76" t="s">
+      <c r="M56" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="N56" s="76" t="s">
+      <c r="N56" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="O56" s="76" t="s">
+      <c r="O56" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="P56" s="76" t="s">
+      <c r="P56" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="Q56" s="76" t="s">
+      <c r="Q56" s="75" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="57" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="95" t="s">
+      <c r="C57" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="96" t="s">
+      <c r="D57" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="97" t="s">
+      <c r="E57" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="F57" s="96" t="s">
+      <c r="F57" s="94" t="s">
         <v>180</v>
       </c>
       <c r="G57" s="66">
@@ -4150,22 +4144,22 @@
         <v>159</v>
       </c>
       <c r="I57" s="24"/>
-      <c r="J57" s="74">
-        <v>1</v>
-      </c>
-      <c r="K57" s="90" t="s">
+      <c r="J57" s="73">
+        <v>1</v>
+      </c>
+      <c r="K57" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="L57" s="95" t="s">
+      <c r="L57" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="M57" s="96" t="s">
+      <c r="M57" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="N57" s="97" t="s">
+      <c r="N57" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="O57" s="96" t="s">
+      <c r="O57" s="94" t="s">
         <v>157</v>
       </c>
       <c r="P57" s="66">
@@ -4176,19 +4170,19 @@
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="78" t="s">
+      <c r="B58" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="96" t="s">
+      <c r="C58" s="94" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="95" t="s">
+      <c r="D58" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="E58" s="97" t="s">
+      <c r="E58" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="F58" s="95" t="s">
+      <c r="F58" s="93" t="s">
         <v>153</v>
       </c>
       <c r="G58" s="66">
@@ -4198,22 +4192,22 @@
         <v>159</v>
       </c>
       <c r="I58" s="25"/>
-      <c r="J58" s="74">
+      <c r="J58" s="73">
         <v>2</v>
       </c>
-      <c r="K58" s="89" t="s">
+      <c r="K58" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="96" t="s">
+      <c r="L58" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="M58" s="95" t="s">
+      <c r="M58" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="N58" s="97" t="s">
+      <c r="N58" s="95" t="s">
         <v>417</v>
       </c>
-      <c r="O58" s="95" t="s">
+      <c r="O58" s="93" t="s">
         <v>213</v>
       </c>
       <c r="P58" s="66">
@@ -4224,19 +4218,19 @@
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="95" t="s">
+      <c r="C59" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="96" t="s">
+      <c r="D59" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="98" t="s">
+      <c r="E59" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="F59" s="96" t="s">
+      <c r="F59" s="94" t="s">
         <v>184</v>
       </c>
       <c r="G59" s="59">
@@ -4246,22 +4240,22 @@
         <v>185</v>
       </c>
       <c r="I59" s="25"/>
-      <c r="J59" s="74">
+      <c r="J59" s="73">
         <v>3</v>
       </c>
-      <c r="K59" s="88" t="s">
+      <c r="K59" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="L59" s="95" t="s">
+      <c r="L59" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="M59" s="96" t="s">
+      <c r="M59" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="N59" s="98" t="s">
+      <c r="N59" s="96" t="s">
         <v>209</v>
       </c>
-      <c r="O59" s="96" t="s">
+      <c r="O59" s="94" t="s">
         <v>214</v>
       </c>
       <c r="P59" s="66">
@@ -4272,19 +4266,19 @@
       </c>
     </row>
     <row r="60" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="80" t="s">
+      <c r="B60" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="96" t="s">
+      <c r="C60" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="96" t="s">
+      <c r="D60" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="E60" s="99" t="s">
+      <c r="E60" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="F60" s="95" t="s">
+      <c r="F60" s="93" t="s">
         <v>190</v>
       </c>
       <c r="G60" s="59">
@@ -4294,22 +4288,22 @@
         <v>185</v>
       </c>
       <c r="I60" s="24"/>
-      <c r="J60" s="74">
+      <c r="J60" s="73">
         <v>4</v>
       </c>
-      <c r="K60" s="80" t="s">
+      <c r="K60" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="L60" s="96" t="s">
+      <c r="L60" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="M60" s="96" t="s">
+      <c r="M60" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="N60" s="99" t="s">
+      <c r="N60" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="O60" s="95" t="s">
+      <c r="O60" s="93" t="s">
         <v>190</v>
       </c>
       <c r="P60" s="59">
@@ -4320,16 +4314,16 @@
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B61" s="81" t="s">
+      <c r="B61" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="96" t="s">
+      <c r="C61" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="95" t="s">
+      <c r="D61" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="99" t="s">
+      <c r="E61" s="97" t="s">
         <v>192</v>
       </c>
       <c r="F61" s="59" t="s">
@@ -4342,22 +4336,22 @@
         <v>185</v>
       </c>
       <c r="I61" s="25"/>
-      <c r="J61" s="74">
+      <c r="J61" s="73">
         <v>5</v>
       </c>
-      <c r="K61" s="87" t="s">
+      <c r="K61" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="L61" s="96" t="s">
+      <c r="L61" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="M61" s="95" t="s">
+      <c r="M61" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="N61" s="97" t="s">
+      <c r="N61" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="O61" s="96" t="s">
+      <c r="O61" s="94" t="s">
         <v>215</v>
       </c>
       <c r="P61" s="66">
@@ -4368,19 +4362,19 @@
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="96" t="s">
+      <c r="C62" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="96" t="s">
+      <c r="D62" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="97" t="s">
+      <c r="E62" s="95" t="s">
         <v>408</v>
       </c>
-      <c r="F62" s="96" t="s">
+      <c r="F62" s="94" t="s">
         <v>196</v>
       </c>
       <c r="G62" s="66">
@@ -4390,22 +4384,22 @@
         <v>160</v>
       </c>
       <c r="I62" s="25"/>
-      <c r="J62" s="107">
+      <c r="J62" s="105">
         <v>6</v>
       </c>
-      <c r="K62" s="109" t="s">
+      <c r="K62" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="L62" s="96" t="s">
+      <c r="L62" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="M62" s="96" t="s">
+      <c r="M62" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="N62" s="97" t="s">
+      <c r="N62" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="O62" s="96" t="s">
+      <c r="O62" s="94" t="s">
         <v>180</v>
       </c>
       <c r="P62" s="66">
@@ -4416,19 +4410,19 @@
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="82" t="s">
+      <c r="B63" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="96" t="s">
+      <c r="C63" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="96" t="s">
+      <c r="D63" s="94" t="s">
         <v>411</v>
       </c>
-      <c r="E63" s="97" t="s">
+      <c r="E63" s="95" t="s">
         <v>416</v>
       </c>
-      <c r="F63" s="96" t="s">
+      <c r="F63" s="94" t="s">
         <v>203</v>
       </c>
       <c r="G63" s="66">
@@ -4438,22 +4432,22 @@
         <v>69</v>
       </c>
       <c r="I63" s="25"/>
-      <c r="J63" s="74">
+      <c r="J63" s="73">
         <v>7</v>
       </c>
-      <c r="K63" s="78" t="s">
+      <c r="K63" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="L63" s="96" t="s">
+      <c r="L63" s="94" t="s">
         <v>181</v>
       </c>
-      <c r="M63" s="96" t="s">
+      <c r="M63" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="N63" s="97" t="s">
+      <c r="N63" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="O63" s="96" t="s">
+      <c r="O63" s="94" t="s">
         <v>153</v>
       </c>
       <c r="P63" s="66">
@@ -4464,19 +4458,19 @@
       </c>
     </row>
     <row r="64" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="90" t="s">
+      <c r="B64" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="96" t="s">
+      <c r="C64" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="96" t="s">
+      <c r="D64" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="E64" s="97" t="s">
+      <c r="E64" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="F64" s="96" t="s">
+      <c r="F64" s="94" t="s">
         <v>157</v>
       </c>
       <c r="G64" s="66">
@@ -4486,22 +4480,22 @@
         <v>69</v>
       </c>
       <c r="I64" s="24"/>
-      <c r="J64" s="74">
+      <c r="J64" s="73">
         <v>8</v>
       </c>
-      <c r="K64" s="86" t="s">
+      <c r="K64" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="L64" s="96" t="s">
+      <c r="L64" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="M64" s="96" t="s">
+      <c r="M64" s="94" t="s">
         <v>412</v>
       </c>
-      <c r="N64" s="97" t="s">
+      <c r="N64" s="95" t="s">
         <v>211</v>
       </c>
-      <c r="O64" s="96" t="s">
+      <c r="O64" s="94" t="s">
         <v>216</v>
       </c>
       <c r="P64" s="66">
@@ -4512,19 +4506,19 @@
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B65" s="89" t="s">
+      <c r="B65" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="96" t="s">
+      <c r="C65" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="D65" s="96" t="s">
+      <c r="D65" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="E65" s="97" t="s">
+      <c r="E65" s="95" t="s">
         <v>417</v>
       </c>
-      <c r="F65" s="96" t="s">
+      <c r="F65" s="94" t="s">
         <v>213</v>
       </c>
       <c r="G65" s="66">
@@ -4534,19 +4528,19 @@
         <v>69</v>
       </c>
       <c r="I65" s="25"/>
-      <c r="J65" s="74">
+      <c r="J65" s="73">
         <v>9</v>
       </c>
-      <c r="K65" s="81" t="s">
+      <c r="K65" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="L65" s="96" t="s">
+      <c r="L65" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="M65" s="96" t="s">
+      <c r="M65" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="N65" s="99" t="s">
+      <c r="N65" s="97" t="s">
         <v>192</v>
       </c>
       <c r="O65" s="59" t="s">
@@ -4560,19 +4554,19 @@
       </c>
     </row>
     <row r="66" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="96" t="s">
+      <c r="C66" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="96" t="s">
+      <c r="D66" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="97" t="s">
+      <c r="E66" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="F66" s="96" t="s">
+      <c r="F66" s="94" t="s">
         <v>214</v>
       </c>
       <c r="G66" s="66">
@@ -4582,22 +4576,22 @@
         <v>69</v>
       </c>
       <c r="I66" s="24"/>
-      <c r="J66" s="74">
+      <c r="J66" s="73">
         <v>10</v>
       </c>
-      <c r="K66" s="85" t="s">
+      <c r="K66" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="L66" s="96" t="s">
+      <c r="L66" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="M66" s="96" t="s">
+      <c r="M66" s="94" t="s">
         <v>413</v>
       </c>
-      <c r="N66" s="97" t="s">
+      <c r="N66" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="O66" s="96" t="s">
+      <c r="O66" s="94" t="s">
         <v>217</v>
       </c>
       <c r="P66" s="66">
@@ -4608,19 +4602,19 @@
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B67" s="87" t="s">
+      <c r="B67" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="96" t="s">
+      <c r="C67" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="96" t="s">
+      <c r="D67" s="94" t="s">
         <v>208</v>
       </c>
-      <c r="E67" s="97" t="s">
+      <c r="E67" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="F67" s="96" t="s">
+      <c r="F67" s="94" t="s">
         <v>215</v>
       </c>
       <c r="G67" s="66">
@@ -4630,22 +4624,22 @@
         <v>69</v>
       </c>
       <c r="I67" s="25"/>
-      <c r="J67" s="74">
+      <c r="J67" s="73">
         <v>11</v>
       </c>
-      <c r="K67" s="79" t="s">
+      <c r="K67" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="L67" s="96" t="s">
+      <c r="L67" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="M67" s="96" t="s">
+      <c r="M67" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="N67" s="97" t="s">
+      <c r="N67" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="O67" s="96" t="s">
+      <c r="O67" s="94" t="s">
         <v>184</v>
       </c>
       <c r="P67" s="59">
@@ -4656,19 +4650,19 @@
       </c>
     </row>
     <row r="68" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="86" t="s">
+      <c r="B68" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="96" t="s">
+      <c r="C68" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="96" t="s">
+      <c r="D68" s="94" t="s">
         <v>412</v>
       </c>
-      <c r="E68" s="97" t="s">
+      <c r="E68" s="95" t="s">
         <v>211</v>
       </c>
-      <c r="F68" s="96" t="s">
+      <c r="F68" s="94" t="s">
         <v>216</v>
       </c>
       <c r="G68" s="66">
@@ -4678,22 +4672,22 @@
         <v>69</v>
       </c>
       <c r="I68" s="25"/>
-      <c r="J68" s="74">
+      <c r="J68" s="73">
         <v>12</v>
       </c>
-      <c r="K68" s="84" t="s">
+      <c r="K68" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="L68" s="96" t="s">
+      <c r="L68" s="94" t="s">
         <v>409</v>
       </c>
-      <c r="M68" s="96" t="s">
+      <c r="M68" s="94" t="s">
         <v>414</v>
       </c>
-      <c r="N68" s="97" t="s">
+      <c r="N68" s="95" t="s">
         <v>418</v>
       </c>
-      <c r="O68" s="96" t="s">
+      <c r="O68" s="94" t="s">
         <v>421</v>
       </c>
       <c r="P68" s="66">
@@ -4704,19 +4698,19 @@
       </c>
     </row>
     <row r="69" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="85" t="s">
+      <c r="B69" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="96" t="s">
+      <c r="C69" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="D69" s="96" t="s">
+      <c r="D69" s="94" t="s">
         <v>413</v>
       </c>
-      <c r="E69" s="97" t="s">
+      <c r="E69" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="F69" s="96" t="s">
+      <c r="F69" s="94" t="s">
         <v>217</v>
       </c>
       <c r="G69" s="66">
@@ -4726,22 +4720,22 @@
         <v>69</v>
       </c>
       <c r="I69" s="24"/>
-      <c r="J69" s="74">
+      <c r="J69" s="73">
         <v>13</v>
       </c>
-      <c r="K69" s="82" t="s">
+      <c r="K69" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="L69" s="96" t="s">
+      <c r="L69" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="M69" s="96" t="s">
+      <c r="M69" s="94" t="s">
         <v>411</v>
       </c>
-      <c r="N69" s="97" t="s">
+      <c r="N69" s="95" t="s">
         <v>416</v>
       </c>
-      <c r="O69" s="96" t="s">
+      <c r="O69" s="94" t="s">
         <v>203</v>
       </c>
       <c r="P69" s="66">
@@ -4752,19 +4746,19 @@
       </c>
     </row>
     <row r="70" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="84" t="s">
+      <c r="B70" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="96" t="s">
+      <c r="C70" s="94" t="s">
         <v>409</v>
       </c>
-      <c r="D70" s="96" t="s">
+      <c r="D70" s="94" t="s">
         <v>414</v>
       </c>
-      <c r="E70" s="97" t="s">
+      <c r="E70" s="95" t="s">
         <v>418</v>
       </c>
-      <c r="F70" s="96" t="s">
+      <c r="F70" s="94" t="s">
         <v>421</v>
       </c>
       <c r="G70" s="66">
@@ -4774,22 +4768,22 @@
         <v>69</v>
       </c>
       <c r="I70" s="24"/>
-      <c r="J70" s="74">
+      <c r="J70" s="73">
         <v>14</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L70" s="96" t="s">
+      <c r="L70" s="94" t="s">
         <v>410</v>
       </c>
-      <c r="M70" s="96" t="s">
+      <c r="M70" s="94" t="s">
         <v>415</v>
       </c>
-      <c r="N70" s="97" t="s">
+      <c r="N70" s="95" t="s">
         <v>419</v>
       </c>
-      <c r="O70" s="96" t="s">
+      <c r="O70" s="94" t="s">
         <v>420</v>
       </c>
       <c r="P70" s="59">
@@ -4803,16 +4797,16 @@
       <c r="B71" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="96" t="s">
+      <c r="C71" s="94" t="s">
         <v>410</v>
       </c>
-      <c r="D71" s="96" t="s">
+      <c r="D71" s="94" t="s">
         <v>415</v>
       </c>
-      <c r="E71" s="97" t="s">
+      <c r="E71" s="95" t="s">
         <v>419</v>
       </c>
-      <c r="F71" s="96" t="s">
+      <c r="F71" s="94" t="s">
         <v>420</v>
       </c>
       <c r="G71" s="59">
@@ -4822,22 +4816,22 @@
         <v>69</v>
       </c>
       <c r="I71" s="24"/>
-      <c r="J71" s="74">
+      <c r="J71" s="73">
         <v>20</v>
       </c>
-      <c r="K71" s="108" t="s">
+      <c r="K71" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="L71" s="96" t="s">
+      <c r="L71" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="M71" s="96" t="s">
+      <c r="M71" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="N71" s="97" t="s">
+      <c r="N71" s="95" t="s">
         <v>408</v>
       </c>
-      <c r="O71" s="96" t="s">
+      <c r="O71" s="94" t="s">
         <v>196</v>
       </c>
       <c r="P71" s="66">
@@ -4866,60 +4860,60 @@
       <c r="L74" s="25"/>
     </row>
     <row r="75" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="112" t="s">
+      <c r="E75" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="112"/>
+      <c r="F75" s="111"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
     </row>
     <row r="76" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="112"/>
       <c r="H76" s="15"/>
       <c r="I76" s="25"/>
       <c r="K76" s="24"/>
       <c r="L76" s="25"/>
     </row>
     <row r="77" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="76" t="s">
+      <c r="B77" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="D77" s="76" t="s">
+      <c r="D77" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E77" s="76" t="s">
+      <c r="E77" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="F77" s="76" t="s">
+      <c r="F77" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="G77" s="76" t="s">
+      <c r="G77" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="H77" s="76" t="s">
+      <c r="H77" s="75" t="s">
         <v>167</v>
       </c>
       <c r="K77" s="24"/>
       <c r="L77" s="25"/>
     </row>
     <row r="78" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="95" t="s">
+      <c r="C78" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="96" t="s">
+      <c r="D78" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="97" t="s">
+      <c r="E78" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="F78" s="96" t="s">
+      <c r="F78" s="94" t="s">
         <v>219</v>
       </c>
       <c r="G78" s="66">
@@ -4932,19 +4926,19 @@
       <c r="L78" s="25"/>
     </row>
     <row r="79" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="78" t="s">
+      <c r="B79" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="96" t="s">
+      <c r="C79" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="D79" s="95" t="s">
+      <c r="D79" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="E79" s="97" t="s">
+      <c r="E79" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="F79" s="95" t="s">
+      <c r="F79" s="93" t="s">
         <v>172</v>
       </c>
       <c r="G79" s="66">
@@ -4957,19 +4951,19 @@
       <c r="L79" s="25"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B80" s="79" t="s">
+      <c r="B80" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="95" t="s">
+      <c r="C80" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="96" t="s">
+      <c r="D80" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="E80" s="98" t="s">
+      <c r="E80" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="F80" s="96" t="s">
+      <c r="F80" s="94" t="s">
         <v>223</v>
       </c>
       <c r="G80" s="59">
@@ -4982,19 +4976,19 @@
       <c r="L80" s="25"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="80" t="s">
+      <c r="B81" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="96" t="s">
+      <c r="C81" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="D81" s="96" t="s">
+      <c r="D81" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="E81" s="99" t="s">
+      <c r="E81" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="F81" s="95" t="s">
+      <c r="F81" s="93" t="s">
         <v>227</v>
       </c>
       <c r="G81" s="59">
@@ -5005,16 +4999,16 @@
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="81" t="s">
+      <c r="B82" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="96" t="s">
+      <c r="C82" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="D82" s="95" t="s">
+      <c r="D82" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="E82" s="99" t="s">
+      <c r="E82" s="97" t="s">
         <v>230</v>
       </c>
       <c r="F82" s="59" t="s">
@@ -5028,19 +5022,19 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="83" t="s">
+      <c r="B83" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="96" t="s">
+      <c r="C83" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="D83" s="96" t="s">
+      <c r="D83" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="E83" s="97" t="s">
+      <c r="E83" s="95" t="s">
         <v>422</v>
       </c>
-      <c r="F83" s="96" t="s">
+      <c r="F83" s="94" t="s">
         <v>234</v>
       </c>
       <c r="G83" s="66">
@@ -5051,19 +5045,19 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="82" t="s">
+      <c r="B84" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="96" t="s">
+      <c r="C84" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="D84" s="96" t="s">
+      <c r="D84" s="94" t="s">
         <v>423</v>
       </c>
-      <c r="E84" s="97" t="s">
+      <c r="E84" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="F84" s="96" t="s">
+      <c r="F84" s="94" t="s">
         <v>236</v>
       </c>
       <c r="G84" s="66">
@@ -5074,19 +5068,19 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="90" t="s">
+      <c r="B85" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="96" t="s">
+      <c r="C85" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="D85" s="96" t="s">
+      <c r="D85" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="E85" s="97" t="s">
+      <c r="E85" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="F85" s="96" t="s">
+      <c r="F85" s="94" t="s">
         <v>173</v>
       </c>
       <c r="G85" s="66">
@@ -5097,19 +5091,19 @@
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="89" t="s">
+      <c r="B86" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="96" t="s">
+      <c r="C86" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="D86" s="96" t="s">
+      <c r="D86" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="E86" s="97" t="s">
+      <c r="E86" s="95" t="s">
         <v>425</v>
       </c>
-      <c r="F86" s="96" t="s">
+      <c r="F86" s="94" t="s">
         <v>241</v>
       </c>
       <c r="G86" s="66">
@@ -5120,19 +5114,19 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="88" t="s">
+      <c r="B87" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="C87" s="96" t="s">
+      <c r="C87" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="D87" s="96" t="s">
+      <c r="D87" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="E87" s="97" t="s">
+      <c r="E87" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="F87" s="96" t="s">
+      <c r="F87" s="94" t="s">
         <v>245</v>
       </c>
       <c r="G87" s="66">
@@ -5143,19 +5137,19 @@
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="87" t="s">
+      <c r="B88" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="96" t="s">
+      <c r="C88" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="D88" s="96" t="s">
+      <c r="D88" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="97" t="s">
+      <c r="E88" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="F88" s="96" t="s">
+      <c r="F88" s="94" t="s">
         <v>249</v>
       </c>
       <c r="G88" s="66">
@@ -5166,19 +5160,19 @@
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="86" t="s">
+      <c r="B89" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="96" t="s">
+      <c r="C89" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="D89" s="96" t="s">
+      <c r="D89" s="94" t="s">
         <v>426</v>
       </c>
-      <c r="E89" s="97" t="s">
+      <c r="E89" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="F89" s="96" t="s">
+      <c r="F89" s="94" t="s">
         <v>252</v>
       </c>
       <c r="G89" s="66">
@@ -5189,19 +5183,19 @@
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="85" t="s">
+      <c r="B90" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="96" t="s">
+      <c r="C90" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="D90" s="96" t="s">
+      <c r="D90" s="94" t="s">
         <v>427</v>
       </c>
-      <c r="E90" s="97" t="s">
+      <c r="E90" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="F90" s="96" t="s">
+      <c r="F90" s="94" t="s">
         <v>255</v>
       </c>
       <c r="G90" s="66">
@@ -5212,19 +5206,19 @@
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="84" t="s">
+      <c r="B91" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="96" t="s">
+      <c r="C91" s="94" t="s">
         <v>428</v>
       </c>
-      <c r="D91" s="96" t="s">
+      <c r="D91" s="94" t="s">
         <v>429</v>
       </c>
-      <c r="E91" s="97" t="s">
+      <c r="E91" s="95" t="s">
         <v>430</v>
       </c>
-      <c r="F91" s="96" t="s">
+      <c r="F91" s="94" t="s">
         <v>431</v>
       </c>
       <c r="G91" s="66">
@@ -5238,16 +5232,16 @@
       <c r="B92" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="96" t="s">
+      <c r="C92" s="94" t="s">
         <v>432</v>
       </c>
-      <c r="D92" s="96" t="s">
+      <c r="D92" s="94" t="s">
         <v>433</v>
       </c>
-      <c r="E92" s="97" t="s">
+      <c r="E92" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="F92" s="96" t="s">
+      <c r="F92" s="94" t="s">
         <v>435</v>
       </c>
       <c r="G92" s="59">
@@ -5258,53 +5252,53 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E95" s="112" t="s">
+      <c r="E95" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="F95" s="112"/>
+      <c r="F95" s="111"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E96" s="115"/>
-      <c r="F96" s="115"/>
+      <c r="E96" s="112"/>
+      <c r="F96" s="112"/>
       <c r="H96" s="15"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="76" t="s">
+      <c r="B97" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="76" t="s">
+      <c r="C97" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="D97" s="76" t="s">
+      <c r="D97" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E97" s="76" t="s">
+      <c r="E97" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="F97" s="76" t="s">
+      <c r="F97" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="G97" s="76" t="s">
+      <c r="G97" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="H97" s="76" t="s">
+      <c r="H97" s="75" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="77" t="s">
+      <c r="B98" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="95" t="s">
+      <c r="C98" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="96" t="s">
+      <c r="D98" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="E98" s="97" t="s">
+      <c r="E98" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="F98" s="96" t="s">
+      <c r="F98" s="94" t="s">
         <v>259</v>
       </c>
       <c r="G98" s="66">
@@ -5315,19 +5309,19 @@
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="78" t="s">
+      <c r="B99" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="96" t="s">
+      <c r="C99" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="D99" s="95" t="s">
+      <c r="D99" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="E99" s="97" t="s">
+      <c r="E99" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="F99" s="95" t="s">
+      <c r="F99" s="93" t="s">
         <v>263</v>
       </c>
       <c r="G99" s="66">
@@ -5338,19 +5332,19 @@
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="79" t="s">
+      <c r="B100" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="95" t="s">
+      <c r="C100" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="D100" s="96" t="s">
+      <c r="D100" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="E100" s="98" t="s">
+      <c r="E100" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="F100" s="96" t="s">
+      <c r="F100" s="94" t="s">
         <v>267</v>
       </c>
       <c r="G100" s="59">
@@ -5361,19 +5355,19 @@
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="80" t="s">
+      <c r="B101" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="96" t="s">
+      <c r="C101" s="94" t="s">
         <v>268</v>
       </c>
-      <c r="D101" s="96" t="s">
+      <c r="D101" s="94" t="s">
         <v>269</v>
       </c>
-      <c r="E101" s="99" t="s">
+      <c r="E101" s="97" t="s">
         <v>270</v>
       </c>
-      <c r="F101" s="95" t="s">
+      <c r="F101" s="93" t="s">
         <v>271</v>
       </c>
       <c r="G101" s="59">
@@ -5384,16 +5378,16 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="81" t="s">
+      <c r="B102" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C102" s="96" t="s">
+      <c r="C102" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="D102" s="95" t="s">
+      <c r="D102" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="E102" s="99" t="s">
+      <c r="E102" s="97" t="s">
         <v>274</v>
       </c>
       <c r="F102" s="59" t="s">
@@ -5407,19 +5401,19 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="83" t="s">
+      <c r="B103" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="96" t="s">
+      <c r="C103" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="D103" s="96" t="s">
+      <c r="D103" s="94" t="s">
         <v>277</v>
       </c>
-      <c r="E103" s="97" t="s">
+      <c r="E103" s="95" t="s">
         <v>436</v>
       </c>
-      <c r="F103" s="96" t="s">
+      <c r="F103" s="94" t="s">
         <v>278</v>
       </c>
       <c r="G103" s="66">
@@ -5430,19 +5424,19 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="82" t="s">
+      <c r="B104" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C104" s="96" t="s">
+      <c r="C104" s="94" t="s">
         <v>279</v>
       </c>
-      <c r="D104" s="96" t="s">
+      <c r="D104" s="94" t="s">
         <v>437</v>
       </c>
-      <c r="E104" s="97" t="s">
+      <c r="E104" s="95" t="s">
         <v>438</v>
       </c>
-      <c r="F104" s="96" t="s">
+      <c r="F104" s="94" t="s">
         <v>280</v>
       </c>
       <c r="G104" s="66">
@@ -5453,19 +5447,19 @@
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="90" t="s">
+      <c r="B105" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="C105" s="96" t="s">
+      <c r="C105" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="D105" s="96" t="s">
+      <c r="D105" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="E105" s="97" t="s">
+      <c r="E105" s="95" t="s">
         <v>283</v>
       </c>
-      <c r="F105" s="96" t="s">
+      <c r="F105" s="94" t="s">
         <v>284</v>
       </c>
       <c r="G105" s="66">
@@ -5476,19 +5470,19 @@
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="89" t="s">
+      <c r="B106" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="96" t="s">
+      <c r="C106" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="D106" s="96" t="s">
+      <c r="D106" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="E106" s="97" t="s">
+      <c r="E106" s="95" t="s">
         <v>439</v>
       </c>
-      <c r="F106" s="96" t="s">
+      <c r="F106" s="94" t="s">
         <v>287</v>
       </c>
       <c r="G106" s="66">
@@ -5499,19 +5493,19 @@
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="88" t="s">
+      <c r="B107" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="C107" s="96" t="s">
+      <c r="C107" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="D107" s="96" t="s">
+      <c r="D107" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="E107" s="97" t="s">
+      <c r="E107" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="F107" s="96" t="s">
+      <c r="F107" s="94" t="s">
         <v>291</v>
       </c>
       <c r="G107" s="66">
@@ -5522,19 +5516,19 @@
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="87" t="s">
+      <c r="B108" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C108" s="96" t="s">
+      <c r="C108" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="D108" s="96" t="s">
+      <c r="D108" s="94" t="s">
         <v>293</v>
       </c>
-      <c r="E108" s="97" t="s">
+      <c r="E108" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="F108" s="96" t="s">
+      <c r="F108" s="94" t="s">
         <v>295</v>
       </c>
       <c r="G108" s="66">
@@ -5545,19 +5539,19 @@
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="86" t="s">
+      <c r="B109" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="96" t="s">
+      <c r="C109" s="94" t="s">
         <v>296</v>
       </c>
-      <c r="D109" s="96" t="s">
+      <c r="D109" s="94" t="s">
         <v>440</v>
       </c>
-      <c r="E109" s="97" t="s">
+      <c r="E109" s="95" t="s">
         <v>297</v>
       </c>
-      <c r="F109" s="96" t="s">
+      <c r="F109" s="94" t="s">
         <v>298</v>
       </c>
       <c r="G109" s="66">
@@ -5568,19 +5562,19 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="85" t="s">
+      <c r="B110" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="96" t="s">
+      <c r="C110" s="94" t="s">
         <v>299</v>
       </c>
-      <c r="D110" s="96" t="s">
+      <c r="D110" s="94" t="s">
         <v>441</v>
       </c>
-      <c r="E110" s="97" t="s">
+      <c r="E110" s="95" t="s">
         <v>300</v>
       </c>
-      <c r="F110" s="96" t="s">
+      <c r="F110" s="94" t="s">
         <v>301</v>
       </c>
       <c r="G110" s="66">
@@ -5591,19 +5585,19 @@
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="84" t="s">
+      <c r="B111" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C111" s="96" t="s">
+      <c r="C111" s="94" t="s">
         <v>442</v>
       </c>
-      <c r="D111" s="96" t="s">
+      <c r="D111" s="94" t="s">
         <v>443</v>
       </c>
-      <c r="E111" s="97" t="s">
+      <c r="E111" s="95" t="s">
         <v>444</v>
       </c>
-      <c r="F111" s="96" t="s">
+      <c r="F111" s="94" t="s">
         <v>445</v>
       </c>
       <c r="G111" s="66">
@@ -5617,16 +5611,16 @@
       <c r="B112" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C112" s="96" t="s">
+      <c r="C112" s="94" t="s">
         <v>446</v>
       </c>
-      <c r="D112" s="96" t="s">
+      <c r="D112" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="E112" s="97" t="s">
+      <c r="E112" s="95" t="s">
         <v>448</v>
       </c>
-      <c r="F112" s="96" t="s">
+      <c r="F112" s="94" t="s">
         <v>449</v>
       </c>
       <c r="G112" s="59">
@@ -5637,53 +5631,53 @@
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E115" s="112" t="s">
+      <c r="E115" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="F115" s="112"/>
+      <c r="F115" s="111"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E116" s="115"/>
-      <c r="F116" s="115"/>
+      <c r="E116" s="112"/>
+      <c r="F116" s="112"/>
       <c r="H116" s="15"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="76" t="s">
+      <c r="B117" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C117" s="76" t="s">
+      <c r="C117" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="D117" s="76" t="s">
+      <c r="D117" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E117" s="76" t="s">
+      <c r="E117" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="F117" s="76" t="s">
+      <c r="F117" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="G117" s="76" t="s">
+      <c r="G117" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="H117" s="76" t="s">
+      <c r="H117" s="75" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="77" t="s">
+      <c r="B118" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C118" s="95" t="s">
+      <c r="C118" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="96" t="s">
+      <c r="D118" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E118" s="97" t="s">
+      <c r="E118" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="F118" s="96" t="s">
+      <c r="F118" s="94" t="s">
         <v>304</v>
       </c>
       <c r="G118" s="66">
@@ -5694,19 +5688,19 @@
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="78" t="s">
+      <c r="B119" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C119" s="96" t="s">
+      <c r="C119" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="D119" s="95" t="s">
+      <c r="D119" s="93" t="s">
         <v>306</v>
       </c>
-      <c r="E119" s="97" t="s">
+      <c r="E119" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="F119" s="95" t="s">
+      <c r="F119" s="93" t="s">
         <v>308</v>
       </c>
       <c r="G119" s="66">
@@ -5717,19 +5711,19 @@
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="79" t="s">
+      <c r="B120" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="95" t="s">
+      <c r="C120" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="D120" s="96" t="s">
+      <c r="D120" s="94" t="s">
         <v>310</v>
       </c>
-      <c r="E120" s="98" t="s">
+      <c r="E120" s="96" t="s">
         <v>311</v>
       </c>
-      <c r="F120" s="96" t="s">
+      <c r="F120" s="94" t="s">
         <v>312</v>
       </c>
       <c r="G120" s="59">
@@ -5740,19 +5734,19 @@
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="80" t="s">
+      <c r="B121" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C121" s="96" t="s">
+      <c r="C121" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="D121" s="96" t="s">
+      <c r="D121" s="94" t="s">
         <v>314</v>
       </c>
-      <c r="E121" s="99" t="s">
+      <c r="E121" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="F121" s="95" t="s">
+      <c r="F121" s="93" t="s">
         <v>316</v>
       </c>
       <c r="G121" s="59">
@@ -5763,16 +5757,16 @@
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="81" t="s">
+      <c r="B122" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C122" s="96" t="s">
+      <c r="C122" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="D122" s="95" t="s">
+      <c r="D122" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="E122" s="99" t="s">
+      <c r="E122" s="97" t="s">
         <v>319</v>
       </c>
       <c r="F122" s="59" t="s">
@@ -5786,19 +5780,19 @@
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="83" t="s">
+      <c r="B123" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C123" s="96" t="s">
+      <c r="C123" s="94" t="s">
         <v>321</v>
       </c>
-      <c r="D123" s="96" t="s">
+      <c r="D123" s="94" t="s">
         <v>322</v>
       </c>
-      <c r="E123" s="97" t="s">
+      <c r="E123" s="95" t="s">
         <v>450</v>
       </c>
-      <c r="F123" s="96" t="s">
+      <c r="F123" s="94" t="s">
         <v>323</v>
       </c>
       <c r="G123" s="66">
@@ -5809,19 +5803,19 @@
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="82" t="s">
+      <c r="B124" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="96" t="s">
+      <c r="C124" s="94" t="s">
         <v>324</v>
       </c>
-      <c r="D124" s="96" t="s">
+      <c r="D124" s="94" t="s">
         <v>451</v>
       </c>
-      <c r="E124" s="97" t="s">
+      <c r="E124" s="95" t="s">
         <v>452</v>
       </c>
-      <c r="F124" s="96" t="s">
+      <c r="F124" s="94" t="s">
         <v>325</v>
       </c>
       <c r="G124" s="66">
@@ -5832,19 +5826,19 @@
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="90" t="s">
+      <c r="B125" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="C125" s="96" t="s">
+      <c r="C125" s="94" t="s">
         <v>326</v>
       </c>
-      <c r="D125" s="96" t="s">
+      <c r="D125" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="E125" s="97" t="s">
+      <c r="E125" s="95" t="s">
         <v>328</v>
       </c>
-      <c r="F125" s="96" t="s">
+      <c r="F125" s="94" t="s">
         <v>329</v>
       </c>
       <c r="G125" s="66">
@@ -5855,19 +5849,19 @@
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="89" t="s">
+      <c r="B126" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="C126" s="96" t="s">
+      <c r="C126" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="D126" s="96" t="s">
+      <c r="D126" s="94" t="s">
         <v>331</v>
       </c>
-      <c r="E126" s="97" t="s">
+      <c r="E126" s="95" t="s">
         <v>453</v>
       </c>
-      <c r="F126" s="96" t="s">
+      <c r="F126" s="94" t="s">
         <v>332</v>
       </c>
       <c r="G126" s="66">
@@ -5878,19 +5872,19 @@
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="88" t="s">
+      <c r="B127" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="C127" s="96" t="s">
+      <c r="C127" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="D127" s="96" t="s">
+      <c r="D127" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="E127" s="97" t="s">
+      <c r="E127" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="F127" s="96" t="s">
+      <c r="F127" s="94" t="s">
         <v>336</v>
       </c>
       <c r="G127" s="66">
@@ -5901,19 +5895,19 @@
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="87" t="s">
+      <c r="B128" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C128" s="96" t="s">
+      <c r="C128" s="94" t="s">
         <v>337</v>
       </c>
-      <c r="D128" s="96" t="s">
+      <c r="D128" s="94" t="s">
         <v>338</v>
       </c>
-      <c r="E128" s="97" t="s">
+      <c r="E128" s="95" t="s">
         <v>339</v>
       </c>
-      <c r="F128" s="96" t="s">
+      <c r="F128" s="94" t="s">
         <v>340</v>
       </c>
       <c r="G128" s="66">
@@ -5924,19 +5918,19 @@
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="86" t="s">
+      <c r="B129" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C129" s="96" t="s">
+      <c r="C129" s="94" t="s">
         <v>341</v>
       </c>
-      <c r="D129" s="96" t="s">
+      <c r="D129" s="94" t="s">
         <v>454</v>
       </c>
-      <c r="E129" s="97" t="s">
+      <c r="E129" s="95" t="s">
         <v>342</v>
       </c>
-      <c r="F129" s="96" t="s">
+      <c r="F129" s="94" t="s">
         <v>343</v>
       </c>
       <c r="G129" s="66">
@@ -5947,19 +5941,19 @@
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="85" t="s">
+      <c r="B130" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C130" s="96" t="s">
+      <c r="C130" s="94" t="s">
         <v>344</v>
       </c>
-      <c r="D130" s="96" t="s">
+      <c r="D130" s="94" t="s">
         <v>455</v>
       </c>
-      <c r="E130" s="97" t="s">
+      <c r="E130" s="95" t="s">
         <v>345</v>
       </c>
-      <c r="F130" s="96" t="s">
+      <c r="F130" s="94" t="s">
         <v>346</v>
       </c>
       <c r="G130" s="66">
@@ -5970,19 +5964,19 @@
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="84" t="s">
+      <c r="B131" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C131" s="96" t="s">
+      <c r="C131" s="94" t="s">
         <v>456</v>
       </c>
-      <c r="D131" s="96" t="s">
+      <c r="D131" s="94" t="s">
         <v>457</v>
       </c>
-      <c r="E131" s="97" t="s">
+      <c r="E131" s="95" t="s">
         <v>458</v>
       </c>
-      <c r="F131" s="96" t="s">
+      <c r="F131" s="94" t="s">
         <v>459</v>
       </c>
       <c r="G131" s="66">
@@ -5996,16 +5990,16 @@
       <c r="B132" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C132" s="96" t="s">
+      <c r="C132" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="D132" s="96" t="s">
+      <c r="D132" s="94" t="s">
         <v>461</v>
       </c>
-      <c r="E132" s="97" t="s">
+      <c r="E132" s="95" t="s">
         <v>462</v>
       </c>
-      <c r="F132" s="96" t="s">
+      <c r="F132" s="94" t="s">
         <v>463</v>
       </c>
       <c r="G132" s="59">
@@ -6016,53 +6010,53 @@
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E135" s="112" t="s">
+      <c r="E135" s="111" t="s">
         <v>347</v>
       </c>
-      <c r="F135" s="112"/>
+      <c r="F135" s="111"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E136" s="115"/>
-      <c r="F136" s="115"/>
+      <c r="E136" s="112"/>
+      <c r="F136" s="112"/>
       <c r="H136" s="15"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="76" t="s">
+      <c r="B137" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C137" s="76" t="s">
+      <c r="C137" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="D137" s="76" t="s">
+      <c r="D137" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E137" s="76" t="s">
+      <c r="E137" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="F137" s="76" t="s">
+      <c r="F137" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="G137" s="76" t="s">
+      <c r="G137" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="H137" s="76" t="s">
+      <c r="H137" s="75" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="77" t="s">
+      <c r="B138" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C138" s="95" t="s">
+      <c r="C138" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D138" s="96" t="s">
+      <c r="D138" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E138" s="97" t="s">
+      <c r="E138" s="95" t="s">
         <v>348</v>
       </c>
-      <c r="F138" s="96" t="s">
+      <c r="F138" s="94" t="s">
         <v>349</v>
       </c>
       <c r="G138" s="66">
@@ -6073,19 +6067,19 @@
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="78" t="s">
+      <c r="B139" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="C139" s="96" t="s">
+      <c r="C139" s="94" t="s">
         <v>350</v>
       </c>
-      <c r="D139" s="95" t="s">
+      <c r="D139" s="93" t="s">
         <v>351</v>
       </c>
-      <c r="E139" s="97" t="s">
+      <c r="E139" s="95" t="s">
         <v>352</v>
       </c>
-      <c r="F139" s="95" t="s">
+      <c r="F139" s="93" t="s">
         <v>353</v>
       </c>
       <c r="G139" s="66">
@@ -6096,19 +6090,19 @@
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" s="79" t="s">
+      <c r="B140" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C140" s="95" t="s">
+      <c r="C140" s="93" t="s">
         <v>354</v>
       </c>
-      <c r="D140" s="96" t="s">
+      <c r="D140" s="94" t="s">
         <v>355</v>
       </c>
-      <c r="E140" s="98" t="s">
+      <c r="E140" s="96" t="s">
         <v>356</v>
       </c>
-      <c r="F140" s="96" t="s">
+      <c r="F140" s="94" t="s">
         <v>357</v>
       </c>
       <c r="G140" s="59">
@@ -6119,19 +6113,19 @@
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="80" t="s">
+      <c r="B141" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C141" s="96" t="s">
+      <c r="C141" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="D141" s="96" t="s">
+      <c r="D141" s="94" t="s">
         <v>359</v>
       </c>
-      <c r="E141" s="99" t="s">
+      <c r="E141" s="97" t="s">
         <v>360</v>
       </c>
-      <c r="F141" s="95" t="s">
+      <c r="F141" s="93" t="s">
         <v>361</v>
       </c>
       <c r="G141" s="59">
@@ -6142,16 +6136,16 @@
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="81" t="s">
+      <c r="B142" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C142" s="96" t="s">
+      <c r="C142" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="D142" s="95" t="s">
+      <c r="D142" s="93" t="s">
         <v>363</v>
       </c>
-      <c r="E142" s="99" t="s">
+      <c r="E142" s="97" t="s">
         <v>364</v>
       </c>
       <c r="F142" s="59" t="s">
@@ -6165,19 +6159,19 @@
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="83" t="s">
+      <c r="B143" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="96" t="s">
+      <c r="C143" s="94" t="s">
         <v>366</v>
       </c>
-      <c r="D143" s="96" t="s">
+      <c r="D143" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="E143" s="97" t="s">
+      <c r="E143" s="95" t="s">
         <v>464</v>
       </c>
-      <c r="F143" s="96" t="s">
+      <c r="F143" s="94" t="s">
         <v>368</v>
       </c>
       <c r="G143" s="66">
@@ -6188,19 +6182,19 @@
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="82" t="s">
+      <c r="B144" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C144" s="96" t="s">
+      <c r="C144" s="94" t="s">
         <v>369</v>
       </c>
-      <c r="D144" s="96" t="s">
+      <c r="D144" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="E144" s="97" t="s">
+      <c r="E144" s="95" t="s">
         <v>466</v>
       </c>
-      <c r="F144" s="96" t="s">
+      <c r="F144" s="94" t="s">
         <v>370</v>
       </c>
       <c r="G144" s="66">
@@ -6211,19 +6205,19 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="90" t="s">
+      <c r="B145" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="C145" s="96" t="s">
+      <c r="C145" s="94" t="s">
         <v>371</v>
       </c>
-      <c r="D145" s="96" t="s">
+      <c r="D145" s="94" t="s">
         <v>372</v>
       </c>
-      <c r="E145" s="97" t="s">
+      <c r="E145" s="95" t="s">
         <v>373</v>
       </c>
-      <c r="F145" s="96" t="s">
+      <c r="F145" s="94" t="s">
         <v>374</v>
       </c>
       <c r="G145" s="66">
@@ -6234,19 +6228,19 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="89" t="s">
+      <c r="B146" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="C146" s="96" t="s">
+      <c r="C146" s="94" t="s">
         <v>375</v>
       </c>
-      <c r="D146" s="96" t="s">
+      <c r="D146" s="94" t="s">
         <v>376</v>
       </c>
-      <c r="E146" s="97" t="s">
+      <c r="E146" s="95" t="s">
         <v>467</v>
       </c>
-      <c r="F146" s="96" t="s">
+      <c r="F146" s="94" t="s">
         <v>377</v>
       </c>
       <c r="G146" s="66">
@@ -6257,19 +6251,19 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="88" t="s">
+      <c r="B147" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="C147" s="96" t="s">
+      <c r="C147" s="94" t="s">
         <v>378</v>
       </c>
-      <c r="D147" s="96" t="s">
+      <c r="D147" s="94" t="s">
         <v>379</v>
       </c>
-      <c r="E147" s="97" t="s">
+      <c r="E147" s="95" t="s">
         <v>380</v>
       </c>
-      <c r="F147" s="96" t="s">
+      <c r="F147" s="94" t="s">
         <v>381</v>
       </c>
       <c r="G147" s="66">
@@ -6280,19 +6274,19 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="87" t="s">
+      <c r="B148" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C148" s="96" t="s">
+      <c r="C148" s="94" t="s">
         <v>382</v>
       </c>
-      <c r="D148" s="96" t="s">
+      <c r="D148" s="94" t="s">
         <v>383</v>
       </c>
-      <c r="E148" s="97" t="s">
+      <c r="E148" s="95" t="s">
         <v>384</v>
       </c>
-      <c r="F148" s="96" t="s">
+      <c r="F148" s="94" t="s">
         <v>385</v>
       </c>
       <c r="G148" s="66">
@@ -6303,19 +6297,19 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="86" t="s">
+      <c r="B149" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C149" s="96" t="s">
+      <c r="C149" s="94" t="s">
         <v>386</v>
       </c>
-      <c r="D149" s="96" t="s">
+      <c r="D149" s="94" t="s">
         <v>468</v>
       </c>
-      <c r="E149" s="97" t="s">
+      <c r="E149" s="95" t="s">
         <v>387</v>
       </c>
-      <c r="F149" s="96" t="s">
+      <c r="F149" s="94" t="s">
         <v>388</v>
       </c>
       <c r="G149" s="66">
@@ -6326,19 +6320,19 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="85" t="s">
+      <c r="B150" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C150" s="96" t="s">
+      <c r="C150" s="94" t="s">
         <v>389</v>
       </c>
-      <c r="D150" s="96" t="s">
+      <c r="D150" s="94" t="s">
         <v>469</v>
       </c>
-      <c r="E150" s="97" t="s">
+      <c r="E150" s="95" t="s">
         <v>390</v>
       </c>
-      <c r="F150" s="96" t="s">
+      <c r="F150" s="94" t="s">
         <v>391</v>
       </c>
       <c r="G150" s="66">
@@ -6349,19 +6343,19 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="84" t="s">
+      <c r="B151" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C151" s="96" t="s">
+      <c r="C151" s="94" t="s">
         <v>470</v>
       </c>
-      <c r="D151" s="96" t="s">
+      <c r="D151" s="94" t="s">
         <v>471</v>
       </c>
-      <c r="E151" s="97" t="s">
+      <c r="E151" s="95" t="s">
         <v>472</v>
       </c>
-      <c r="F151" s="96" t="s">
+      <c r="F151" s="94" t="s">
         <v>473</v>
       </c>
       <c r="G151" s="66">
@@ -6375,16 +6369,16 @@
       <c r="B152" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C152" s="96" t="s">
+      <c r="C152" s="94" t="s">
         <v>474</v>
       </c>
-      <c r="D152" s="96" t="s">
+      <c r="D152" s="94" t="s">
         <v>475</v>
       </c>
-      <c r="E152" s="97" t="s">
+      <c r="E152" s="95" t="s">
         <v>476</v>
       </c>
-      <c r="F152" s="96" t="s">
+      <c r="F152" s="94" t="s">
         <v>477</v>
       </c>
       <c r="G152" s="59">
@@ -6401,19 +6395,19 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
-    <mergeCell ref="E95:F96"/>
-    <mergeCell ref="E115:F116"/>
-    <mergeCell ref="E135:F136"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="J28:P30"/>
     <mergeCell ref="E75:F76"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="S29:T29"/>
     <mergeCell ref="S30:T30"/>
-    <mergeCell ref="C29:E30"/>
     <mergeCell ref="E54:F55"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="E95:F96"/>
+    <mergeCell ref="E115:F116"/>
+    <mergeCell ref="E135:F136"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6460,69 +6454,69 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="116" t="s">
+      <c r="T4" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="117"/>
+      <c r="U4" s="119"/>
     </row>
     <row r="5" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
       <c r="S5" s="19"/>
-      <c r="T5" s="123" t="s">
+      <c r="T5" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="123"/>
+      <c r="U5" s="122"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="123" t="s">
+      <c r="T6" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="123"/>
+      <c r="U6" s="122"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
     <row r="7" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:42" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="126"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="125"/>
       <c r="K8" s="68" t="s">
         <v>145</v>
       </c>
@@ -6559,7 +6553,7 @@
       <c r="V8" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="W8" s="71" t="s">
+      <c r="W8" s="70" t="s">
         <v>148</v>
       </c>
       <c r="X8" s="66" t="s">
@@ -6568,21 +6562,21 @@
       <c r="Y8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="73"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
     </row>
     <row r="9" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="27"/>
@@ -6605,7 +6599,7 @@
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
-      <c r="AA9" s="73"/>
+      <c r="AA9" s="72"/>
     </row>
     <row r="10" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="27"/>
@@ -6628,7 +6622,7 @@
       <c r="W10" s="18"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="18"/>
-      <c r="AA10" s="73"/>
+      <c r="AA10" s="72"/>
     </row>
     <row r="11" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
@@ -6651,7 +6645,7 @@
       <c r="W11" s="18"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="18"/>
-      <c r="AA11" s="73"/>
+      <c r="AA11" s="72"/>
     </row>
     <row r="12" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="27"/>
@@ -6674,7 +6668,7 @@
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="18"/>
-      <c r="AA12" s="73"/>
+      <c r="AA12" s="72"/>
     </row>
     <row r="13" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="27"/>
@@ -6697,7 +6691,7 @@
       <c r="W13" s="18"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="18"/>
-      <c r="AA13" s="73"/>
+      <c r="AA13" s="72"/>
     </row>
     <row r="14" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="27"/>
@@ -6737,18 +6731,18 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="72"/>
+      <c r="T15" s="71"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="18"/>
-      <c r="AA15" s="73"/>
+      <c r="AA15" s="72"/>
     </row>
     <row r="16" spans="3:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="J16" s="70" t="s">
+      <c r="J16" s="69" t="s">
         <v>74</v>
       </c>
       <c r="K16" s="18"/>
@@ -6789,7 +6783,7 @@
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="18"/>
-      <c r="AA17" s="73"/>
+      <c r="AA17" s="72"/>
     </row>
     <row r="18" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="27"/>
@@ -6803,7 +6797,7 @@
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="72"/>
+      <c r="Q18" s="71"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
       <c r="T18" s="21"/>
@@ -6812,12 +6806,12 @@
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
-      <c r="AA18" s="73"/>
+      <c r="AA18" s="72"/>
     </row>
     <row r="19" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="J19" s="70" t="s">
+      <c r="J19" s="69" t="s">
         <v>75</v>
       </c>
       <c r="K19" s="18"/>
@@ -6858,12 +6852,12 @@
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="18"/>
-      <c r="AA20" s="73"/>
+      <c r="AA20" s="72"/>
     </row>
     <row r="21" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="70" t="s">
         <v>148</v>
       </c>
       <c r="K21" s="18"/>
@@ -6881,7 +6875,7 @@
       <c r="W21" s="21"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
-      <c r="AA21" s="74"/>
+      <c r="AA21" s="73"/>
     </row>
     <row r="22" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="27"/>
@@ -6904,7 +6898,7 @@
       <c r="W22" s="18"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="18"/>
-      <c r="AA22" s="73"/>
+      <c r="AA22" s="72"/>
     </row>
     <row r="23" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="27"/>
@@ -6927,7 +6921,7 @@
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="21"/>
-      <c r="AA23" s="73"/>
+      <c r="AA23" s="72"/>
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="27"/>

--- a/Diseño/ProyectoRedes.xlsx
+++ b/Diseño/ProyectoRedes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\PROYECTO REDES\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E53472-BA7F-45A3-8B24-AF48FA3EA756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309592A8-8B03-4C09-8CF3-826485AC1238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
   </bookViews>
@@ -2099,7 +2099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2404,9 +2404,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2416,24 +2434,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2445,27 +2445,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2852,7 +2831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
   <dimension ref="A2:Y152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
@@ -2866,46 +2845,46 @@
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="22.140625" customWidth="1"/>
     <col min="9" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
     <col min="18" max="18" width="14.140625" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
     <col min="21" max="21" width="12.5703125" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="113"/>
+      <c r="C5" s="119"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2920,10 +2899,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="115"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="2">
         <f>80+82+80</f>
         <v>242</v>
@@ -3163,8 +3142,8 @@
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
     </row>
     <row r="18" spans="2:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
@@ -3328,65 +3307,65 @@
     </row>
     <row r="28" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="17"/>
-      <c r="J28" s="117" t="s">
+      <c r="J28" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="117"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="118" t="s">
+      <c r="S28" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="T28" s="119"/>
+      <c r="T28" s="116"/>
     </row>
     <row r="29" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="117"/>
-      <c r="N29" s="117"/>
-      <c r="O29" s="117"/>
-      <c r="P29" s="117"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="19"/>
-      <c r="S29" s="120" t="s">
+      <c r="S29" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="121"/>
+      <c r="T29" s="118"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="117"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="120" t="s">
+      <c r="S30" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="T30" s="121"/>
+      <c r="T30" s="118"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
     </row>
@@ -3407,28 +3386,28 @@
       <c r="G32" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="J32" s="127" t="s">
+      <c r="J32" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="127" t="s">
+      <c r="K32" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="127" t="s">
+      <c r="L32" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="M32" s="127" t="s">
+      <c r="M32" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="N32" s="127" t="s">
+      <c r="N32" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="O32" s="127" t="s">
+      <c r="O32" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="P32" s="127" t="s">
+      <c r="P32" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="Q32" s="127" t="s">
+      <c r="Q32" s="66" t="s">
         <v>74</v>
       </c>
       <c r="R32" s="66" t="s">
@@ -3437,13 +3416,13 @@
       <c r="S32" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="T32" s="127" t="s">
+      <c r="T32" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="U32" s="127" t="s">
+      <c r="U32" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="V32" s="132" t="s">
+      <c r="V32" s="23" t="s">
         <v>148</v>
       </c>
       <c r="W32" s="66" t="s">
@@ -3473,7 +3452,7 @@
         <v>397</v>
       </c>
       <c r="H33" s="15"/>
-      <c r="I33" s="127" t="s">
+      <c r="I33" s="66" t="s">
         <v>145</v>
       </c>
       <c r="J33" s="21"/>
@@ -3510,7 +3489,7 @@
         <v>398</v>
       </c>
       <c r="H34" s="15"/>
-      <c r="I34" s="127" t="s">
+      <c r="I34" s="66" t="s">
         <v>71</v>
       </c>
       <c r="J34" s="18"/>
@@ -3547,7 +3526,7 @@
         <v>403</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="I35" s="127" t="s">
+      <c r="I35" s="66" t="s">
         <v>72</v>
       </c>
       <c r="J35" s="18"/>
@@ -3584,7 +3563,7 @@
         <v>395</v>
       </c>
       <c r="H36" s="15"/>
-      <c r="I36" s="127" t="s">
+      <c r="I36" s="66" t="s">
         <v>76</v>
       </c>
       <c r="J36" s="18"/>
@@ -3621,7 +3600,7 @@
         <v>400</v>
       </c>
       <c r="H37" s="15"/>
-      <c r="I37" s="127" t="s">
+      <c r="I37" s="66" t="s">
         <v>73</v>
       </c>
       <c r="J37" s="18"/>
@@ -3658,7 +3637,7 @@
         <v>406</v>
       </c>
       <c r="H38" s="15"/>
-      <c r="I38" s="131" t="s">
+      <c r="I38" s="59" t="s">
         <v>77</v>
       </c>
       <c r="J38" s="18"/>
@@ -3695,7 +3674,7 @@
         <v>405</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="127" t="s">
+      <c r="I39" s="66" t="s">
         <v>78</v>
       </c>
       <c r="J39" s="18"/>
@@ -3719,10 +3698,10 @@
       <c r="B40" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="127" t="s">
+      <c r="C40" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="128" t="s">
+      <c r="D40" s="62" t="s">
         <v>94</v>
       </c>
       <c r="E40" s="62">
@@ -3732,7 +3711,7 @@
         <v>392</v>
       </c>
       <c r="H40" s="15"/>
-      <c r="I40" s="131" t="s">
+      <c r="I40" s="59" t="s">
         <v>74</v>
       </c>
       <c r="J40" s="18"/>
@@ -3756,10 +3735,10 @@
       <c r="B41" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="127" t="s">
+      <c r="C41" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="128" t="s">
+      <c r="D41" s="62" t="s">
         <v>147</v>
       </c>
       <c r="E41" s="62">
@@ -3769,7 +3748,7 @@
         <v>402</v>
       </c>
       <c r="H41" s="15"/>
-      <c r="I41" s="127" t="s">
+      <c r="I41" s="66" t="s">
         <v>79</v>
       </c>
       <c r="J41" s="18"/>
@@ -3796,10 +3775,10 @@
       <c r="B42" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="129" t="s">
+      <c r="C42" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="128" t="s">
+      <c r="D42" s="62" t="s">
         <v>149</v>
       </c>
       <c r="E42" s="62">
@@ -3833,10 +3812,10 @@
       <c r="B43" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="129" t="s">
+      <c r="C43" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="129" t="s">
+      <c r="D43" s="23" t="s">
         <v>178</v>
       </c>
       <c r="E43" s="23">
@@ -3844,7 +3823,7 @@
       </c>
       <c r="G43" s="92"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="131" t="s">
+      <c r="I43" s="59" t="s">
         <v>75</v>
       </c>
       <c r="J43" s="18"/>
@@ -3868,10 +3847,10 @@
       <c r="B44" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="127" t="s">
+      <c r="C44" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="128" t="s">
+      <c r="D44" s="62" t="s">
         <v>96</v>
       </c>
       <c r="E44" s="62">
@@ -3881,7 +3860,7 @@
         <v>393</v>
       </c>
       <c r="H44" s="15"/>
-      <c r="I44" s="127" t="s">
+      <c r="I44" s="66" t="s">
         <v>80</v>
       </c>
       <c r="J44" s="18"/>
@@ -3905,10 +3884,10 @@
       <c r="B45" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="127" t="s">
+      <c r="C45" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="128" t="s">
+      <c r="D45" s="62" t="s">
         <v>98</v>
       </c>
       <c r="E45" s="62">
@@ -3918,7 +3897,7 @@
         <v>394</v>
       </c>
       <c r="H45" s="15"/>
-      <c r="I45" s="132" t="s">
+      <c r="I45" s="23" t="s">
         <v>148</v>
       </c>
       <c r="J45" s="18"/>
@@ -3942,10 +3921,10 @@
       <c r="B46" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="127" t="s">
+      <c r="C46" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="128" t="s">
+      <c r="D46" s="62" t="s">
         <v>103</v>
       </c>
       <c r="E46" s="62">
@@ -3979,10 +3958,10 @@
       <c r="B47" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="127" t="s">
+      <c r="C47" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="130" t="s">
+      <c r="D47" s="61" t="s">
         <v>146</v>
       </c>
       <c r="E47" s="62">
@@ -4070,8 +4049,8 @@
       <c r="F54" s="111"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
@@ -4868,8 +4847,8 @@
       <c r="L75" s="25"/>
     </row>
     <row r="76" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="112"/>
-      <c r="F76" s="112"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="114"/>
       <c r="H76" s="15"/>
       <c r="I76" s="25"/>
       <c r="K76" s="24"/>
@@ -5258,8 +5237,8 @@
       <c r="F95" s="111"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E96" s="112"/>
-      <c r="F96" s="112"/>
+      <c r="E96" s="114"/>
+      <c r="F96" s="114"/>
       <c r="H96" s="15"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -5637,8 +5616,8 @@
       <c r="F115" s="111"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E116" s="112"/>
-      <c r="F116" s="112"/>
+      <c r="E116" s="114"/>
+      <c r="F116" s="114"/>
       <c r="H116" s="15"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
@@ -6016,8 +5995,8 @@
       <c r="F135" s="111"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E136" s="112"/>
-      <c r="F136" s="112"/>
+      <c r="E136" s="114"/>
+      <c r="F136" s="114"/>
       <c r="H136" s="15"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
@@ -6395,6 +6374,11 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="E95:F96"/>
+    <mergeCell ref="E115:F116"/>
+    <mergeCell ref="E135:F136"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="J28:P30"/>
     <mergeCell ref="E75:F76"/>
@@ -6403,11 +6387,6 @@
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="E54:F55"/>
     <mergeCell ref="B29:E30"/>
-    <mergeCell ref="E95:F96"/>
-    <mergeCell ref="E115:F116"/>
-    <mergeCell ref="E135:F136"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6454,33 +6433,33 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="118" t="s">
+      <c r="T4" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="119"/>
+      <c r="U4" s="116"/>
     </row>
     <row r="5" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
       <c r="S5" s="19"/>
       <c r="T5" s="122" t="s">
         <v>84</v>
@@ -6490,15 +6469,15 @@
       <c r="W5" s="16"/>
     </row>
     <row r="6" spans="3:42" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
       <c r="S6" s="22"/>
       <c r="T6" s="122" t="s">
         <v>85</v>

--- a/Diseño/ProyectoRedes.xlsx
+++ b/Diseño/ProyectoRedes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\PROYECTO REDES\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309592A8-8B03-4C09-8CF3-826485AC1238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEE9DE1-2C67-4DDB-BA9D-3AF8C2262598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="499">
   <si>
     <t>192.168.0.0</t>
   </si>
@@ -1338,18 +1338,6 @@
     <t>192.168.2.151</t>
   </si>
   <si>
-    <t>192.168.2.152</t>
-  </si>
-  <si>
-    <t>192.168.2.153 </t>
-  </si>
-  <si>
-    <t>192.168.2.154</t>
-  </si>
-  <si>
-    <t>192.168.2.155</t>
-  </si>
-  <si>
     <t>192.168.4.118</t>
   </si>
   <si>
@@ -1380,18 +1368,6 @@
     <t>192.168.4.151</t>
   </si>
   <si>
-    <t>192.168.4.152</t>
-  </si>
-  <si>
-    <t>192.168.4.153 </t>
-  </si>
-  <si>
-    <t>192.168.4.154</t>
-  </si>
-  <si>
-    <t>192.168.4.155</t>
-  </si>
-  <si>
     <t>192.168.6.118</t>
   </si>
   <si>
@@ -1422,18 +1398,6 @@
     <t>192.168.6.151</t>
   </si>
   <si>
-    <t>192.168.6.152</t>
-  </si>
-  <si>
-    <t>192.168.6.153 </t>
-  </si>
-  <si>
-    <t>192.168.6.154</t>
-  </si>
-  <si>
-    <t>192.168.6.155</t>
-  </si>
-  <si>
     <t>192.168.8.118</t>
   </si>
   <si>
@@ -1464,18 +1428,6 @@
     <t>192.168.8.151</t>
   </si>
   <si>
-    <t>192.168.8.152</t>
-  </si>
-  <si>
-    <t>192.168.8.153 </t>
-  </si>
-  <si>
-    <t>192.168.8.154</t>
-  </si>
-  <si>
-    <t>192.168.8.155</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -1525,6 +1477,66 @@
   </si>
   <si>
     <t>O 210 de 2</t>
+  </si>
+  <si>
+    <t>192.168.0.160</t>
+  </si>
+  <si>
+    <t>192.168.0.161</t>
+  </si>
+  <si>
+    <t>192.168.0.174</t>
+  </si>
+  <si>
+    <t>192.168.0.175</t>
+  </si>
+  <si>
+    <t>192.168.2.160</t>
+  </si>
+  <si>
+    <t>192.168.2.161</t>
+  </si>
+  <si>
+    <t>192.168.2.174</t>
+  </si>
+  <si>
+    <t>192.168.2.175</t>
+  </si>
+  <si>
+    <t>192.168.4.160</t>
+  </si>
+  <si>
+    <t>192.168.4.161</t>
+  </si>
+  <si>
+    <t>192.168.4.174</t>
+  </si>
+  <si>
+    <t>192.168.4.175</t>
+  </si>
+  <si>
+    <t>192.168.6.160</t>
+  </si>
+  <si>
+    <t>192.168.6.161</t>
+  </si>
+  <si>
+    <t>192.168.6.174</t>
+  </si>
+  <si>
+    <t>192.168.6.175</t>
+  </si>
+  <si>
+    <t>192.168.8.160</t>
+  </si>
+  <si>
+    <t>192.168.8.161</t>
+  </si>
+  <si>
+    <t>192.168.8.174</t>
+  </si>
+  <si>
+    <t>192.168.8.175</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2444,6 +2456,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2831,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
   <dimension ref="A2:Y152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T62" sqref="T62"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,7 +2862,7 @@
     <col min="9" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" customWidth="1"/>
@@ -2921,11 +2936,11 @@
     </row>
     <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J7" s="15" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="K7" s="15"/>
       <c r="M7" s="15" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2974,13 +2989,13 @@
         <v>512</v>
       </c>
       <c r="J9" s="108" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="M9" s="59" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3007,11 +3022,11 @@
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="109" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="K10" s="59"/>
       <c r="M10" s="109" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3037,13 +3052,13 @@
         <v>512</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="K11" s="59" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N11" s="74"/>
       <c r="O11" s="11"/>
@@ -3074,13 +3089,13 @@
         <v>512</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="K12" s="59" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="N12" s="74"/>
       <c r="O12" s="11"/>
@@ -3187,7 +3202,7 @@
         <v>69</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
@@ -3210,7 +3225,7 @@
         <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
@@ -3233,7 +3248,7 @@
         <v>69</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3256,7 +3271,7 @@
         <v>69</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3279,7 +3294,7 @@
         <v>69</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4076,7 +4091,7 @@
         <v>167</v>
       </c>
       <c r="J56" s="104" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="K56" s="75" t="s">
         <v>161</v>
@@ -4777,22 +4792,22 @@
         <v>176</v>
       </c>
       <c r="C71" s="94" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="D71" s="94" t="s">
-        <v>415</v>
-      </c>
-      <c r="E71" s="95" t="s">
-        <v>419</v>
+        <v>480</v>
+      </c>
+      <c r="E71" s="94" t="s">
+        <v>481</v>
       </c>
       <c r="F71" s="94" t="s">
-        <v>420</v>
-      </c>
-      <c r="G71" s="59">
-        <v>1</v>
-      </c>
-      <c r="H71" s="59" t="s">
-        <v>69</v>
+        <v>482</v>
+      </c>
+      <c r="G71" s="66">
+        <v>16</v>
+      </c>
+      <c r="H71" s="126" t="s">
+        <v>185</v>
       </c>
       <c r="I71" s="24"/>
       <c r="J71" s="73">
@@ -4821,7 +4836,6 @@
       </c>
     </row>
     <row r="72" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H72" s="24"/>
       <c r="I72" s="25"/>
       <c r="K72" s="24"/>
       <c r="L72" s="25"/>
@@ -5207,27 +5221,27 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C92" s="94" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="D92" s="94" t="s">
-        <v>433</v>
-      </c>
-      <c r="E92" s="95" t="s">
-        <v>434</v>
+        <v>484</v>
+      </c>
+      <c r="E92" s="94" t="s">
+        <v>485</v>
       </c>
       <c r="F92" s="94" t="s">
-        <v>435</v>
-      </c>
-      <c r="G92" s="59">
-        <v>1</v>
-      </c>
-      <c r="H92" s="59" t="s">
-        <v>69</v>
+        <v>486</v>
+      </c>
+      <c r="G92" s="66">
+        <v>16</v>
+      </c>
+      <c r="H92" s="126" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -5390,7 +5404,7 @@
         <v>277</v>
       </c>
       <c r="E103" s="95" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F103" s="94" t="s">
         <v>278</v>
@@ -5410,10 +5424,10 @@
         <v>279</v>
       </c>
       <c r="D104" s="94" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E104" s="95" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F104" s="94" t="s">
         <v>280</v>
@@ -5459,7 +5473,7 @@
         <v>286</v>
       </c>
       <c r="E106" s="95" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F106" s="94" t="s">
         <v>287</v>
@@ -5525,7 +5539,7 @@
         <v>296</v>
       </c>
       <c r="D109" s="94" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E109" s="95" t="s">
         <v>297</v>
@@ -5548,7 +5562,7 @@
         <v>299</v>
       </c>
       <c r="D110" s="94" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E110" s="95" t="s">
         <v>300</v>
@@ -5568,16 +5582,16 @@
         <v>121</v>
       </c>
       <c r="C111" s="94" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D111" s="94" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E111" s="95" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F111" s="94" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G111" s="66">
         <v>1</v>
@@ -5586,27 +5600,27 @@
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C112" s="94" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="D112" s="94" t="s">
-        <v>447</v>
-      </c>
-      <c r="E112" s="95" t="s">
-        <v>448</v>
+        <v>488</v>
+      </c>
+      <c r="E112" s="94" t="s">
+        <v>489</v>
       </c>
       <c r="F112" s="94" t="s">
-        <v>449</v>
-      </c>
-      <c r="G112" s="59">
-        <v>1</v>
-      </c>
-      <c r="H112" s="59" t="s">
-        <v>69</v>
+        <v>490</v>
+      </c>
+      <c r="G112" s="66">
+        <v>16</v>
+      </c>
+      <c r="H112" s="126" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
@@ -5769,7 +5783,7 @@
         <v>322</v>
       </c>
       <c r="E123" s="95" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F123" s="94" t="s">
         <v>323</v>
@@ -5789,10 +5803,10 @@
         <v>324</v>
       </c>
       <c r="D124" s="94" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E124" s="95" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F124" s="94" t="s">
         <v>325</v>
@@ -5838,7 +5852,7 @@
         <v>331</v>
       </c>
       <c r="E126" s="95" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F126" s="94" t="s">
         <v>332</v>
@@ -5904,7 +5918,7 @@
         <v>341</v>
       </c>
       <c r="D129" s="94" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E129" s="95" t="s">
         <v>342</v>
@@ -5927,7 +5941,7 @@
         <v>344</v>
       </c>
       <c r="D130" s="94" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E130" s="95" t="s">
         <v>345</v>
@@ -5947,16 +5961,16 @@
         <v>121</v>
       </c>
       <c r="C131" s="94" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D131" s="94" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E131" s="95" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F131" s="94" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G131" s="66">
         <v>1</v>
@@ -5965,27 +5979,27 @@
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C132" s="94" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="D132" s="94" t="s">
-        <v>461</v>
-      </c>
-      <c r="E132" s="95" t="s">
-        <v>462</v>
+        <v>492</v>
+      </c>
+      <c r="E132" s="94" t="s">
+        <v>493</v>
       </c>
       <c r="F132" s="94" t="s">
-        <v>463</v>
-      </c>
-      <c r="G132" s="59">
-        <v>1</v>
-      </c>
-      <c r="H132" s="59" t="s">
-        <v>69</v>
+        <v>494</v>
+      </c>
+      <c r="G132" s="66">
+        <v>16</v>
+      </c>
+      <c r="H132" s="126" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
@@ -6148,7 +6162,7 @@
         <v>367</v>
       </c>
       <c r="E143" s="95" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F143" s="94" t="s">
         <v>368</v>
@@ -6168,10 +6182,10 @@
         <v>369</v>
       </c>
       <c r="D144" s="94" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E144" s="95" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F144" s="94" t="s">
         <v>370</v>
@@ -6217,7 +6231,7 @@
         <v>376</v>
       </c>
       <c r="E146" s="95" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F146" s="94" t="s">
         <v>377</v>
@@ -6283,7 +6297,7 @@
         <v>386</v>
       </c>
       <c r="D149" s="94" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E149" s="95" t="s">
         <v>387</v>
@@ -6306,7 +6320,7 @@
         <v>389</v>
       </c>
       <c r="D150" s="94" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E150" s="95" t="s">
         <v>390</v>
@@ -6326,16 +6340,16 @@
         <v>121</v>
       </c>
       <c r="C151" s="94" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D151" s="94" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E151" s="95" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F151" s="94" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="G151" s="66">
         <v>1</v>
@@ -6344,27 +6358,27 @@
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C152" s="94" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="D152" s="94" t="s">
-        <v>475</v>
-      </c>
-      <c r="E152" s="95" t="s">
-        <v>476</v>
+        <v>496</v>
+      </c>
+      <c r="E152" s="94" t="s">
+        <v>497</v>
       </c>
       <c r="F152" s="94" t="s">
-        <v>477</v>
-      </c>
-      <c r="G152" s="59">
-        <v>1</v>
-      </c>
-      <c r="H152" s="59" t="s">
-        <v>69</v>
+        <v>498</v>
+      </c>
+      <c r="G152" s="66">
+        <v>16</v>
+      </c>
+      <c r="H152" s="126" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Diseño/ProyectoRedes.xlsx
+++ b/Diseño/ProyectoRedes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo_\Documents\PROYECTO REDES\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D75161-6A8F-4AA0-A069-56A097AB9277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B2473E-B3F2-4AAF-9AEA-BBF04A6A7F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{53B3A9C0-512B-4520-BD87-E071D9525003}"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECCIONAMIENTO_GPP" sheetId="1" r:id="rId1"/>
@@ -2620,7 +2620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2831,12 +2831,55 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2846,62 +2889,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3233,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0819F73E-3536-4D34-9E0B-51FD655C1870}">
   <dimension ref="A2:Y152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,29 +3256,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3301,10 +3293,10 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="2">
         <f>80+82+80</f>
         <v>242</v>
@@ -3709,65 +3701,65 @@
     </row>
     <row r="28" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="17"/>
-      <c r="J28" s="82" t="s">
+      <c r="J28" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="83" t="s">
+      <c r="S28" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="T28" s="84"/>
+      <c r="T28" s="90"/>
     </row>
     <row r="29" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="19"/>
-      <c r="S29" s="85" t="s">
+      <c r="S29" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="T29" s="86"/>
+      <c r="T29" s="92"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="85" t="s">
+      <c r="S30" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="T30" s="86"/>
+      <c r="T30" s="92"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
     </row>
@@ -4445,14 +4437,14 @@
       <c r="B52" s="28"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E54" s="76" t="s">
+      <c r="E54" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="F54" s="76"/>
+      <c r="F54" s="85"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
@@ -5240,16 +5232,16 @@
       <c r="L74" s="25"/>
     </row>
     <row r="75" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="76" t="s">
+      <c r="E75" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="F75" s="76"/>
+      <c r="F75" s="85"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
     </row>
     <row r="76" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
       <c r="H76" s="15"/>
       <c r="I76" s="25"/>
       <c r="K76" s="24"/>
@@ -5632,14 +5624,14 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E95" s="76" t="s">
+      <c r="E95" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="F95" s="76"/>
+      <c r="F95" s="85"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
       <c r="H96" s="15"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -6011,14 +6003,14 @@
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E115" s="76" t="s">
+      <c r="E115" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="F115" s="76"/>
+      <c r="F115" s="85"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E116" s="77"/>
-      <c r="F116" s="77"/>
+      <c r="E116" s="88"/>
+      <c r="F116" s="88"/>
       <c r="H116" s="15"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
@@ -6390,14 +6382,14 @@
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E135" s="76" t="s">
+      <c r="E135" s="85" t="s">
         <v>331</v>
       </c>
-      <c r="F135" s="76"/>
+      <c r="F135" s="85"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E136" s="77"/>
-      <c r="F136" s="77"/>
+      <c r="E136" s="88"/>
+      <c r="F136" s="88"/>
       <c r="H136" s="15"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
@@ -6775,6 +6767,11 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="E95:F96"/>
+    <mergeCell ref="E115:F116"/>
+    <mergeCell ref="E135:F136"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="J28:P30"/>
     <mergeCell ref="E75:F76"/>
@@ -6783,11 +6780,6 @@
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="E54:F55"/>
     <mergeCell ref="B29:E30"/>
-    <mergeCell ref="E95:F96"/>
-    <mergeCell ref="E115:F116"/>
-    <mergeCell ref="E135:F136"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6819,18 +6811,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="96" t="s">
         <v>517</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
     </row>
     <row r="3" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C3" s="13" t="s">
@@ -6915,9 +6907,6 @@
       <c r="F8" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="87"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
@@ -6947,9 +6936,6 @@
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
       <c r="K9" s="36"/>
     </row>
     <row r="10" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6965,9 +6951,6 @@
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
       <c r="K10" s="36"/>
     </row>
     <row r="11" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6983,9 +6966,6 @@
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
       <c r="K11" s="36"/>
     </row>
     <row r="12" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7001,9 +6981,6 @@
       <c r="F12" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
       <c r="K12" s="36"/>
     </row>
     <row r="13" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7019,9 +6996,6 @@
       <c r="F13" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
       <c r="K13" s="36"/>
     </row>
     <row r="14" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7037,9 +7011,6 @@
       <c r="F14" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7055,9 +7026,6 @@
       <c r="F15" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
       <c r="K15" s="36"/>
     </row>
     <row r="16" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7073,9 +7041,6 @@
       <c r="F16" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
       <c r="K16" s="27"/>
     </row>
     <row r="17" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7091,9 +7056,6 @@
       <c r="F17" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
       <c r="K17" s="36"/>
     </row>
     <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7109,9 +7071,6 @@
       <c r="F18" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
       <c r="K18" s="36"/>
     </row>
     <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7127,9 +7086,6 @@
       <c r="F19" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7145,9 +7101,6 @@
       <c r="F20" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
       <c r="K20" s="36"/>
     </row>
     <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7163,9 +7116,6 @@
       <c r="F21" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
       <c r="K21" s="37"/>
     </row>
     <row r="22" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7181,9 +7131,6 @@
       <c r="F22" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
       <c r="K22" s="36"/>
     </row>
     <row r="23" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7199,298 +7146,195 @@
       <c r="F23" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
       <c r="K23" s="36"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-    </row>
     <row r="33" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
     </row>
     <row r="35" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
     </row>
     <row r="36" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="88"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
     </row>
     <row r="37" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
     </row>
     <row r="38" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
     </row>
     <row r="39" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
     </row>
     <row r="40" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
     </row>
     <row r="41" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
     </row>
     <row r="42" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
     </row>
     <row r="43" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
     </row>
     <row r="44" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
     </row>
     <row r="45" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
     </row>
     <row r="46" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
     </row>
     <row r="47" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
     </row>
     <row r="48" spans="3:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
     </row>
     <row r="49" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
     </row>
     <row r="50" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
     </row>
     <row r="51" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
     </row>
     <row r="52" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
     </row>
     <row r="53" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
     </row>
     <row r="54" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
+      <c r="F54" s="15"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
     </row>
     <row r="55" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
+      <c r="F55" s="15"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F56" s="15"/>
@@ -7528,20 +7372,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="96" t="s">
         <v>727</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" s="13" t="s">
@@ -7565,1089 +7409,1089 @@
       <c r="I3" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="J3" s="100"/>
+      <c r="J3" s="83"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="84" t="s">
         <v>525</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="84" t="s">
         <v>526</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="84" t="s">
         <v>527</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="84" t="s">
         <v>528</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="84" t="s">
         <v>529</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="84" t="s">
         <v>530</v>
       </c>
-      <c r="J4" s="100"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="84" t="s">
         <v>531</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="84" t="s">
         <v>532</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="84" t="s">
         <v>533</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="84" t="s">
         <v>534</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101" t="s">
+      <c r="G5" s="84"/>
+      <c r="H5" s="84" t="s">
         <v>529</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="84" t="s">
         <v>535</v>
       </c>
-      <c r="J5" s="100"/>
+      <c r="J5" s="83"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="84" t="s">
         <v>536</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="84" t="s">
         <v>537</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="84" t="s">
         <v>538</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101" t="s">
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84" t="s">
         <v>529</v>
       </c>
-      <c r="I6" s="101" t="s">
+      <c r="I6" s="84" t="s">
         <v>539</v>
       </c>
-      <c r="J6" s="100"/>
+      <c r="J6" s="83"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="84" t="s">
         <v>540</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="84" t="s">
         <v>541</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="84" t="s">
         <v>542</v>
       </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101" t="s">
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84" t="s">
         <v>529</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="84" t="s">
         <v>543</v>
       </c>
-      <c r="J7" s="100"/>
+      <c r="J7" s="83"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="84" t="s">
         <v>544</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="84" t="s">
         <v>545</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="84" t="s">
         <v>546</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101" t="s">
+      <c r="G8" s="84"/>
+      <c r="H8" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="J8" s="100"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="84" t="s">
         <v>550</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="84" t="s">
         <v>551</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="84" t="s">
         <v>552</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="84" t="s">
         <v>553</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101" t="s">
+      <c r="G9" s="84"/>
+      <c r="H9" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="I9" s="101" t="s">
+      <c r="I9" s="84" t="s">
         <v>554</v>
       </c>
-      <c r="J9" s="100"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="84" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="84" t="s">
         <v>556</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="84" t="s">
         <v>528</v>
       </c>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="84" t="s">
         <v>557</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101" t="s">
+      <c r="G10" s="84"/>
+      <c r="H10" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="I10" s="101" t="s">
+      <c r="I10" s="84" t="s">
         <v>558</v>
       </c>
-      <c r="J10" s="100"/>
+      <c r="J10" s="83"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="84" t="s">
         <v>559</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="84" t="s">
         <v>560</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="84" t="s">
         <v>561</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="84" t="s">
         <v>562</v>
       </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101" t="s">
+      <c r="G11" s="84"/>
+      <c r="H11" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="I11" s="101" t="s">
+      <c r="I11" s="84" t="s">
         <v>563</v>
       </c>
-      <c r="J11" s="100"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="84" t="s">
         <v>564</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="84" t="s">
         <v>540</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="84" t="s">
         <v>565</v>
       </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101" t="s">
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="I12" s="101" t="s">
+      <c r="I12" s="84" t="s">
         <v>566</v>
       </c>
-      <c r="J12" s="100"/>
+      <c r="J12" s="83"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="84" t="s">
         <v>567</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="84" t="s">
         <v>568</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="84" t="s">
         <v>562</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="84" t="s">
         <v>569</v>
       </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101" t="s">
+      <c r="G13" s="84"/>
+      <c r="H13" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="I13" s="101" t="s">
+      <c r="I13" s="84" t="s">
         <v>570</v>
       </c>
-      <c r="J13" s="100"/>
+      <c r="J13" s="83"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="84" t="s">
         <v>571</v>
       </c>
-      <c r="D14" s="101" t="s">
+      <c r="D14" s="84" t="s">
         <v>572</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="84" t="s">
         <v>573</v>
       </c>
-      <c r="F14" s="101" t="s">
+      <c r="F14" s="84" t="s">
         <v>574</v>
       </c>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101" t="s">
+      <c r="G14" s="84"/>
+      <c r="H14" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="I14" s="101" t="s">
+      <c r="I14" s="84" t="s">
         <v>575</v>
       </c>
-      <c r="J14" s="100"/>
+      <c r="J14" s="83"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="84" t="s">
         <v>576</v>
       </c>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="84" t="s">
         <v>577</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="84" t="s">
         <v>578</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101" t="s">
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="101" t="s">
+      <c r="I15" s="84" t="s">
         <v>579</v>
       </c>
-      <c r="J15" s="100"/>
+      <c r="J15" s="83"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="84" t="s">
         <v>536</v>
       </c>
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="84" t="s">
         <v>580</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="84" t="s">
         <v>581</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101" t="s">
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="101" t="s">
+      <c r="I16" s="84" t="s">
         <v>582</v>
       </c>
-      <c r="J16" s="100"/>
+      <c r="J16" s="83"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="84" t="s">
         <v>583</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="84" t="s">
         <v>584</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="84" t="s">
         <v>527</v>
       </c>
-      <c r="F17" s="101" t="s">
+      <c r="F17" s="84" t="s">
         <v>585</v>
       </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101" t="s">
+      <c r="G17" s="84"/>
+      <c r="H17" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="101" t="s">
+      <c r="I17" s="84" t="s">
         <v>586</v>
       </c>
-      <c r="J17" s="100"/>
+      <c r="J17" s="83"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="84" t="s">
         <v>587</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="84" t="s">
         <v>588</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="84" t="s">
         <v>589</v>
       </c>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="84" t="s">
         <v>590</v>
       </c>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101" t="s">
+      <c r="G18" s="84"/>
+      <c r="H18" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="101" t="s">
+      <c r="I18" s="84" t="s">
         <v>591</v>
       </c>
-      <c r="J18" s="100"/>
+      <c r="J18" s="83"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="84" t="s">
         <v>592</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="84" t="s">
         <v>593</v>
       </c>
-      <c r="E19" s="101" t="s">
+      <c r="E19" s="84" t="s">
         <v>594</v>
       </c>
-      <c r="F19" s="101" t="s">
+      <c r="F19" s="84" t="s">
         <v>595</v>
       </c>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101" t="s">
+      <c r="G19" s="84"/>
+      <c r="H19" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="101" t="s">
+      <c r="I19" s="84" t="s">
         <v>596</v>
       </c>
-      <c r="J19" s="100"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="84" t="s">
         <v>597</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="84" t="s">
         <v>598</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="84" t="s">
         <v>599</v>
       </c>
-      <c r="F20" s="101" t="s">
+      <c r="F20" s="84" t="s">
         <v>600</v>
       </c>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101" t="s">
+      <c r="G20" s="84"/>
+      <c r="H20" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="101" t="s">
+      <c r="I20" s="84" t="s">
         <v>601</v>
       </c>
-      <c r="J20" s="100"/>
+      <c r="J20" s="83"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="84" t="s">
         <v>602</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="84" t="s">
         <v>597</v>
       </c>
-      <c r="E21" s="101" t="s">
+      <c r="E21" s="84" t="s">
         <v>603</v>
       </c>
-      <c r="F21" s="101" t="s">
+      <c r="F21" s="84" t="s">
         <v>604</v>
       </c>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101" t="s">
+      <c r="G21" s="84"/>
+      <c r="H21" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="101" t="s">
+      <c r="I21" s="84" t="s">
         <v>605</v>
       </c>
-      <c r="J21" s="100"/>
+      <c r="J21" s="83"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="84" t="s">
         <v>606</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="84" t="s">
         <v>607</v>
       </c>
-      <c r="E22" s="101" t="s">
+      <c r="E22" s="84" t="s">
         <v>569</v>
       </c>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101" t="s">
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="101" t="s">
+      <c r="I22" s="84" t="s">
         <v>608</v>
       </c>
-      <c r="J22" s="100"/>
+      <c r="J22" s="83"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="84" t="s">
         <v>609</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="84" t="s">
         <v>610</v>
       </c>
-      <c r="E23" s="101" t="s">
+      <c r="E23" s="84" t="s">
         <v>611</v>
       </c>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101" t="s">
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="101" t="s">
+      <c r="I23" s="84" t="s">
         <v>612</v>
       </c>
-      <c r="J23" s="100"/>
+      <c r="J23" s="83"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="84" t="s">
         <v>613</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="84" t="s">
         <v>614</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="84" t="s">
         <v>604</v>
       </c>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="84" t="s">
         <v>581</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101" t="s">
+      <c r="G24" s="84"/>
+      <c r="H24" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="101" t="s">
+      <c r="I24" s="84" t="s">
         <v>615</v>
       </c>
-      <c r="J24" s="100"/>
+      <c r="J24" s="83"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="84" t="s">
         <v>616</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="84" t="s">
         <v>617</v>
       </c>
-      <c r="E25" s="101" t="s">
+      <c r="E25" s="84" t="s">
         <v>528</v>
       </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101" t="s">
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="101" t="s">
+      <c r="I25" s="84" t="s">
         <v>618</v>
       </c>
-      <c r="J25" s="100"/>
+      <c r="J25" s="83"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="84" t="s">
         <v>619</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="84" t="s">
         <v>620</v>
       </c>
-      <c r="E26" s="101" t="s">
+      <c r="E26" s="84" t="s">
         <v>621</v>
       </c>
-      <c r="F26" s="101" t="s">
+      <c r="F26" s="84" t="s">
         <v>603</v>
       </c>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101" t="s">
+      <c r="G26" s="84"/>
+      <c r="H26" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="I26" s="101" t="s">
+      <c r="I26" s="84" t="s">
         <v>622</v>
       </c>
-      <c r="J26" s="100"/>
+      <c r="J26" s="83"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="84" t="s">
         <v>623</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="84" t="s">
         <v>624</v>
       </c>
-      <c r="E27" s="101" t="s">
+      <c r="E27" s="84" t="s">
         <v>625</v>
       </c>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101" t="s">
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="101" t="s">
+      <c r="I27" s="84" t="s">
         <v>626</v>
       </c>
-      <c r="J27" s="100"/>
+      <c r="J27" s="83"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="84" t="s">
         <v>627</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="84" t="s">
         <v>628</v>
       </c>
-      <c r="E28" s="101" t="s">
+      <c r="E28" s="84" t="s">
         <v>629</v>
       </c>
-      <c r="F28" s="101" t="s">
+      <c r="F28" s="84" t="s">
         <v>630</v>
       </c>
-      <c r="G28" s="101" t="s">
+      <c r="G28" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="H28" s="101" t="s">
+      <c r="H28" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="101" t="s">
+      <c r="I28" s="84" t="s">
         <v>631</v>
       </c>
-      <c r="J28" s="100"/>
+      <c r="J28" s="83"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="84" t="s">
         <v>632</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="84" t="s">
         <v>633</v>
       </c>
-      <c r="E29" s="101" t="s">
+      <c r="E29" s="84" t="s">
         <v>578</v>
       </c>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101" t="s">
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="I29" s="101" t="s">
+      <c r="I29" s="84" t="s">
         <v>634</v>
       </c>
-      <c r="J29" s="100"/>
+      <c r="J29" s="83"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="84" t="s">
         <v>635</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="84" t="s">
         <v>636</v>
       </c>
-      <c r="E30" s="101" t="s">
+      <c r="E30" s="84" t="s">
         <v>637</v>
       </c>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101" t="s">
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="101" t="s">
+      <c r="I30" s="84" t="s">
         <v>638</v>
       </c>
-      <c r="J30" s="100"/>
+      <c r="J30" s="83"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="84" t="s">
         <v>639</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="84" t="s">
         <v>640</v>
       </c>
-      <c r="E31" s="101" t="s">
+      <c r="E31" s="84" t="s">
         <v>641</v>
       </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101" t="s">
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84" t="s">
         <v>642</v>
       </c>
-      <c r="I31" s="101" t="s">
+      <c r="I31" s="84" t="s">
         <v>643</v>
       </c>
-      <c r="J31" s="100"/>
+      <c r="J31" s="83"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="84" t="s">
         <v>644</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="84" t="s">
         <v>572</v>
       </c>
-      <c r="E32" s="101" t="s">
+      <c r="E32" s="84" t="s">
         <v>645</v>
       </c>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101" t="s">
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="101" t="s">
+      <c r="I32" s="84" t="s">
         <v>646</v>
       </c>
-      <c r="J32" s="100"/>
+      <c r="J32" s="83"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="84" t="s">
         <v>647</v>
       </c>
-      <c r="D33" s="101" t="s">
+      <c r="D33" s="84" t="s">
         <v>648</v>
       </c>
-      <c r="E33" s="101" t="s">
+      <c r="E33" s="84" t="s">
         <v>649</v>
       </c>
-      <c r="F33" s="101" t="s">
+      <c r="F33" s="84" t="s">
         <v>650</v>
       </c>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101" t="s">
+      <c r="G33" s="84"/>
+      <c r="H33" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="I33" s="101" t="s">
+      <c r="I33" s="84" t="s">
         <v>651</v>
       </c>
-      <c r="J33" s="100"/>
+      <c r="J33" s="83"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="84" t="s">
         <v>652</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="84" t="s">
         <v>653</v>
       </c>
-      <c r="E34" s="101" t="s">
+      <c r="E34" s="84" t="s">
         <v>654</v>
       </c>
-      <c r="F34" s="101" t="s">
+      <c r="F34" s="84" t="s">
         <v>655</v>
       </c>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101" t="s">
+      <c r="G34" s="84"/>
+      <c r="H34" s="84" t="s">
         <v>656</v>
       </c>
-      <c r="I34" s="101" t="s">
+      <c r="I34" s="84" t="s">
         <v>657</v>
       </c>
-      <c r="J34" s="100"/>
+      <c r="J34" s="83"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="84" t="s">
         <v>658</v>
       </c>
-      <c r="D35" s="101" t="s">
+      <c r="D35" s="84" t="s">
         <v>545</v>
       </c>
-      <c r="E35" s="101" t="s">
+      <c r="E35" s="84" t="s">
         <v>659</v>
       </c>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101" t="s">
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84" t="s">
         <v>660</v>
       </c>
-      <c r="I35" s="101" t="s">
+      <c r="I35" s="84" t="s">
         <v>661</v>
       </c>
-      <c r="J35" s="100"/>
+      <c r="J35" s="83"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="84" t="s">
         <v>662</v>
       </c>
-      <c r="D36" s="101" t="s">
+      <c r="D36" s="84" t="s">
         <v>572</v>
       </c>
-      <c r="E36" s="101" t="s">
+      <c r="E36" s="84" t="s">
         <v>604</v>
       </c>
-      <c r="F36" s="101" t="s">
+      <c r="F36" s="84" t="s">
         <v>621</v>
       </c>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101" t="s">
+      <c r="G36" s="84"/>
+      <c r="H36" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="I36" s="101" t="s">
+      <c r="I36" s="84" t="s">
         <v>663</v>
       </c>
-      <c r="J36" s="100"/>
+      <c r="J36" s="83"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="84" t="s">
         <v>664</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="84" t="s">
         <v>665</v>
       </c>
-      <c r="E37" s="101" t="s">
+      <c r="E37" s="84" t="s">
         <v>666</v>
       </c>
-      <c r="F37" s="101" t="s">
+      <c r="F37" s="84" t="s">
         <v>667</v>
       </c>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="101" t="s">
+      <c r="I37" s="84" t="s">
         <v>668</v>
       </c>
-      <c r="J37" s="100"/>
+      <c r="J37" s="83"/>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="84" t="s">
         <v>669</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="84" t="s">
         <v>670</v>
       </c>
-      <c r="E38" s="101" t="s">
+      <c r="E38" s="84" t="s">
         <v>671</v>
       </c>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101" t="s">
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="I38" s="101" t="s">
+      <c r="I38" s="84" t="s">
         <v>672</v>
       </c>
-      <c r="J38" s="100"/>
+      <c r="J38" s="83"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="101" t="s">
+      <c r="C39" s="84" t="s">
         <v>673</v>
       </c>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="84" t="s">
         <v>674</v>
       </c>
-      <c r="E39" s="101" t="s">
+      <c r="E39" s="84" t="s">
         <v>675</v>
       </c>
-      <c r="F39" s="101" t="s">
+      <c r="F39" s="84" t="s">
         <v>590</v>
       </c>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101" t="s">
+      <c r="G39" s="84"/>
+      <c r="H39" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="I39" s="101" t="s">
+      <c r="I39" s="84" t="s">
         <v>676</v>
       </c>
-      <c r="J39" s="100"/>
+      <c r="J39" s="83"/>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="84" t="s">
         <v>677</v>
       </c>
-      <c r="D40" s="101" t="s">
+      <c r="D40" s="84" t="s">
         <v>678</v>
       </c>
-      <c r="E40" s="101" t="s">
+      <c r="E40" s="84" t="s">
         <v>679</v>
       </c>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101" t="s">
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84" t="s">
         <v>680</v>
       </c>
-      <c r="I40" s="101" t="s">
+      <c r="I40" s="84" t="s">
         <v>681</v>
       </c>
-      <c r="J40" s="100"/>
+      <c r="J40" s="83"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="101" t="s">
+      <c r="C41" s="84" t="s">
         <v>682</v>
       </c>
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="84" t="s">
         <v>540</v>
       </c>
-      <c r="E41" s="101" t="s">
+      <c r="E41" s="84" t="s">
         <v>666</v>
       </c>
-      <c r="F41" s="101" t="s">
+      <c r="F41" s="84" t="s">
         <v>683</v>
       </c>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101" t="s">
+      <c r="G41" s="84"/>
+      <c r="H41" s="84" t="s">
         <v>680</v>
       </c>
-      <c r="I41" s="101" t="s">
+      <c r="I41" s="84" t="s">
         <v>684</v>
       </c>
-      <c r="J41" s="100"/>
+      <c r="J41" s="83"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="84" t="s">
         <v>685</v>
       </c>
-      <c r="D42" s="101" t="s">
+      <c r="D42" s="84" t="s">
         <v>664</v>
       </c>
-      <c r="E42" s="101" t="s">
+      <c r="E42" s="84" t="s">
         <v>562</v>
       </c>
-      <c r="F42" s="101" t="s">
+      <c r="F42" s="84" t="s">
         <v>604</v>
       </c>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101" t="s">
+      <c r="G42" s="84"/>
+      <c r="H42" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="I42" s="101" t="s">
+      <c r="I42" s="84" t="s">
         <v>686</v>
       </c>
-      <c r="J42" s="100"/>
+      <c r="J42" s="83"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="84" t="s">
         <v>687</v>
       </c>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="84" t="s">
         <v>688</v>
       </c>
-      <c r="E43" s="101" t="s">
+      <c r="E43" s="84" t="s">
         <v>611</v>
       </c>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101" t="s">
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="I43" s="101" t="s">
+      <c r="I43" s="84" t="s">
         <v>689</v>
       </c>
-      <c r="J43" s="100"/>
+      <c r="J43" s="83"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="D44" s="101" t="s">
+      <c r="D44" s="84" t="s">
         <v>633</v>
       </c>
-      <c r="E44" s="101" t="s">
+      <c r="E44" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101" t="s">
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="I44" s="101" t="s">
+      <c r="I44" s="84" t="s">
         <v>692</v>
       </c>
-      <c r="J44" s="100"/>
+      <c r="J44" s="83"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="101" t="s">
+      <c r="C45" s="84" t="s">
         <v>693</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="84" t="s">
         <v>694</v>
       </c>
-      <c r="E45" s="101" t="s">
+      <c r="E45" s="84" t="s">
         <v>695</v>
       </c>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101" t="s">
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="101" t="s">
+      <c r="I45" s="84" t="s">
         <v>696</v>
       </c>
-      <c r="J45" s="100"/>
+      <c r="J45" s="83"/>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="84" t="s">
         <v>697</v>
       </c>
-      <c r="D46" s="101" t="s">
+      <c r="D46" s="84" t="s">
         <v>698</v>
       </c>
-      <c r="E46" s="101" t="s">
+      <c r="E46" s="84" t="s">
         <v>654</v>
       </c>
-      <c r="F46" s="101" t="s">
+      <c r="F46" s="84" t="s">
         <v>528</v>
       </c>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101" t="s">
+      <c r="G46" s="84"/>
+      <c r="H46" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I46" s="101" t="s">
+      <c r="I46" s="84" t="s">
         <v>699</v>
       </c>
-      <c r="J46" s="100"/>
+      <c r="J46" s="83"/>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="101" t="s">
+      <c r="C47" s="84" t="s">
         <v>700</v>
       </c>
-      <c r="D47" s="101" t="s">
+      <c r="D47" s="84" t="s">
         <v>701</v>
       </c>
-      <c r="E47" s="101" t="s">
+      <c r="E47" s="84" t="s">
         <v>702</v>
       </c>
-      <c r="F47" s="101" t="s">
+      <c r="F47" s="84" t="s">
         <v>590</v>
       </c>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101" t="s">
+      <c r="G47" s="84"/>
+      <c r="H47" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I47" s="101" t="s">
+      <c r="I47" s="84" t="s">
         <v>703</v>
       </c>
-      <c r="J47" s="100"/>
+      <c r="J47" s="83"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="101" t="s">
+      <c r="C48" s="84" t="s">
         <v>704</v>
       </c>
-      <c r="D48" s="101" t="s">
+      <c r="D48" s="84" t="s">
         <v>639</v>
       </c>
-      <c r="E48" s="101" t="s">
+      <c r="E48" s="84" t="s">
         <v>621</v>
       </c>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101" t="s">
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I48" s="101" t="s">
+      <c r="I48" s="84" t="s">
         <v>705</v>
       </c>
-      <c r="J48" s="100"/>
+      <c r="J48" s="83"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C49" s="101" t="s">
+      <c r="C49" s="84" t="s">
         <v>706</v>
       </c>
-      <c r="D49" s="101" t="s">
+      <c r="D49" s="84" t="s">
         <v>700</v>
       </c>
-      <c r="E49" s="101" t="s">
+      <c r="E49" s="84" t="s">
         <v>542</v>
       </c>
-      <c r="F49" s="101" t="s">
+      <c r="F49" s="84" t="s">
         <v>581</v>
       </c>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101" t="s">
+      <c r="G49" s="84"/>
+      <c r="H49" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I49" s="101" t="s">
+      <c r="I49" s="84" t="s">
         <v>707</v>
       </c>
-      <c r="J49" s="100"/>
+      <c r="J49" s="83"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C50" s="101" t="s">
+      <c r="C50" s="84" t="s">
         <v>708</v>
       </c>
-      <c r="D50" s="101" t="s">
+      <c r="D50" s="84" t="s">
         <v>664</v>
       </c>
-      <c r="E50" s="101" t="s">
+      <c r="E50" s="84" t="s">
         <v>562</v>
       </c>
-      <c r="F50" s="101" t="s">
+      <c r="F50" s="84" t="s">
         <v>709</v>
       </c>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101" t="s">
+      <c r="G50" s="84"/>
+      <c r="H50" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="101" t="s">
+      <c r="I50" s="84" t="s">
         <v>710</v>
       </c>
-      <c r="J50" s="100"/>
+      <c r="J50" s="83"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C51" s="101" t="s">
+      <c r="C51" s="84" t="s">
         <v>711</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="84" t="s">
         <v>712</v>
       </c>
-      <c r="E51" s="101" t="s">
+      <c r="E51" s="84" t="s">
         <v>562</v>
       </c>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101" t="s">
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="101" t="s">
+      <c r="I51" s="84" t="s">
         <v>713</v>
       </c>
-      <c r="J51" s="100"/>
+      <c r="J51" s="83"/>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C52" s="101" t="s">
+      <c r="C52" s="84" t="s">
         <v>714</v>
       </c>
-      <c r="D52" s="101" t="s">
+      <c r="D52" s="84" t="s">
         <v>715</v>
       </c>
-      <c r="E52" s="101" t="s">
+      <c r="E52" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="F52" s="101" t="s">
+      <c r="F52" s="84" t="s">
         <v>716</v>
       </c>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101" t="s">
+      <c r="G52" s="84"/>
+      <c r="H52" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I52" s="101" t="s">
+      <c r="I52" s="84" t="s">
         <v>717</v>
       </c>
-      <c r="J52" s="100"/>
+      <c r="J52" s="83"/>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C53" s="101" t="s">
+      <c r="C53" s="84" t="s">
         <v>718</v>
       </c>
-      <c r="D53" s="101" t="s">
+      <c r="D53" s="84" t="s">
         <v>719</v>
       </c>
-      <c r="E53" s="101" t="s">
+      <c r="E53" s="84" t="s">
         <v>720</v>
       </c>
-      <c r="F53" s="101" t="s">
+      <c r="F53" s="84" t="s">
         <v>721</v>
       </c>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101" t="s">
+      <c r="G53" s="84"/>
+      <c r="H53" s="84" t="s">
         <v>722</v>
       </c>
-      <c r="I53" s="101" t="s">
+      <c r="I53" s="84" t="s">
         <v>723</v>
       </c>
-      <c r="J53" s="100"/>
+      <c r="J53" s="83"/>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C54" s="101" t="s">
+      <c r="C54" s="84" t="s">
         <v>724</v>
       </c>
-      <c r="D54" s="101" t="s">
+      <c r="D54" s="84" t="s">
         <v>725</v>
       </c>
-      <c r="E54" s="101" t="s">
+      <c r="E54" s="84" t="s">
         <v>654</v>
       </c>
-      <c r="F54" s="101" t="s">
+      <c r="F54" s="84" t="s">
         <v>581</v>
       </c>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101" t="s">
+      <c r="G54" s="84"/>
+      <c r="H54" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="I54" s="101" t="s">
+      <c r="I54" s="84" t="s">
         <v>726</v>
       </c>
-      <c r="J54" s="100"/>
+      <c r="J54" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
